--- a/mtc2umati/mtc2umati/Mapping.xlsx
+++ b/mtc2umati/mtc2umati/Mapping.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\arzer\Seafile\Meine Bibliothek\MeineProjekte\umati\connect\mtc2umati\mtc2umati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB40692-8910-4825-A5BC-F16C40FE986A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46820C61-14D9-4BCF-9368-66845ABDEEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C8900138-5871-4382-9539-8E39C53F56A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C8900138-5871-4382-9539-8E39C53F56A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping_DMG" sheetId="9" r:id="rId1"/>
     <sheet name="Mapping_Mazak" sheetId="8" r:id="rId2"/>
-    <sheet name="Modelling Rules" sheetId="10" r:id="rId3"/>
-    <sheet name="MTC Values Mazak" sheetId="4" r:id="rId4"/>
-    <sheet name="MTC Values DMG" sheetId="5" r:id="rId5"/>
-    <sheet name="MTC Specs" sheetId="2" r:id="rId6"/>
+    <sheet name="Mapping_MazakShowroom" sheetId="11" r:id="rId3"/>
+    <sheet name="Modelling Rules" sheetId="10" r:id="rId4"/>
+    <sheet name="MTC Values Mazak" sheetId="4" r:id="rId5"/>
+    <sheet name="MTC Values DMG" sheetId="5" r:id="rId6"/>
+    <sheet name="MTC Specs" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4549" uniqueCount="707">
   <si>
     <t>Modelling Rule</t>
   </si>
@@ -3218,6 +3219,81 @@
   <si>
     <t>#0</t>
   </si>
+  <si>
+    <t>Example for hardcoded static value</t>
+  </si>
+  <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>Identification/AssetId</t>
+  </si>
+  <si>
+    <t>Identification/ComponentName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identification/Manufacturer   </t>
+  </si>
+  <si>
+    <t>#Mazak Corporation</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ChannelName</t>
+  </si>
+  <si>
+    <t>Monitoring/Channel1/Name</t>
+  </si>
+  <si>
+    <t>#Channel1</t>
+  </si>
+  <si>
+    <t>ChannelState</t>
+  </si>
+  <si>
+    <t>Monitoring/Channel1/ChannelState</t>
+  </si>
+  <si>
+    <t>Monitoring/Channel1/FeedOverride/EngineeringUnits</t>
+  </si>
+  <si>
+    <t>Monitoring/Channel1/FeedOverride/EURange</t>
+  </si>
+  <si>
+    <t>Monitoring/MachineTool/FeedOverride/EURange</t>
+  </si>
+  <si>
+    <t>EUInformation</t>
+  </si>
+  <si>
+    <t>#%,Override in percent</t>
+  </si>
+  <si>
+    <t>#0,140</t>
+  </si>
+  <si>
+    <t>Monitoring/Channel1/RapidOverride/EngineeringUnits</t>
+  </si>
+  <si>
+    <t>Monitoring/Channel1/RapidOverride/EURange</t>
+  </si>
+  <si>
+    <t>FeedOverrideEngineeringUnits</t>
+  </si>
+  <si>
+    <t>FeedOverrideRange</t>
+  </si>
+  <si>
+    <t>RapidOverrideEngineeringUnits</t>
+  </si>
+  <si>
+    <t>RapidOverrideRange</t>
+  </si>
 </sst>
 </file>
 
@@ -3447,7 +3523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3510,6 +3586,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3526,7 +3611,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3574,6 +3659,9 @@
         <b/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3893,7 +3981,7 @@
     <tableColumn id="8" xr3:uid="{184056D4-4267-4E75-91D0-8DCBA4B01542}" name="MTC Path"/>
     <tableColumn id="11" xr3:uid="{C56C86D0-6F7E-4B31-B8E2-AA9149373853}" name="subType"/>
     <tableColumn id="9" xr3:uid="{C2C7C293-602E-4428-9E4E-1CA3E32313B1}" name="MTC Data Type"/>
-    <tableColumn id="10" xr3:uid="{1E65F599-6A0E-48E9-81ED-D38A76C13240}" name="Comment DMG" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{1E65F599-6A0E-48E9-81ED-D38A76C13240}" name="Comment DMG" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3902,22 +3990,22 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{73708A3A-B34F-427D-B69F-51F0B6CC525E}" name="Tabelle63" displayName="Tabelle63" ref="A1:K195" totalsRowShown="0">
   <autoFilter ref="A1:K195" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="M"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Variable"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K195">
     <sortCondition ref="D1:D195"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{0C97535C-5280-4C4E-AFAF-2349D9CC17B9}" name="Modelling Rule" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{0C97535C-5280-4C4E-AFAF-2349D9CC17B9}" name="Modelling Rule" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{781EBAA7-0C88-4A8F-897C-97E19FF842F8}" name="Node Class"/>
     <tableColumn id="3" xr3:uid="{E333B96E-17E2-4FDF-A7AE-E033CA1DC990}" name="BrowseName"/>
     <tableColumn id="4" xr3:uid="{F2D4D9B6-5B7E-4B94-B85F-4E281B65C704}" name="OPC Path"/>
@@ -3927,13 +4015,37 @@
     <tableColumn id="13" xr3:uid="{9344ED68-6290-41E1-8039-2C314677F121}" name="MTC Path"/>
     <tableColumn id="14" xr3:uid="{64524808-E13D-4827-9F63-BE312E4155C6}" name="subType"/>
     <tableColumn id="15" xr3:uid="{0445DE02-C13D-4AF7-A9B4-9969B82674E4}" name="MTC Data Type"/>
-    <tableColumn id="16" xr3:uid="{5728268B-EB27-4573-A5DB-BE604ED9F166}" name="Comment Mazak" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{5728268B-EB27-4573-A5DB-BE604ED9F166}" name="Comment Mazak" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE8FAD02-9A69-4F06-801A-E0FFF72BEC0F}" name="Tabelle636" displayName="Tabelle636" ref="A1:L200" totalsRowShown="0">
+  <autoFilter ref="A1:L200" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K200">
+    <sortCondition ref="D1:D200"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{7E640474-2ABE-4881-A17D-54BF64EE5BAB}" name="Modelling Rule"/>
+    <tableColumn id="2" xr3:uid="{EA9493F5-F154-44DF-B918-B32D4569F91A}" name="Node Class"/>
+    <tableColumn id="3" xr3:uid="{7E64CCAF-6B2D-4CC9-B613-CA660931864C}" name="BrowseName"/>
+    <tableColumn id="4" xr3:uid="{5DD9C21E-B8BD-4D3B-AA33-B49E16E572E6}" name="OPC Path"/>
+    <tableColumn id="5" xr3:uid="{86117A2F-3A07-44E6-ADAB-A399E70F7164}" name="Data Type"/>
+    <tableColumn id="6" xr3:uid="{F187E47C-A335-47F8-A432-3D332F15463D}" name="Type Definition"/>
+    <tableColumn id="12" xr3:uid="{1E92A1F5-F07E-444F-BA36-0734F37732FC}" name="MTC Name" dataCellStyle="Standard"/>
+    <tableColumn id="13" xr3:uid="{30D70E92-B0ED-4D21-B6DB-3B2876BBC06B}" name="MTC Path"/>
+    <tableColumn id="14" xr3:uid="{1686EE16-55DB-4161-865C-F27750DD4F2B}" name="subType"/>
+    <tableColumn id="15" xr3:uid="{1464A335-8F4B-4C98-AD45-FF87F8A0F343}" name="MTC Data Type"/>
+    <tableColumn id="16" xr3:uid="{07844DA1-2BB1-405D-9EEE-4455312062D1}" name="Comment Mazak"/>
+    <tableColumn id="7" xr3:uid="{549FF784-0F2F-42C2-9791-584DB56708F3}" name="Static" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{935F87FF-DC64-41A0-A039-84082C7329B7}" name="Tabelle1" displayName="Tabelle1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D1048576" xr:uid="{A93635F0-7A82-4CD2-9B62-6A897FBADF96}">
     <filterColumn colId="2">
@@ -4001,7 +4113,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9F8F82E-49FB-4CCA-A8F0-FFD5AD3964E4}" name="Tabelle14" displayName="Tabelle14" ref="A1:D73" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D73" xr:uid="{F41D6590-A8BA-4AB9-B333-A5A923AB2A63}">
     <filterColumn colId="2">
@@ -4335,8 +4447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86714E06-43CE-41D1-B0FA-37CA50D75756}">
   <dimension ref="A1:N150"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4525,7 +4637,9 @@
       <c r="J7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="18"/>
+      <c r="K7" s="18" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -7866,8 +7980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84283000-7D10-4DA9-8365-BFFC6E636655}">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H203" sqref="H203"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7923,7 +8037,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>92</v>
       </c>
@@ -7952,7 +8066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>92</v>
       </c>
@@ -7981,7 +8095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>311</v>
       </c>
@@ -8010,7 +8124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>92</v>
       </c>
@@ -8039,7 +8153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>311</v>
       </c>
@@ -8068,7 +8182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>92</v>
       </c>
@@ -8097,7 +8211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>92</v>
       </c>
@@ -8126,7 +8240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>311</v>
       </c>
@@ -8155,7 +8269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>92</v>
       </c>
@@ -8184,7 +8298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>311</v>
       </c>
@@ -8213,7 +8327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>311</v>
       </c>
@@ -8242,7 +8356,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>311</v>
       </c>
@@ -8271,7 +8385,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>92</v>
       </c>
@@ -8300,7 +8414,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>92</v>
       </c>
@@ -8329,7 +8443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>311</v>
       </c>
@@ -8358,7 +8472,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>92</v>
       </c>
@@ -8387,7 +8501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>311</v>
       </c>
@@ -8416,7 +8530,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>92</v>
       </c>
@@ -8445,7 +8559,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>92</v>
       </c>
@@ -8474,7 +8588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>311</v>
       </c>
@@ -8503,7 +8617,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>92</v>
       </c>
@@ -8532,7 +8646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>311</v>
       </c>
@@ -8561,7 +8675,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>92</v>
       </c>
@@ -8590,7 +8704,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>311</v>
       </c>
@@ -8619,7 +8733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>311</v>
       </c>
@@ -8648,7 +8762,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>92</v>
       </c>
@@ -8677,7 +8791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>311</v>
       </c>
@@ -8800,7 +8914,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>14</v>
       </c>
@@ -9011,7 +9125,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="18"/>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>14</v>
       </c>
@@ -9117,7 +9231,9 @@
         <v>678</v>
       </c>
       <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="J44" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="K44" s="18"/>
     </row>
     <row r="45" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9144,7 +9260,9 @@
         <v>679</v>
       </c>
       <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="J45" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="K45" s="18"/>
     </row>
     <row r="46" spans="1:11" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -9170,7 +9288,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="18"/>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>92</v>
       </c>
@@ -9202,7 +9320,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>311</v>
       </c>
@@ -9237,7 +9355,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>92</v>
       </c>
@@ -9294,7 +9412,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="18"/>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>92</v>
       </c>
@@ -9326,7 +9444,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>311</v>
       </c>
@@ -9361,7 +9479,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>92</v>
       </c>
@@ -9564,7 +9682,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="18"/>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>179</v>
       </c>
@@ -9593,7 +9711,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>179</v>
       </c>
@@ -9626,7 +9744,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>179</v>
       </c>
@@ -9658,7 +9776,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>179</v>
       </c>
@@ -11177,7 +11295,9 @@
         <v>680</v>
       </c>
       <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
+      <c r="J124" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="K124" s="18"/>
     </row>
     <row r="125" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11235,7 +11355,7 @@
       <c r="J126" s="9"/>
       <c r="K126" s="18"/>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>311</v>
       </c>
@@ -11264,7 +11384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>311</v>
       </c>
@@ -11297,7 +11417,7 @@
       </c>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>311</v>
       </c>
@@ -11330,7 +11450,7 @@
       </c>
       <c r="K129" s="12"/>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>311</v>
       </c>
@@ -11362,7 +11482,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>311</v>
       </c>
@@ -11394,7 +11514,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>311</v>
       </c>
@@ -11842,7 +11962,7 @@
       <c r="J149" s="9"/>
       <c r="K149" s="18"/>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>311</v>
       </c>
@@ -11874,7 +11994,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>311</v>
       </c>
@@ -11903,7 +12023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>311</v>
       </c>
@@ -11933,7 +12053,7 @@
       </c>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>311</v>
       </c>
@@ -11965,7 +12085,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>311</v>
       </c>
@@ -12017,7 +12137,7 @@
       <c r="J155" s="9"/>
       <c r="K155" s="18"/>
     </row>
-    <row r="156" spans="1:11" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
         <v>179</v>
       </c>
@@ -12191,7 +12311,7 @@
       <c r="J162" s="9"/>
       <c r="K162" s="18"/>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>179</v>
       </c>
@@ -12223,7 +12343,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>14</v>
       </c>
@@ -12280,7 +12400,7 @@
       <c r="J165" s="9"/>
       <c r="K165" s="18"/>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>311</v>
       </c>
@@ -12333,7 +12453,9 @@
         <v>680</v>
       </c>
       <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
+      <c r="J167" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="K167" s="18"/>
     </row>
     <row r="168" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12355,15 +12477,19 @@
       <c r="F168" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G168" s="9"/>
+      <c r="G168" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="H168" s="9" t="s">
         <v>681</v>
       </c>
       <c r="I168" s="9"/>
-      <c r="J168" s="9"/>
+      <c r="J168" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="K168" s="18"/>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>179</v>
       </c>
@@ -12395,7 +12521,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>311</v>
       </c>
@@ -12598,7 +12724,9 @@
         <v>681</v>
       </c>
       <c r="I177" s="9"/>
-      <c r="J177" s="9"/>
+      <c r="J177" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="K177" s="18"/>
     </row>
     <row r="178" spans="1:11" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -12650,7 +12778,9 @@
         <v>681</v>
       </c>
       <c r="I179" s="9"/>
-      <c r="J179" s="9"/>
+      <c r="J179" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="K179" s="18"/>
     </row>
     <row r="180" spans="1:11" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -12803,7 +12933,7 @@
       <c r="J185" s="9"/>
       <c r="K185" s="18"/>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>311</v>
       </c>
@@ -12836,7 +12966,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>311</v>
       </c>
@@ -12869,7 +12999,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>311</v>
       </c>
@@ -12901,7 +13031,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>311</v>
       </c>
@@ -13024,7 +13154,7 @@
       <c r="J193" s="9"/>
       <c r="K193" s="18"/>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>311</v>
       </c>
@@ -13078,6 +13208,4973 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA108938-A41A-4607-947C-EAC9A8B9EE57}">
+  <dimension ref="A1:L200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27" style="9" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" style="9" customWidth="1"/>
+    <col min="9" max="10" width="20.7109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="9"/>
+    <col min="13" max="13" width="11.42578125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="29.140625" style="9" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="40"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="40"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="40"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="40"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="40"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="40"/>
+    </row>
+    <row r="11" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" s="40"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L13" s="40"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="40"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="40"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="40"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L18" s="40"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" s="40"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="40"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" s="40"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="40"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" s="40"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" s="40"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="40"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L26" s="40"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="40"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="41"/>
+    </row>
+    <row r="30" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="41"/>
+    </row>
+    <row r="31" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="41"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="40"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="L33" s="40"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="40"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="40"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="40"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="40"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="40"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="40" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="40"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="L41" s="40"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="40"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="40"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="40" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="40" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L46" s="40"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="L47" s="40"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="L48" s="40"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="40"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="40"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="L52" s="40"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="40"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="L55" s="40"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="L56" s="40"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="40"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L58" s="40"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" s="40"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L60" s="40"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L61" s="40"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="L62" s="40"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L63" s="40"/>
+    </row>
+    <row r="64" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="J64" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="42" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="J65" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="42" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L66" s="40"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" s="26"/>
+      <c r="L67" s="42" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" s="26"/>
+      <c r="L68" s="42" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L69" s="40" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" s="40" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L71" s="40"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" s="21"/>
+      <c r="L72" s="40"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" s="40"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="L74" s="40"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="L75" s="40"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" s="40"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="40"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L78" s="40"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L79" s="40"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L80" s="40"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L81" s="40"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L82" s="40"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" s="40"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" s="40"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" s="40"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="40"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L87" s="40"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" s="40"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" s="40"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" s="40"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L91" s="40"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" s="40"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L93" s="40"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L94" s="40"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L95" s="40"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L96" s="40"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L97" s="40"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L98" s="40"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L99" s="40"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100" s="40"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L101" s="40"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L102" s="40"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L103" s="40"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L104" s="40"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L105" s="40"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L106" s="40"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L107" s="40"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L108" s="40"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L109" s="40"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L110" s="40"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L111" s="40"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L112" s="40"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L113" s="40"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L114" s="40"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L115" s="40"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L116" s="40"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L117" s="40"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L118" s="40"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L119" s="40"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L120" s="40"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="L121" s="40"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L122" s="40"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L123" s="40"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L124" s="40"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L125" s="40"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L126" s="40"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L127" s="40"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L128" s="40"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L129" s="40"/>
+    </row>
+    <row r="130" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E130" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G130" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K130" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="L130" s="40"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L131" s="40"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="J132" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L132" s="40"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G133" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="J133" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K133" s="12"/>
+      <c r="L133" s="40"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="J134" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K134" s="12"/>
+      <c r="L134" s="40"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K135" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="L135" s="40"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="J136" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K136" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="L136" s="40"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G137" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="J137" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K137" s="12"/>
+      <c r="L137" s="40"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L138" s="40"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L139" s="40"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="L140" s="40"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L141" s="40"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L142" s="40"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L143" s="40"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L144" s="40"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L145" s="40"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L146" s="40"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L147" s="40"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L148" s="40"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L149" s="40"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L150" s="40"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L151" s="40"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L152" s="40"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L153" s="40"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="L154" s="40"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E155" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="H155" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K155" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="L155" s="40"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="J156" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L156" s="40"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="J157" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K157" s="12"/>
+      <c r="L157" s="40"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="H158" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="J158" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K158" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="L158" s="40"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="H159" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L159" s="40"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="L160" s="40"/>
+    </row>
+    <row r="161" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B161" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="E161" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F161" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H161" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="J161" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K161" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="L161" s="41"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="L162" s="40"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="L163" s="40"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L164" s="40"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="L165" s="40"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="L166" s="40"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L167" s="40"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H168" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="I168" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="J168" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L168" s="40"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H169" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="I169" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L169" s="40"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L170" s="40"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="H171" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L171" s="40"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="J172" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L172" s="40"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="J173" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L173" s="40" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H174" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="I174" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="J174" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L174" s="40"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="H175" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="J175" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L175" s="40"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L176" s="40"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="L177" s="40"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L178" s="40"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L179" s="40"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="H180" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="K180" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="L180" s="40"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L181" s="40"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H182" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="J182" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L182" s="40" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L183" s="40"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H184" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="J184" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L184" s="40" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L185" s="40"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L186" s="40"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L187" s="40"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L188" s="40"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L189" s="40"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L190" s="40"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H191" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K191" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="L191" s="40"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H192" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K192" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="L192" s="40"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G193" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="H193" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="J193" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K193" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="L193" s="40"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="H194" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="J194" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L194" s="40"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L195" s="40"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F196" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="L196" s="40"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L197" s="40"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="L198" s="40"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G199" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="H199" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="J199" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L199" s="40"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="L200" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAAFC79-5577-476B-B1CC-67E10685991A}">
   <dimension ref="B2:C7"/>
   <sheetViews>
@@ -13142,7 +18239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A74275F-88CC-4439-9C7E-3B35A97F1CB9}">
   <dimension ref="A1:D123"/>
   <sheetViews>
@@ -14878,7 +19975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F71650-1B07-47D5-BD9D-8CEDD8564375}">
   <dimension ref="A1:D73"/>
   <sheetViews>
@@ -15924,7 +21021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916638A0-997A-4DC7-9F1B-B62E0940B85E}">
   <dimension ref="B3:AD54"/>
   <sheetViews>
@@ -15939,13 +21036,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="45" t="s">
         <v>640</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>641</v>
       </c>
@@ -15978,13 +21075,13 @@
       <c r="AD3" s="5"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="46" t="s">
         <v>644</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="14" t="s">
         <v>645</v>
       </c>
@@ -16017,34 +21114,34 @@
       <c r="AD4" s="14"/>
     </row>
     <row r="6" spans="2:30" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>648</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="M6" s="41" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="M6" s="44" t="s">
         <v>649</v>
       </c>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="W6" s="41" t="s">
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="W6" s="44" t="s">
         <v>650</v>
       </c>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
     </row>
     <row r="7" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -16078,260 +21175,260 @@
       <c r="AD7" s="5"/>
     </row>
     <row r="24" spans="13:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M24" s="40" t="s">
+      <c r="M24" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
     </row>
     <row r="25" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
     </row>
     <row r="26" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
     </row>
     <row r="27" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
     </row>
     <row r="28" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
     </row>
     <row r="29" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
     </row>
     <row r="30" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
     </row>
     <row r="31" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
     </row>
     <row r="32" spans="13:20" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
     </row>
     <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="43" t="s">
         <v>652</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
     </row>
     <row r="43" spans="2:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/mtc2umati/mtc2umati/Mapping.xlsx
+++ b/mtc2umati/mtc2umati/Mapping.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\arzer\Seafile\Meine Bibliothek\MeineProjekte\umati\connect\mtc2umati\mtc2umati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\arzer\Seafile\Meine Bibliothek\MeineProjekte\umati\net_umaticonnect\mtc2umati\mtc2umati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1F5A5E-6B03-4CE1-A6B4-3C4CA15CF336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE99F07F-6A89-46D7-96A6-9AB59AC1D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C8900138-5871-4382-9539-8E39C53F56A2}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{03908AE4-99AE-4B02-82B0-01AC17757249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{264555F1-0172-4A46-8607-1BBA516D8533}"/>
+    <workbookView xWindow="-16320" yWindow="-5280" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{40695492-071F-42C0-91D8-1CF4EDDA561A}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping_DMG" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4631" uniqueCount="710">
   <si>
     <t>Modelling Rule</t>
   </si>
@@ -3293,13 +3293,16 @@
     <t>RapidOverrideRange</t>
   </si>
   <si>
-    <t>#None</t>
-  </si>
-  <si>
     <t>Program Name</t>
   </si>
   <si>
     <t>Serial Number</t>
+  </si>
+  <si>
+    <t>#N 52.4260022 E 9.6175556</t>
+  </si>
+  <si>
+    <t>#http://mazak.com</t>
   </si>
 </sst>
 </file>
@@ -3943,7 +3946,7 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE8FAD02-9A69-4F06-801A-E0FFF72BEC0F}" name="Tabelle636" displayName="Tabelle636" ref="A1:L200" totalsRowShown="0">
   <autoFilter ref="A1:L200" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}">
-    <filterColumn colId="11">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
@@ -4372,8 +4375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86714E06-43CE-41D1-B0FA-37CA50D75756}">
   <dimension ref="A1:N150"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="C70" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -4730,6 +4733,15 @@
       <c r="F14" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="G14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="K14" s="13"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
@@ -7906,12 +7918,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84283000-7D10-4DA9-8365-BFFC6E636655}">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView topLeftCell="C133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H186" sqref="H186"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="C106" workbookViewId="1">
-      <selection activeCell="G131" sqref="G131"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9065,10 +9075,16 @@
       <c r="F38" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="G38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>708</v>
+      </c>
       <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="J38" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
@@ -9272,7 +9288,7 @@
         <v>22</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>678</v>
@@ -12228,10 +12244,13 @@
         <v>22</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>707</v>
-      </c>
-      <c r="H172" s="8" t="s">
-        <v>679</v>
+        <v>706</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="I172" s="8" t="s">
+        <v>571</v>
       </c>
       <c r="J172" s="8" t="s">
         <v>21</v>
@@ -12432,6 +12451,9 @@
       <c r="H180" s="9" t="s">
         <v>483</v>
       </c>
+      <c r="J180" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="K180" s="8" t="s">
         <v>484</v>
       </c>
@@ -12509,9 +12531,6 @@
       </c>
       <c r="G183" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H183" s="8" t="s">
-        <v>706</v>
       </c>
       <c r="J183" s="8" t="s">
         <v>21</v>
@@ -12917,8 +12936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA108938-A41A-4607-947C-EAC9A8B9EE57}">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -12978,7 +12997,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>92</v>
       </c>
@@ -13008,7 +13027,7 @@
       </c>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>92</v>
       </c>
@@ -13038,7 +13057,7 @@
       </c>
       <c r="L3" s="32"/>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>311</v>
       </c>
@@ -13068,7 +13087,7 @@
       </c>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>92</v>
       </c>
@@ -13098,7 +13117,7 @@
       </c>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>311</v>
       </c>
@@ -13128,7 +13147,7 @@
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>92</v>
       </c>
@@ -13158,7 +13177,7 @@
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>92</v>
       </c>
@@ -13188,7 +13207,7 @@
       </c>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>311</v>
       </c>
@@ -13218,7 +13237,7 @@
       </c>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>92</v>
       </c>
@@ -13248,7 +13267,7 @@
       </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>311</v>
       </c>
@@ -13278,7 +13297,7 @@
       </c>
       <c r="L11" s="33"/>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>311</v>
       </c>
@@ -13308,7 +13327,7 @@
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>311</v>
       </c>
@@ -13338,7 +13357,7 @@
       </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>92</v>
       </c>
@@ -13368,7 +13387,7 @@
       </c>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>92</v>
       </c>
@@ -13398,7 +13417,7 @@
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>311</v>
       </c>
@@ -13428,7 +13447,7 @@
       </c>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>92</v>
       </c>
@@ -13458,7 +13477,7 @@
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>311</v>
       </c>
@@ -13488,7 +13507,7 @@
       </c>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>92</v>
       </c>
@@ -13518,7 +13537,7 @@
       </c>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>92</v>
       </c>
@@ -13548,7 +13567,7 @@
       </c>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>311</v>
       </c>
@@ -13578,7 +13597,7 @@
       </c>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>92</v>
       </c>
@@ -13608,7 +13627,7 @@
       </c>
       <c r="L22" s="32"/>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>311</v>
       </c>
@@ -13638,7 +13657,7 @@
       </c>
       <c r="L23" s="32"/>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>92</v>
       </c>
@@ -13668,7 +13687,7 @@
       </c>
       <c r="L24" s="32"/>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>311</v>
       </c>
@@ -13698,7 +13717,7 @@
       </c>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>311</v>
       </c>
@@ -13728,7 +13747,7 @@
       </c>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>92</v>
       </c>
@@ -13758,7 +13777,7 @@
       </c>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>311</v>
       </c>
@@ -13863,7 +13882,7 @@
       </c>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>14</v>
       </c>
@@ -13980,26 +13999,35 @@
       </c>
       <c r="L37" s="32"/>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="8" t="s">
+    <row r="38" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="32"/>
+      <c r="E38" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="34"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
@@ -14054,7 +14082,7 @@
       </c>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>14</v>
       </c>
@@ -14152,7 +14180,7 @@
         <v>32</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>21</v>
@@ -14211,7 +14239,7 @@
       </c>
       <c r="L46" s="32"/>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>92</v>
       </c>
@@ -14244,7 +14272,7 @@
       </c>
       <c r="L47" s="32"/>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>311</v>
       </c>
@@ -14280,7 +14308,7 @@
       </c>
       <c r="L48" s="32"/>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>92</v>
       </c>
@@ -14334,7 +14362,7 @@
       </c>
       <c r="L50" s="32"/>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>92</v>
       </c>
@@ -14367,7 +14395,7 @@
       </c>
       <c r="L51" s="32"/>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>311</v>
       </c>
@@ -14403,7 +14431,7 @@
       </c>
       <c r="L52" s="32"/>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>92</v>
       </c>
@@ -14579,7 +14607,7 @@
       </c>
       <c r="L60" s="32"/>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>179</v>
       </c>
@@ -14609,7 +14637,7 @@
       </c>
       <c r="L61" s="32"/>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>179</v>
       </c>
@@ -14643,7 +14671,7 @@
       </c>
       <c r="L62" s="32"/>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>179</v>
       </c>
@@ -14744,7 +14772,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>179</v>
       </c>
@@ -16133,7 +16161,7 @@
       </c>
       <c r="L129" s="32"/>
     </row>
-    <row r="130" spans="1:12" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>10</v>
       </c>
@@ -16187,7 +16215,7 @@
       </c>
       <c r="L131" s="32"/>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>311</v>
       </c>
@@ -16217,7 +16245,7 @@
       </c>
       <c r="L132" s="32"/>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>311</v>
       </c>
@@ -16251,7 +16279,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="32"/>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>311</v>
       </c>
@@ -16285,7 +16313,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="32"/>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>311</v>
       </c>
@@ -16318,7 +16346,7 @@
       </c>
       <c r="L135" s="32"/>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>311</v>
       </c>
@@ -16351,7 +16379,7 @@
       </c>
       <c r="L136" s="32"/>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>311</v>
       </c>
@@ -16727,7 +16755,7 @@
       </c>
       <c r="L154" s="32"/>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>311</v>
       </c>
@@ -16760,7 +16788,7 @@
       </c>
       <c r="L155" s="32"/>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>311</v>
       </c>
@@ -16790,7 +16818,7 @@
       </c>
       <c r="L156" s="32"/>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>311</v>
       </c>
@@ -16821,7 +16849,7 @@
       <c r="K157" s="9"/>
       <c r="L157" s="32"/>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>311</v>
       </c>
@@ -16854,7 +16882,7 @@
       </c>
       <c r="L158" s="32"/>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>311</v>
       </c>
@@ -16902,7 +16930,7 @@
       </c>
       <c r="L160" s="32"/>
     </row>
-    <row r="161" spans="1:12" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
         <v>179</v>
       </c>
@@ -17049,7 +17077,7 @@
       </c>
       <c r="L167" s="32"/>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>179</v>
       </c>
@@ -17082,7 +17110,7 @@
       </c>
       <c r="L168" s="32"/>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>14</v>
       </c>
@@ -17136,7 +17164,7 @@
       </c>
       <c r="L170" s="32"/>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>311</v>
       </c>
@@ -17166,7 +17194,7 @@
       </c>
       <c r="L171" s="32"/>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>10</v>
       </c>
@@ -17228,7 +17256,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>179</v>
       </c>
@@ -17261,7 +17289,7 @@
       </c>
       <c r="L174" s="32"/>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>311</v>
       </c>
@@ -17369,7 +17397,7 @@
       </c>
       <c r="L179" s="32"/>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>10</v>
       </c>
@@ -17393,6 +17421,9 @@
       </c>
       <c r="H180" s="9" t="s">
         <v>483</v>
+      </c>
+      <c r="J180" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K180" s="8" t="s">
         <v>484</v>
@@ -17634,7 +17665,7 @@
       </c>
       <c r="L190" s="32"/>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>311</v>
       </c>
@@ -17668,7 +17699,7 @@
       </c>
       <c r="L191" s="32"/>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>311</v>
       </c>
@@ -17702,7 +17733,7 @@
       </c>
       <c r="L192" s="32"/>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>311</v>
       </c>
@@ -17735,7 +17766,7 @@
       </c>
       <c r="L193" s="32"/>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>311</v>
       </c>
@@ -17840,7 +17871,7 @@
       </c>
       <c r="L198" s="32"/>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
         <v>311</v>
       </c>
@@ -17889,9 +17920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAAFC79-5577-476B-B1CC-67E10685991A}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17955,9 +17984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A74275F-88CC-4439-9C7E-3B35A97F1CB9}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19692,9 +19719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F71650-1B07-47D5-BD9D-8CEDD8564375}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20739,9 +20764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916638A0-997A-4DC7-9F1B-B62E0940B85E}">
   <dimension ref="B3:AD54"/>
   <sheetViews>
-    <sheetView topLeftCell="N24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ43" sqref="AJ43"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mtc2umati/mtc2umati/Mapping.xlsx
+++ b/mtc2umati/mtc2umati/Mapping.xlsx
@@ -5,13 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\arzer\Seafile\Meine Bibliothek\MeineProjekte\umati\net_umaticonnect\mtc2umati\mtc2umati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\arzer\Seafile\Meine Bibliothek\MeineProjekte\umati\connect\mtc2umati\mtc2umati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE99F07F-6A89-46D7-96A6-9AB59AC1D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D202F1-BE4E-4236-AF26-A48FDBD26C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{264555F1-0172-4A46-8607-1BBA516D8533}"/>
-    <workbookView xWindow="-16320" yWindow="-5280" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{40695492-071F-42C0-91D8-1CF4EDDA561A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{40695492-071F-42C0-91D8-1CF4EDDA561A}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping_DMG" sheetId="9" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4631" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4657" uniqueCount="712">
   <si>
     <t>Modelling Rule</t>
   </si>
@@ -3304,12 +3303,18 @@
   <si>
     <t>#http://mazak.com</t>
   </si>
+  <si>
+    <t>#https://de.dmgmori.com/</t>
+  </si>
+  <si>
+    <t>EURange</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3377,8 +3382,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3406,6 +3419,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3481,10 +3500,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3548,6 +3568,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3561,7 +3592,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -3945,14 +3977,8 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE8FAD02-9A69-4F06-801A-E0FFF72BEC0F}" name="Tabelle636" displayName="Tabelle636" ref="A1:L200" totalsRowShown="0">
-  <autoFilter ref="A1:L200" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K200">
+  <autoFilter ref="A1:L200" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L199">
     <sortCondition ref="D1:D200"/>
   </sortState>
   <tableColumns count="12">
@@ -4375,10 +4401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86714E06-43CE-41D1-B0FA-37CA50D75756}">
   <dimension ref="A1:N150"/>
   <sheetViews>
-    <sheetView topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:D52"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4540,16 +4565,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>31</v>
@@ -4557,31 +4582,20 @@
       <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>665</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>681</v>
-      </c>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>21</v>
@@ -4599,25 +4613,16 @@
         <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>663</v>
+        <v>43</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="M9" s="30"/>
       <c r="N9" s="15"/>
@@ -4630,13 +4635,13 @@
         <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>22</v>
@@ -4653,16 +4658,25 @@
         <v>18</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K11" s="13"/>
       <c r="M11" s="15"/>
@@ -4670,24 +4684,35 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="G12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>681</v>
+      </c>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
     </row>
@@ -4699,13 +4724,13 @@
         <v>18</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>22</v>
@@ -4722,22 +4747,22 @@
         <v>18</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>663</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>708</v>
+        <v>37</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>21</v>
@@ -4754,13 +4779,13 @@
         <v>18</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
@@ -4771,53 +4796,53 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>710</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K17" s="13"/>
       <c r="M17" s="15"/>
@@ -4825,22 +4850,31 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K18" s="13"/>
       <c r="M18" s="15"/>
@@ -4871,16 +4905,28 @@
         <v>14</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>64</v>
+        <v>180</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>65</v>
+        <v>22</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K20" s="13"/>
       <c r="M20" s="15"/>
@@ -4891,19 +4937,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="K21" s="13"/>
       <c r="M21" s="15"/>
@@ -4917,10 +4960,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>21</v>
@@ -4943,7 +4986,7 @@
         <v>68</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>21</v>
@@ -4963,16 +5006,16 @@
         <v>18</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="K24" s="13"/>
       <c r="M24" s="15"/>
@@ -4986,16 +5029,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="K25" s="13"/>
       <c r="M25" s="15"/>
@@ -5003,19 +5046,22 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="K26" s="13"/>
       <c r="M26" s="15"/>
@@ -5029,13 +5075,13 @@
         <v>11</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K27" s="13"/>
       <c r="M27" s="15"/>
@@ -5049,16 +5095,25 @@
         <v>18</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>86</v>
+        <v>103</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="K28" s="13"/>
       <c r="M28" s="15"/>
@@ -5072,16 +5127,25 @@
         <v>18</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K29" s="13"/>
       <c r="M29" s="15"/>
@@ -5091,66 +5155,87 @@
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="13"/>
+      <c r="B30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K30" s="36"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K31" s="36"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="K32" s="13"/>
       <c r="M32" s="15"/>
@@ -5164,16 +5249,25 @@
         <v>18</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>22</v>
+        <v>86</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="K33" s="13"/>
       <c r="M33" s="15"/>
@@ -5187,16 +5281,16 @@
         <v>18</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="K34" s="13"/>
       <c r="M34" s="15"/>
@@ -5207,16 +5301,28 @@
         <v>14</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>105</v>
+        <v>90</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>106</v>
+        <v>22</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K35" s="13"/>
       <c r="M35" s="15"/>
@@ -5224,22 +5330,31 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>107</v>
+        <v>711</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>108</v>
+        <v>696</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K36" s="13"/>
       <c r="M36" s="15"/>
@@ -5253,16 +5368,16 @@
         <v>18</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="K37" s="13"/>
       <c r="M37" s="15"/>
@@ -5276,16 +5391,16 @@
         <v>18</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="K38" s="13"/>
       <c r="M38" s="15"/>
@@ -5299,16 +5414,16 @@
         <v>18</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K39" s="13"/>
       <c r="M39" s="15"/>
@@ -5319,19 +5434,16 @@
         <v>14</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="K40" s="13"/>
       <c r="M40" s="15"/>
@@ -5345,16 +5457,16 @@
         <v>18</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K41" s="13"/>
       <c r="M41" s="15"/>
@@ -5368,16 +5480,16 @@
         <v>18</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K42" s="13"/>
       <c r="M42" s="15"/>
@@ -5391,16 +5503,16 @@
         <v>18</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="K43" s="13"/>
       <c r="M43" s="15"/>
@@ -5414,13 +5526,13 @@
         <v>18</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>22</v>
@@ -5431,7 +5543,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>18</v>
@@ -5440,7 +5552,7 @@
         <v>117</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>109</v>
@@ -5463,7 +5575,7 @@
         <v>36</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>120</v>
@@ -5486,7 +5598,7 @@
         <v>121</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>123</v>
@@ -5506,16 +5618,16 @@
         <v>18</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="K48" s="13"/>
       <c r="M48" s="15"/>
@@ -5526,16 +5638,19 @@
         <v>14</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="K49" s="13"/>
       <c r="M49" s="15"/>
@@ -5543,22 +5658,22 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>109</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="K50" s="13"/>
       <c r="M50" s="15"/>
@@ -5572,16 +5687,16 @@
         <v>18</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="K51" s="13"/>
       <c r="M51" s="15"/>
@@ -5595,16 +5710,16 @@
         <v>18</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="K52" s="13"/>
       <c r="M52" s="15"/>
@@ -5618,13 +5733,13 @@
         <v>18</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>22</v>
@@ -5638,19 +5753,16 @@
         <v>14</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="K54" s="13"/>
       <c r="M54" s="15"/>
@@ -5664,16 +5776,16 @@
         <v>18</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K55" s="13"/>
       <c r="M55" s="15"/>
@@ -5687,16 +5799,16 @@
         <v>18</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K56" s="13"/>
       <c r="M56" s="15"/>
@@ -5710,16 +5822,16 @@
         <v>18</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="K57" s="13"/>
       <c r="M57" s="15"/>
@@ -5733,13 +5845,13 @@
         <v>18</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>22</v>
@@ -5750,7 +5862,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>18</v>
@@ -5759,7 +5871,7 @@
         <v>117</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>109</v>
@@ -5782,7 +5894,7 @@
         <v>36</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>120</v>
@@ -5805,7 +5917,7 @@
         <v>121</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>123</v>
@@ -5825,16 +5937,16 @@
         <v>18</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="K62" s="13"/>
       <c r="M62" s="15"/>
@@ -5845,16 +5957,19 @@
         <v>14</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="K63" s="13"/>
       <c r="M63" s="15"/>
@@ -5862,22 +5977,22 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>109</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="K64" s="13"/>
       <c r="M64" s="15"/>
@@ -5891,16 +6006,16 @@
         <v>18</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="K65" s="13"/>
       <c r="M65" s="15"/>
@@ -5914,16 +6029,16 @@
         <v>18</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="K66" s="13"/>
       <c r="M66" s="15"/>
@@ -5937,13 +6052,13 @@
         <v>18</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>22</v>
@@ -5960,16 +6075,16 @@
         <v>18</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>109</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K68" s="13"/>
       <c r="M68" s="15"/>
@@ -5983,16 +6098,16 @@
         <v>18</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K69" s="13"/>
       <c r="M69" s="15"/>
@@ -6006,16 +6121,16 @@
         <v>18</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="K70" s="13"/>
       <c r="M70" s="15"/>
@@ -6029,16 +6144,16 @@
         <v>18</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="K71" s="13"/>
       <c r="M71" s="15"/>
@@ -6052,13 +6167,13 @@
         <v>18</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>22</v>
@@ -6069,19 +6184,19 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>22</v>
@@ -6098,13 +6213,13 @@
         <v>18</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>22</v>
@@ -6121,16 +6236,16 @@
         <v>18</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="K75" s="13"/>
       <c r="M75" s="15"/>
@@ -6144,10 +6259,10 @@
         <v>18</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>129</v>
@@ -6161,19 +6276,22 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="K77" s="13"/>
       <c r="M77" s="15"/>
@@ -6181,22 +6299,22 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="K78" s="13"/>
       <c r="M78" s="15"/>
@@ -6204,22 +6322,22 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="K79" s="13"/>
       <c r="M79" s="15"/>
@@ -6230,16 +6348,19 @@
         <v>14</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>174</v>
+        <v>165</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="K80" s="13"/>
       <c r="M80" s="15"/>
@@ -6250,19 +6371,16 @@
         <v>14</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="K81" s="13"/>
       <c r="M81" s="15"/>
@@ -6273,47 +6391,35 @@
         <v>14</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="15"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>103</v>
@@ -6330,16 +6436,16 @@
         <v>18</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K84" s="13"/>
       <c r="M84" s="15"/>
@@ -6350,19 +6456,16 @@
         <v>14</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="K85" s="13"/>
       <c r="M85" s="15"/>
@@ -6370,22 +6473,22 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="K86" s="13"/>
       <c r="M86" s="15"/>
@@ -6393,32 +6496,35 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="J87" s="8" t="s">
         <v>197</v>
       </c>
+      <c r="K87" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
     </row>
@@ -6426,17 +6532,20 @@
       <c r="A88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>11</v>
+      <c r="B88" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>199</v>
+        <v>184</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="K88" s="13"/>
       <c r="M88" s="15"/>
@@ -6444,19 +6553,19 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>22</v>
@@ -6467,93 +6576,110 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>11</v>
+        <v>92</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K90" s="13"/>
+        <v>187</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>263</v>
+      </c>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="K91" s="13"/>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G92" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H92" s="9" t="s">
+      <c r="G92" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="H92" s="8" t="s">
         <v>211</v>
       </c>
       <c r="J92" s="8" t="s">
         <v>21</v>
+      </c>
+      <c r="K92" s="14" t="s">
+        <v>661</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="K93" s="13"/>
       <c r="M93" s="15"/>
@@ -6561,85 +6687,96 @@
     </row>
     <row r="94" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F94" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G94" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="H94" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="I94" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J94" s="15" t="s">
-        <v>197</v>
+      <c r="G94" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="I95" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="J95" s="15" t="s">
-        <v>197</v>
+        <v>92</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>223</v>
+        <v>299</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K96" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="K96" s="13" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
@@ -6649,18 +6786,29 @@
         <v>18</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K97" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" s="13" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
@@ -6670,60 +6818,87 @@
         <v>18</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>229</v>
+        <v>303</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="K98" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="K98" s="13" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>87</v>
+        <v>296</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K99" s="13"/>
+      <c r="G99" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K99" s="13" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>232</v>
+        <v>307</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K100" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="K100" s="13" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
@@ -6733,34 +6908,45 @@
         <v>18</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>93</v>
+        <v>296</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K101" s="13"/>
+      <c r="G101" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K101" s="13" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>22</v>
@@ -6769,22 +6955,16 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="K103" s="13"/>
     </row>
@@ -6796,13 +6976,13 @@
         <v>18</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>22</v>
@@ -6811,76 +6991,82 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="K105" s="13"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="K106" s="13"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>245</v>
+        <v>226</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c r="K107" s="13"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>248</v>
+        <v>229</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="K108" s="13"/>
     </row>
@@ -6888,14 +7074,14 @@
       <c r="A109" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>21</v>
@@ -6907,55 +7093,61 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>251</v>
+        <v>232</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="K110" s="13"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="K111" s="13"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>22</v>
@@ -6964,19 +7156,19 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>257</v>
+        <v>98</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>22</v>
@@ -6991,168 +7183,184 @@
         <v>18</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="J114" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K114" s="8" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B115" s="12" t="s">
-        <v>18</v>
+      <c r="B115" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="K115" s="13"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>10</v>
+        <v>311</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K116" s="13"/>
+        <v>313</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K116" s="13" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>107</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>268</v>
+        <v>654</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K117" s="13"/>
+      <c r="G117" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="J117" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K117" s="13" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>110</v>
+        <v>242</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="K118" s="13"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="K119" s="13"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>10</v>
+        <v>311</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>117</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>271</v>
+        <v>653</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="J120" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="K120" s="13"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>121</v>
+        <v>247</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="K121" s="13"/>
     </row>
@@ -7160,17 +7368,17 @@
       <c r="A122" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>22</v>
@@ -7179,85 +7387,94 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="K123" s="13"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="K124" s="13"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>322</v>
       </c>
       <c r="K125" s="13"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>117</v>
+        <v>323</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="K126" s="13"/>
     </row>
@@ -7265,20 +7482,29 @@
       <c r="A127" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>36</v>
+        <v>328</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K127" s="13"/>
     </row>
@@ -7286,518 +7512,436 @@
       <c r="A128" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K128" s="13"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B129" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K129" s="13"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>282</v>
+        <v>258</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>283</v>
+        <v>22</v>
       </c>
       <c r="K130" s="13"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>14</v>
+        <v>311</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>19</v>
+        <v>334</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="K131" s="13"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="B132" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K132" s="13"/>
+    </row>
+    <row r="133" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="K132" s="13"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F133" s="8" t="s">
+      <c r="C133" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="D133" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="K133" s="38"/>
+    </row>
+    <row r="134" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D134" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E134" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F134" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="K133" s="13"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="J134" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K134" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F135" s="8" t="s">
+    </row>
+    <row r="135" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D135" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E135" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F135" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="G135" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="H135" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="K135" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K136" s="13"/>
+    </row>
+    <row r="136" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D136" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E136" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F136" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="G136" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="H136" s="41" t="s">
+        <v>633</v>
+      </c>
+      <c r="J136" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K136" s="37" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>296</v>
+        <v>115</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F137" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="H137" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="J137" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K137" s="8" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>289</v>
+        <v>117</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>300</v>
+        <v>117</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="K138" s="8" t="s">
-        <v>293</v>
+        <v>679</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>296</v>
+        <v>36</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F139" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="H139" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="J139" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K139" s="8" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>289</v>
+        <v>121</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H140" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="K140" s="8" t="s">
-        <v>293</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>296</v>
+        <v>124</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H141" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="J141" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K141" s="8" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>289</v>
+        <v>127</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="K142" s="8" t="s">
-        <v>293</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>296</v>
+        <v>117</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="H143" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="J143" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K143" s="8" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>312</v>
+        <v>36</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="H144" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="J144" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K144" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>316</v>
+        <v>121</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>654</v>
+        <v>279</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="H145" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="J145" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K145" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>323</v>
+        <v>183</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>123</v>
@@ -7805,111 +7949,66 @@
       <c r="F147" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G147" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="I147" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B148" s="12" t="s">
-        <v>18</v>
+      <c r="B148" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>21</v>
+        <v>282</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G148" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="J148" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>653</v>
+        <v>282</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G149" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="H149" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="J149" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="I150" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="J150" s="8" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H17" r:id="rId1" display="https://de.dmgmori.com/" xr:uid="{449511FA-3698-4898-A1ED-EDB2BF8156FE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7918,10 +8017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84283000-7D10-4DA9-8365-BFFC6E636655}">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView topLeftCell="C133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H186" sqref="H186"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9871,138 +9969,130 @@
       <c r="L64" s="8"/>
     </row>
     <row r="65" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="18" t="s">
+      <c r="B65" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="15" t="s">
         <v>702</v>
       </c>
-      <c r="H65" s="18" t="s">
+      <c r="H65" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K65" s="18"/>
-      <c r="L65" s="34" t="s">
+      <c r="J65" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="33" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="66" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="18" t="s">
+      <c r="B66" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="15" t="s">
         <v>695</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F66" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="15" t="s">
         <v>703</v>
       </c>
-      <c r="H66" s="18" t="s">
+      <c r="H66" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K66" s="18"/>
-      <c r="L66" s="34" t="s">
+      <c r="J66" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="33" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+    <row r="67" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="18" t="s">
+      <c r="B67" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F67" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="15" t="s">
         <v>704</v>
       </c>
-      <c r="H67" s="18" t="s">
+      <c r="H67" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K67" s="18"/>
-      <c r="L67" s="34" t="s">
+      <c r="J67" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="33" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+    <row r="68" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="18" t="s">
+      <c r="B68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="15" t="s">
         <v>701</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="H68" s="18" t="s">
+      <c r="H68" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K68" s="18"/>
-      <c r="L68" s="34" t="s">
+      <c r="J68" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="33" t="s">
         <v>688</v>
       </c>
     </row>
@@ -12936,10 +13026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA108938-A41A-4607-947C-EAC9A8B9EE57}">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="C160" workbookViewId="0">
+      <selection activeCell="F188" sqref="F188"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13807,7 +13896,7 @@
       </c>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="1:12" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>10</v>
       </c>
@@ -13825,7 +13914,7 @@
       </c>
       <c r="L29" s="33"/>
     </row>
-    <row r="30" spans="1:12" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>14</v>
       </c>
@@ -13843,7 +13932,7 @@
       </c>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="1:12" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>14</v>
       </c>
@@ -13864,7 +13953,7 @@
       </c>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>10</v>
       </c>
@@ -13915,7 +14004,7 @@
       </c>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>14</v>
       </c>
@@ -13936,7 +14025,7 @@
       </c>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>14</v>
       </c>
@@ -13957,7 +14046,7 @@
       </c>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>14</v>
       </c>
@@ -13978,7 +14067,7 @@
       </c>
       <c r="L36" s="32"/>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>14</v>
       </c>
@@ -14061,7 +14150,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>14</v>
       </c>
@@ -14115,7 +14204,7 @@
       </c>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>14</v>
       </c>
@@ -14136,7 +14225,7 @@
       </c>
       <c r="L42" s="32"/>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>14</v>
       </c>
@@ -14221,7 +14310,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>14</v>
       </c>
@@ -14341,7 +14430,7 @@
       </c>
       <c r="L49" s="32"/>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>179</v>
       </c>
@@ -14464,7 +14553,7 @@
       </c>
       <c r="L53" s="32"/>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>14</v>
       </c>
@@ -14482,7 +14571,7 @@
       </c>
       <c r="L54" s="32"/>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>14</v>
       </c>
@@ -14504,7 +14593,7 @@
       <c r="G55" s="15"/>
       <c r="L55" s="32"/>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>14</v>
       </c>
@@ -14526,7 +14615,7 @@
       <c r="G56" s="15"/>
       <c r="L56" s="32"/>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>14</v>
       </c>
@@ -14547,7 +14636,7 @@
       </c>
       <c r="L57" s="32"/>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>14</v>
       </c>
@@ -14568,7 +14657,7 @@
       </c>
       <c r="L58" s="32"/>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>14</v>
       </c>
@@ -14589,7 +14678,7 @@
       </c>
       <c r="L59" s="32"/>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>10</v>
       </c>
@@ -14673,70 +14762,69 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>83</v>
+        <v>692</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>103</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>216</v>
+        <v>692</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>427</v>
+        <v>680</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="L63" s="32"/>
+      <c r="L63" s="32" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="64" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>694</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>697</v>
-      </c>
-      <c r="F64" s="18" t="s">
+      <c r="A64" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G64" s="18" t="s">
-        <v>702</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>698</v>
-      </c>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K64" s="18"/>
-      <c r="L64" s="34" t="s">
-        <v>688</v>
-      </c>
+      <c r="G64" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K64" s="8"/>
+      <c r="L64" s="32"/>
     </row>
     <row r="65" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
@@ -14746,22 +14834,22 @@
         <v>18</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>95</v>
+        <v>697</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>103</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I65" s="18"/>
       <c r="J65" s="18" t="s">
@@ -14773,171 +14861,173 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>699</v>
+      </c>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" s="18"/>
+      <c r="L66" s="34" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="32" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="8" t="s">
+      <c r="B68" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D68" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E68" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F68" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G68" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H68" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="I66" s="8" t="s">
+      <c r="I68" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J68" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="L66" s="32"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="L68" s="32"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="18" t="s">
+      <c r="B69" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D69" s="18" t="s">
         <v>700</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E69" s="18" t="s">
         <v>697</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F69" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G69" s="18" t="s">
         <v>704</v>
       </c>
-      <c r="H67" s="18" t="s">
+      <c r="H69" s="18" t="s">
         <v>698</v>
       </c>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K67" s="18"/>
-      <c r="L67" s="34" t="s">
+      <c r="I69" s="18"/>
+      <c r="J69" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" s="18"/>
+      <c r="L69" s="34" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="18" t="s">
+      <c r="B70" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D70" s="18" t="s">
         <v>701</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E70" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F70" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G70" s="18" t="s">
         <v>705</v>
       </c>
-      <c r="H68" s="18" t="s">
+      <c r="H70" s="18" t="s">
         <v>699</v>
       </c>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K68" s="18"/>
-      <c r="L68" s="34" t="s">
+      <c r="I70" s="18"/>
+      <c r="J70" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" s="18"/>
+      <c r="L70" s="34" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="L69" s="32" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L70" s="32" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>10</v>
       </c>
@@ -14955,7 +15045,7 @@
       </c>
       <c r="L71" s="32"/>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>14</v>
       </c>
@@ -14977,7 +15067,7 @@
       <c r="G72" s="15"/>
       <c r="L72" s="32"/>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>14</v>
       </c>
@@ -14998,7 +15088,7 @@
       </c>
       <c r="L73" s="32"/>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>14</v>
       </c>
@@ -15020,7 +15110,7 @@
       <c r="G74" s="7"/>
       <c r="L74" s="32"/>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>92</v>
       </c>
@@ -15042,7 +15132,7 @@
       <c r="G75" s="7"/>
       <c r="L75" s="32"/>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>14</v>
       </c>
@@ -15063,7 +15153,7 @@
       </c>
       <c r="L76" s="32"/>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>14</v>
       </c>
@@ -15084,7 +15174,7 @@
       </c>
       <c r="L77" s="32"/>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>14</v>
       </c>
@@ -15105,7 +15195,7 @@
       </c>
       <c r="L78" s="32"/>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>14</v>
       </c>
@@ -15123,7 +15213,7 @@
       </c>
       <c r="L79" s="32"/>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>14</v>
       </c>
@@ -15144,7 +15234,7 @@
       </c>
       <c r="L80" s="32"/>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>14</v>
       </c>
@@ -15165,7 +15255,7 @@
       </c>
       <c r="L81" s="32"/>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>14</v>
       </c>
@@ -15186,7 +15276,7 @@
       </c>
       <c r="L82" s="32"/>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>14</v>
       </c>
@@ -15207,7 +15297,7 @@
       </c>
       <c r="L83" s="32"/>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>14</v>
       </c>
@@ -15228,7 +15318,7 @@
       </c>
       <c r="L84" s="32"/>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>14</v>
       </c>
@@ -15249,7 +15339,7 @@
       </c>
       <c r="L85" s="32"/>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>14</v>
       </c>
@@ -15270,7 +15360,7 @@
       </c>
       <c r="L86" s="32"/>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>14</v>
       </c>
@@ -15291,7 +15381,7 @@
       </c>
       <c r="L87" s="32"/>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>14</v>
       </c>
@@ -15312,7 +15402,7 @@
       </c>
       <c r="L88" s="32"/>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>92</v>
       </c>
@@ -15333,7 +15423,7 @@
       </c>
       <c r="L89" s="32"/>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>14</v>
       </c>
@@ -15354,7 +15444,7 @@
       </c>
       <c r="L90" s="32"/>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>14</v>
       </c>
@@ -15375,7 +15465,7 @@
       </c>
       <c r="L91" s="32"/>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>14</v>
       </c>
@@ -15396,7 +15486,7 @@
       </c>
       <c r="L92" s="32"/>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>14</v>
       </c>
@@ -15414,7 +15504,7 @@
       </c>
       <c r="L93" s="32"/>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>14</v>
       </c>
@@ -15435,7 +15525,7 @@
       </c>
       <c r="L94" s="32"/>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>14</v>
       </c>
@@ -15456,7 +15546,7 @@
       </c>
       <c r="L95" s="32"/>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>14</v>
       </c>
@@ -15477,7 +15567,7 @@
       </c>
       <c r="L96" s="32"/>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>14</v>
       </c>
@@ -15498,7 +15588,7 @@
       </c>
       <c r="L97" s="32"/>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>14</v>
       </c>
@@ -15519,7 +15609,7 @@
       </c>
       <c r="L98" s="32"/>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>14</v>
       </c>
@@ -15540,7 +15630,7 @@
       </c>
       <c r="L99" s="32"/>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>14</v>
       </c>
@@ -15561,7 +15651,7 @@
       </c>
       <c r="L100" s="32"/>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>14</v>
       </c>
@@ -15582,7 +15672,7 @@
       </c>
       <c r="L101" s="32"/>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>14</v>
       </c>
@@ -15603,7 +15693,7 @@
       </c>
       <c r="L102" s="32"/>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>92</v>
       </c>
@@ -15624,7 +15714,7 @@
       </c>
       <c r="L103" s="32"/>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>14</v>
       </c>
@@ -15645,7 +15735,7 @@
       </c>
       <c r="L104" s="32"/>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>14</v>
       </c>
@@ -15666,7 +15756,7 @@
       </c>
       <c r="L105" s="32"/>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>14</v>
       </c>
@@ -15687,7 +15777,7 @@
       </c>
       <c r="L106" s="32"/>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>14</v>
       </c>
@@ -15708,7 +15798,7 @@
       </c>
       <c r="L107" s="32"/>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>14</v>
       </c>
@@ -15729,7 +15819,7 @@
       </c>
       <c r="L108" s="32"/>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>14</v>
       </c>
@@ -15750,7 +15840,7 @@
       </c>
       <c r="L109" s="32"/>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>14</v>
       </c>
@@ -15771,7 +15861,7 @@
       </c>
       <c r="L110" s="32"/>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>14</v>
       </c>
@@ -15792,7 +15882,7 @@
       </c>
       <c r="L111" s="32"/>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>14</v>
       </c>
@@ -15813,7 +15903,7 @@
       </c>
       <c r="L112" s="32"/>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>14</v>
       </c>
@@ -15834,7 +15924,7 @@
       </c>
       <c r="L113" s="32"/>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>14</v>
       </c>
@@ -15855,7 +15945,7 @@
       </c>
       <c r="L114" s="32"/>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>14</v>
       </c>
@@ -15876,7 +15966,7 @@
       </c>
       <c r="L115" s="32"/>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>92</v>
       </c>
@@ -15897,7 +15987,7 @@
       </c>
       <c r="L116" s="32"/>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>14</v>
       </c>
@@ -15918,7 +16008,7 @@
       </c>
       <c r="L117" s="32"/>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>14</v>
       </c>
@@ -15939,7 +16029,7 @@
       </c>
       <c r="L118" s="32"/>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>14</v>
       </c>
@@ -15960,7 +16050,7 @@
       </c>
       <c r="L119" s="32"/>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>14</v>
       </c>
@@ -15978,7 +16068,7 @@
       </c>
       <c r="L120" s="32"/>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>14</v>
       </c>
@@ -15996,7 +16086,7 @@
       </c>
       <c r="L121" s="32"/>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>92</v>
       </c>
@@ -16017,7 +16107,7 @@
       </c>
       <c r="L122" s="32"/>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>92</v>
       </c>
@@ -16038,7 +16128,7 @@
       </c>
       <c r="L123" s="32"/>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>14</v>
       </c>
@@ -16056,7 +16146,7 @@
       </c>
       <c r="L124" s="32"/>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>14</v>
       </c>
@@ -16077,7 +16167,7 @@
       </c>
       <c r="L125" s="32"/>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>14</v>
       </c>
@@ -16098,7 +16188,7 @@
       </c>
       <c r="L126" s="32"/>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>14</v>
       </c>
@@ -16119,7 +16209,7 @@
       </c>
       <c r="L127" s="32"/>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>92</v>
       </c>
@@ -16140,7 +16230,7 @@
       </c>
       <c r="L128" s="32"/>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>14</v>
       </c>
@@ -16194,7 +16284,7 @@
       </c>
       <c r="L130" s="32"/>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>14</v>
       </c>
@@ -16413,7 +16503,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="32"/>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>14</v>
       </c>
@@ -16431,7 +16521,7 @@
       </c>
       <c r="L138" s="32"/>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>14</v>
       </c>
@@ -16452,7 +16542,7 @@
       </c>
       <c r="L139" s="32"/>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>202</v>
       </c>
@@ -16467,7 +16557,7 @@
       </c>
       <c r="L140" s="32"/>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>92</v>
       </c>
@@ -16488,7 +16578,7 @@
       </c>
       <c r="L141" s="32"/>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>92</v>
       </c>
@@ -16506,7 +16596,7 @@
       </c>
       <c r="L142" s="32"/>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>92</v>
       </c>
@@ -16527,7 +16617,7 @@
       </c>
       <c r="L143" s="32"/>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>92</v>
       </c>
@@ -16548,7 +16638,7 @@
       </c>
       <c r="L144" s="32"/>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>14</v>
       </c>
@@ -16566,7 +16656,7 @@
       </c>
       <c r="L145" s="32"/>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>92</v>
       </c>
@@ -16587,7 +16677,7 @@
       </c>
       <c r="L146" s="32"/>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>92</v>
       </c>
@@ -16608,7 +16698,7 @@
       </c>
       <c r="L147" s="32"/>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>14</v>
       </c>
@@ -16629,7 +16719,7 @@
       </c>
       <c r="L148" s="32"/>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>14</v>
       </c>
@@ -16650,7 +16740,7 @@
       </c>
       <c r="L149" s="32"/>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>92</v>
       </c>
@@ -16671,7 +16761,7 @@
       </c>
       <c r="L150" s="32"/>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>14</v>
       </c>
@@ -16692,7 +16782,7 @@
       </c>
       <c r="L151" s="32"/>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>14</v>
       </c>
@@ -16713,7 +16803,7 @@
       </c>
       <c r="L152" s="32"/>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>92</v>
       </c>
@@ -16734,7 +16824,7 @@
       </c>
       <c r="L153" s="32"/>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>14</v>
       </c>
@@ -16883,36 +16973,40 @@
       <c r="L158" s="32"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F159" s="8" t="s">
+      <c r="A159" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F159" s="15" t="s">
         <v>103</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="H159" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="J159" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L159" s="32"/>
-    </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="H159" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K159" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="L159" s="33"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>10</v>
       </c>
@@ -16931,39 +17025,38 @@
       <c r="L160" s="32"/>
     </row>
     <row r="161" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B161" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="E161" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F161" s="15" t="s">
+      <c r="A161" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F161" s="8" t="s">
         <v>103</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="H161" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="J161" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K161" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="L161" s="33"/>
-    </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K161" s="8"/>
+      <c r="L161" s="32"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>14</v>
       </c>
@@ -16981,7 +17074,7 @@
       </c>
       <c r="L162" s="32"/>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>14</v>
       </c>
@@ -16999,7 +17092,7 @@
       </c>
       <c r="L163" s="32"/>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>14</v>
       </c>
@@ -17020,7 +17113,7 @@
       </c>
       <c r="L164" s="32"/>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>10</v>
       </c>
@@ -17038,7 +17131,7 @@
       </c>
       <c r="L165" s="32"/>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>10</v>
       </c>
@@ -17056,7 +17149,7 @@
       </c>
       <c r="L166" s="32"/>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>179</v>
       </c>
@@ -17143,7 +17236,7 @@
       </c>
       <c r="L169" s="32"/>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>14</v>
       </c>
@@ -17319,7 +17412,7 @@
       </c>
       <c r="L175" s="32"/>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>179</v>
       </c>
@@ -17340,97 +17433,97 @@
       </c>
       <c r="L176" s="32"/>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="s">
+    <row r="177" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D177" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="L177" s="32"/>
-    </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B178" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C178" s="8" t="s">
+      <c r="L177" s="40"/>
+    </row>
+    <row r="178" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C178" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D178" s="8" t="s">
+      <c r="D178" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="E178" s="8" t="s">
+      <c r="E178" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="F178" s="8" t="s">
+      <c r="F178" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="L178" s="32"/>
-    </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C179" s="8" t="s">
+      <c r="L178" s="40"/>
+    </row>
+    <row r="179" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D179" s="8" t="s">
+      <c r="D179" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="E179" s="8" t="s">
+      <c r="E179" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="F179" s="8" t="s">
+      <c r="F179" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="L179" s="32"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="8" t="s">
+      <c r="L179" s="40"/>
+    </row>
+    <row r="180" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B180" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C180" s="8" t="s">
+      <c r="B180" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D180" s="8" t="s">
+      <c r="D180" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="E180" s="8" t="s">
+      <c r="E180" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F180" s="8" t="s">
+      <c r="F180" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="G180" s="8" t="s">
+      <c r="G180" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="H180" s="9" t="s">
+      <c r="H180" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="J180" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K180" s="8" t="s">
+      <c r="J180" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K180" s="37" t="s">
         <v>484</v>
       </c>
-      <c r="L180" s="32"/>
-    </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L180" s="40"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>14</v>
       </c>
@@ -17483,7 +17576,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>14</v>
       </c>
@@ -17539,7 +17632,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>14</v>
       </c>
@@ -17560,7 +17653,7 @@
       </c>
       <c r="L185" s="32"/>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>14</v>
       </c>
@@ -17581,7 +17674,7 @@
       </c>
       <c r="L186" s="32"/>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>14</v>
       </c>
@@ -17602,7 +17695,7 @@
       </c>
       <c r="L187" s="32"/>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>14</v>
       </c>
@@ -17623,7 +17716,7 @@
       </c>
       <c r="L188" s="32"/>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>14</v>
       </c>
@@ -17644,7 +17737,7 @@
       </c>
       <c r="L189" s="32"/>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>14</v>
       </c>
@@ -17796,7 +17889,7 @@
       </c>
       <c r="L194" s="32"/>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
         <v>14</v>
       </c>
@@ -17817,7 +17910,7 @@
       </c>
       <c r="L195" s="32"/>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
         <v>14</v>
       </c>
@@ -17835,7 +17928,7 @@
       </c>
       <c r="L196" s="32"/>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
         <v>14</v>
       </c>
@@ -17856,7 +17949,7 @@
       </c>
       <c r="L197" s="32"/>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
         <v>14</v>
       </c>
@@ -17901,7 +17994,7 @@
       </c>
       <c r="L199" s="32"/>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
         <v>410</v>
       </c>
@@ -17921,7 +18014,6 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17985,7 +18077,6 @@
   <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19720,7 +19811,6 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20765,7 +20855,6 @@
   <dimension ref="B3:AD54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20774,13 +20863,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>640</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="10" t="s">
         <v>641</v>
       </c>
@@ -20813,13 +20902,13 @@
       <c r="AD3" s="5"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="45" t="s">
         <v>644</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="11" t="s">
         <v>645</v>
       </c>
@@ -20852,34 +20941,34 @@
       <c r="AD4" s="11"/>
     </row>
     <row r="6" spans="2:30" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="43" t="s">
         <v>648</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="M6" s="36" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="M6" s="43" t="s">
         <v>649</v>
       </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="W6" s="36" t="s">
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="W6" s="43" t="s">
         <v>650</v>
       </c>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
     </row>
     <row r="7" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -20913,260 +21002,260 @@
       <c r="AD7" s="5"/>
     </row>
     <row r="24" spans="13:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M24" s="35" t="s">
+      <c r="M24" s="42" t="s">
         <v>651</v>
       </c>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
     </row>
     <row r="25" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
     </row>
     <row r="26" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
     </row>
     <row r="27" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
     </row>
     <row r="28" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
     </row>
     <row r="29" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
     </row>
     <row r="30" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
     </row>
     <row r="31" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
     </row>
     <row r="32" spans="13:20" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
     </row>
     <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="42" t="s">
         <v>652</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="2:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/mtc2umati/mtc2umati/Mapping.xlsx
+++ b/mtc2umati/mtc2umati/Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\arzer\Seafile\Meine Bibliothek\MeineProjekte\umati\connect\mtc2umati\mtc2umati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D202F1-BE4E-4236-AF26-A48FDBD26C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FF7256-1463-49A0-B7FF-648D691AB020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{40695492-071F-42C0-91D8-1CF4EDDA561A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{40695492-071F-42C0-91D8-1CF4EDDA561A}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping_DMG" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4657" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4667" uniqueCount="712">
   <si>
     <t>Modelling Rule</t>
   </si>
@@ -3504,7 +3504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3579,6 +3579,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8017,8 +8018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84283000-7D10-4DA9-8365-BFFC6E636655}">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13026,8 +13027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA108938-A41A-4607-947C-EAC9A8B9EE57}">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView topLeftCell="C160" workbookViewId="0">
-      <selection activeCell="F188" sqref="F188"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15067,70 +15068,98 @@
       <c r="G72" s="15"/>
       <c r="L72" s="32"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="8" t="s">
+    <row r="73" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L73" s="32"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="8" t="s">
+      <c r="E73" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H73" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="I73" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="J73" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="L73" s="40"/>
+    </row>
+    <row r="74" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="7"/>
-      <c r="L74" s="32"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="F74" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="42" t="s">
+        <v>702</v>
+      </c>
+      <c r="H74" s="37" t="s">
+        <v>698</v>
+      </c>
+      <c r="J74" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L74" s="40"/>
+    </row>
+    <row r="75" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="B75" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="37" t="s">
         <v>696</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="F75" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="7"/>
-      <c r="L75" s="32"/>
+      <c r="F75" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="42" t="s">
+        <v>703</v>
+      </c>
+      <c r="H75" s="37" t="s">
+        <v>699</v>
+      </c>
+      <c r="J75" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" s="40"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
@@ -20863,13 +20892,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>640</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="10" t="s">
         <v>641</v>
       </c>
@@ -20902,13 +20931,13 @@
       <c r="AD3" s="5"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>644</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="11" t="s">
         <v>645</v>
       </c>
@@ -20941,34 +20970,34 @@
       <c r="AD4" s="11"/>
     </row>
     <row r="6" spans="2:30" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>648</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="M6" s="43" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="M6" s="44" t="s">
         <v>649</v>
       </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="W6" s="43" t="s">
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="W6" s="44" t="s">
         <v>650</v>
       </c>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
     </row>
     <row r="7" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -21002,260 +21031,260 @@
       <c r="AD7" s="5"/>
     </row>
     <row r="24" spans="13:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M24" s="42" t="s">
+      <c r="M24" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
     </row>
     <row r="25" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
     </row>
     <row r="26" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
     </row>
     <row r="27" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
     </row>
     <row r="28" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
     </row>
     <row r="29" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
     </row>
     <row r="30" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
     </row>
     <row r="31" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
     </row>
     <row r="32" spans="13:20" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
     </row>
     <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="43" t="s">
         <v>652</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
     </row>
     <row r="43" spans="2:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/mtc2umati/mtc2umati/Mapping.xlsx
+++ b/mtc2umati/mtc2umati/Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\arzer\Seafile\Meine Bibliothek\MeineProjekte\umati\connect\mtc2umati\mtc2umati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FF7256-1463-49A0-B7FF-648D691AB020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76146CC-99F4-49BB-8784-A2D4E031F82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{40695492-071F-42C0-91D8-1CF4EDDA561A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4667" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4683" uniqueCount="723">
   <si>
     <t>Modelling Rule</t>
   </si>
@@ -3309,6 +3309,39 @@
   <si>
     <t>EURange</t>
   </si>
+  <si>
+    <t>#Showroom Machine</t>
+  </si>
+  <si>
+    <t>#HB07HA0012E</t>
+  </si>
+  <si>
+    <t>#1.3.0.17</t>
+  </si>
+  <si>
+    <t>#2018</t>
+  </si>
+  <si>
+    <t>#Showcase_MPF</t>
+  </si>
+  <si>
+    <t>#Axis Mill</t>
+  </si>
+  <si>
+    <t>e.g. "AUTOMATIC", "MANUAL_DATA_INPUT"</t>
+  </si>
+  <si>
+    <t>Monitoring/MachineTool/OperationDuration</t>
+  </si>
+  <si>
+    <t>Controller/controller/AccumulatedTime</t>
+  </si>
+  <si>
+    <t>In seconds, but total time</t>
+  </si>
+  <si>
+    <t>x:TOTAL</t>
+  </si>
 </sst>
 </file>
 
@@ -3930,10 +3963,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{09AB0687-0850-4689-9112-8648F9A75ED2}" name="Tabelle635" displayName="Tabelle635" ref="A1:K150" totalsRowShown="0">
-  <autoFilter ref="A1:K150" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K150">
-    <sortCondition ref="D1:D150"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{09AB0687-0850-4689-9112-8648F9A75ED2}" name="Tabelle635" displayName="Tabelle635" ref="A1:K149" totalsRowShown="0">
+  <autoFilter ref="A1:K149" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K149">
+    <sortCondition ref="D1:D149"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{D697A07D-8E3E-4E31-BAF7-7B83F7F8171B}" name="Modelling Rule"/>
@@ -4400,10 +4433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86714E06-43CE-41D1-B0FA-37CA50D75756}">
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:D52"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6506,7 +6539,7 @@
         <v>259</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>260</v>
+        <v>719</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>188</v>
@@ -6556,14 +6589,14 @@
       <c r="A89" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>187</v>
+        <v>429</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>188</v>
@@ -6571,120 +6604,128 @@
       <c r="F89" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K89" s="13"/>
+      <c r="G89" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K89" s="13" t="s">
+        <v>263</v>
+      </c>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K90" s="13" t="s">
-        <v>263</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K90" s="13"/>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K91" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>661</v>
+      </c>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
     </row>
-    <row r="92" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="J92" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K92" s="14" t="s">
-        <v>661</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="K92" s="13"/>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>11</v>
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>199</v>
+        <v>290</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="K93" s="13"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15"/>
+        <v>103</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="94" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
@@ -6694,30 +6735,32 @@
         <v>18</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>291</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>673</v>
+        <v>292</v>
       </c>
       <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
+      <c r="J94" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="K94" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>92</v>
       </c>
@@ -6725,29 +6768,25 @@
         <v>18</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K95" s="8" t="s">
-        <v>298</v>
+        <v>674</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -6758,25 +6797,28 @@
         <v>18</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>300</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>674</v>
+        <v>301</v>
+      </c>
+      <c r="J96" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K96" s="13" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -6787,28 +6829,25 @@
         <v>18</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="J97" s="8" t="s">
-        <v>21</v>
+        <v>675</v>
       </c>
       <c r="K97" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -6819,25 +6858,28 @@
         <v>18</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>304</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>675</v>
+        <v>305</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K98" s="13" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -6848,28 +6890,25 @@
         <v>18</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="J99" s="8" t="s">
-        <v>21</v>
+        <v>676</v>
       </c>
       <c r="K99" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -6880,92 +6919,84 @@
         <v>18</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>308</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>676</v>
+        <v>309</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B101" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>296</v>
+        <v>19</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>310</v>
+        <v>201</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G101" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="J101" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K101" s="13" t="s">
-        <v>298</v>
-      </c>
+      <c r="K101" s="13"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>18</v>
+        <v>202</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="K102" s="13"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="K103" s="13"/>
     </row>
@@ -6977,55 +7008,55 @@
         <v>18</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K104" s="13"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="K105" s="13"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="K106" s="13"/>
     </row>
@@ -7037,37 +7068,37 @@
         <v>18</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>103</v>
+        <v>230</v>
       </c>
       <c r="K107" s="13"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="K108" s="13"/>
     </row>
@@ -7079,13 +7110,13 @@
         <v>18</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>22</v>
@@ -7094,19 +7125,19 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>22</v>
@@ -7115,16 +7146,16 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>95</v>
@@ -7142,13 +7173,13 @@
         <v>18</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>22</v>
@@ -7157,193 +7188,190 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>85</v>
+        <v>238</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K113" s="13"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="K114" s="13"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>14</v>
+        <v>311</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="K115" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J115" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K115" s="13" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>311</v>
+        <v>179</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>313</v>
+        <v>654</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>103</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J116" s="8" t="s">
         <v>21</v>
       </c>
       <c r="K116" s="13" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="J117" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K117" s="13" t="s">
-        <v>319</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="K117" s="13"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K118" s="13"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>14</v>
+        <v>311</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>245</v>
+        <v>653</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>246</v>
+        <v>103</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="K119" s="13"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="J120" s="8" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="K120" s="13"/>
     </row>
@@ -7351,38 +7379,38 @@
       <c r="A121" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>11</v>
+      <c r="B121" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="K121" s="13"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="K122" s="13"/>
     </row>
@@ -7394,31 +7422,40 @@
         <v>11</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K123" s="13"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>253</v>
+        <v>320</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>254</v>
+        <v>321</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>255</v>
+        <v>103</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>322</v>
       </c>
       <c r="K124" s="13"/>
     </row>
@@ -7430,10 +7467,10 @@
         <v>18</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>123</v>
@@ -7442,40 +7479,43 @@
         <v>103</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>322</v>
+        <v>326</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="K125" s="13"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B126" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>103</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="I126" s="9" t="s">
-        <v>327</v>
+        <v>330</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K126" s="13"/>
     </row>
@@ -7487,46 +7527,46 @@
         <v>18</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>329</v>
+        <v>265</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G127" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="J127" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="K127" s="13"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>103</v>
+        <v>22</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K128" s="13"/>
     </row>
@@ -7538,117 +7578,107 @@
         <v>18</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="J129" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="K129" s="13"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B130" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="K130" s="13"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>311</v>
+        <v>179</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G131" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="I131" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="J131" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="K131" s="13"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K132" s="13"/>
+    <row r="132" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="D132" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="K132" s="38"/>
     </row>
     <row r="133" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B133" s="37" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B133" s="39" t="s">
+        <v>18</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>266</v>
+        <v>107</v>
       </c>
       <c r="D133" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="K133" s="38"/>
+        <v>268</v>
+      </c>
+      <c r="E133" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F133" s="37" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="134" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="37" t="s">
@@ -7658,10 +7688,10 @@
         <v>18</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D134" s="37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E134" s="37" t="s">
         <v>109</v>
@@ -7672,120 +7702,120 @@
     </row>
     <row r="135" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B135" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D135" s="37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E135" s="37" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="F135" s="37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B136" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C136" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D136" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E136" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="G135" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="H135" s="41" t="s">
+        <v>633</v>
+      </c>
+      <c r="J135" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K135" s="37" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E136" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F136" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="G136" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="H136" s="41" t="s">
-        <v>633</v>
-      </c>
-      <c r="J136" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K136" s="37" t="s">
-        <v>484</v>
+      <c r="F136" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="F137" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H138" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="J138" s="9" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F139" s="8" t="s">
         <v>22</v>
@@ -7793,22 +7823,22 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -7819,16 +7849,16 @@
         <v>18</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -7839,13 +7869,13 @@
         <v>18</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>22</v>
@@ -7859,13 +7889,13 @@
         <v>18</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>22</v>
@@ -7879,13 +7909,13 @@
         <v>18</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F144" s="8" t="s">
         <v>22</v>
@@ -7899,13 +7929,13 @@
         <v>18</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F145" s="8" t="s">
         <v>22</v>
@@ -7919,16 +7949,16 @@
         <v>18</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -7936,19 +7966,16 @@
         <v>14</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>183</v>
+        <v>281</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>123</v>
+        <v>282</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>103</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -7956,16 +7983,19 @@
         <v>14</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>281</v>
+        <v>19</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>282</v>
       </c>
+      <c r="E148" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F148" s="8" t="s">
-        <v>283</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -7973,32 +8003,12 @@
         <v>14</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F149" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D150" s="8" t="s">
         <v>285</v>
       </c>
     </row>
@@ -13027,8 +13037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA108938-A41A-4607-947C-EAC9A8B9EE57}">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="E115" workbookViewId="0">
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14045,7 +14055,18 @@
       <c r="F35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="32"/>
+      <c r="G35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="32" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -14117,7 +14138,9 @@
       <c r="J38" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="34"/>
+      <c r="L38" s="34" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
@@ -14245,7 +14268,18 @@
       <c r="F43" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L43" s="32"/>
+      <c r="G43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="32" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
@@ -14302,7 +14336,7 @@
         <v>51</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>21</v>
@@ -14635,7 +14669,18 @@
       <c r="F57" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L57" s="32"/>
+      <c r="G57" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="32" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
@@ -14677,7 +14722,18 @@
       <c r="F59" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L59" s="32"/>
+      <c r="G59" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="32" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
@@ -14757,7 +14813,7 @@
         <v>21</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>425</v>
+        <v>718</v>
       </c>
       <c r="L62" s="32"/>
     </row>
@@ -16332,6 +16388,21 @@
       <c r="F131" s="8" t="s">
         <v>103</v>
       </c>
+      <c r="G131" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>721</v>
+      </c>
       <c r="L131" s="32"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -17339,7 +17410,7 @@
         <v>682</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>679</v>
+        <v>716</v>
       </c>
       <c r="J172" s="8" t="s">
         <v>21</v>

--- a/mtc2umati/mtc2umati/Mapping.xlsx
+++ b/mtc2umati/mtc2umati/Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\arzer\Seafile\Meine Bibliothek\MeineProjekte\umati\connect\mtc2umati\mtc2umati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8D04F4-B020-4F51-BB7F-DF889338D6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2888AF-A678-4218-B245-8A3199CE2EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40695492-071F-42C0-91D8-1CF4EDDA561A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{40695492-071F-42C0-91D8-1CF4EDDA561A}"/>
   </bookViews>
   <sheets>
     <sheet name="DMG" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5562" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5562" uniqueCount="621">
   <si>
     <t>Modelling Rule</t>
   </si>
@@ -1871,6 +1871,27 @@
   </si>
   <si>
     <t>Mandatory depending - applies if the superior node is optional but child is mandatory</t>
+  </si>
+  <si>
+    <t>#Mazak</t>
+  </si>
+  <si>
+    <t>#5-axis machining centre</t>
+  </si>
+  <si>
+    <t>#360444</t>
+  </si>
+  <si>
+    <t>#CV5-500</t>
+  </si>
+  <si>
+    <t>#Smooth</t>
+  </si>
+  <si>
+    <t>#https://www.mazak.com/eu-en/products/cv5/</t>
+  </si>
+  <si>
+    <t>AccumulatedTime</t>
   </si>
 </sst>
 </file>
@@ -2033,22 +2054,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2153,7 +2159,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2387,6 +2392,22 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2482,84 +2503,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{09AB0687-0850-4689-9112-8648F9A75ED2}" name="Tabelle635" displayName="Tabelle635" ref="A1:K160" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{09AB0687-0850-4689-9112-8648F9A75ED2}" name="Tabelle635" displayName="Tabelle635" ref="A1:K160" totalsRowShown="0" dataDxfId="53">
   <autoFilter ref="A1:K160" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K160">
     <sortCondition ref="D1:D160"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D697A07D-8E3E-4E31-BAF7-7B83F7F8171B}" name="Modelling Rule" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{9A134CF3-65A5-4792-AA94-CEFF4C4E0E8D}" name="Node Class" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2FA25562-90A9-4876-A942-109CEF2ACE34}" name="BrowseName" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{087B179D-0213-4E21-B2D8-35AF744866F9}" name="OPC Path" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{53E8052E-7B4B-4F3D-9BA4-D7BA2163DE4B}" name="Data Type" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{8F592C62-F2DB-4535-9B00-EDF35811059C}" name="Type Definition" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{58661D2B-88D1-4BE2-A9E4-13C061DFAC2B}" name="MTC Name" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{184056D4-4267-4E75-91D0-8DCBA4B01542}" name="MTC Path" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{C56C86D0-6F7E-4B31-B8E2-AA9149373853}" name="subType" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{C2C7C293-602E-4428-9E4E-1CA3E32313B1}" name="MTC Data Type" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{1E65F599-6A0E-48E9-81ED-D38A76C13240}" name="Comment DMG" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D697A07D-8E3E-4E31-BAF7-7B83F7F8171B}" name="Modelling Rule" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{9A134CF3-65A5-4792-AA94-CEFF4C4E0E8D}" name="Node Class" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{2FA25562-90A9-4876-A942-109CEF2ACE34}" name="BrowseName" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{087B179D-0213-4E21-B2D8-35AF744866F9}" name="OPC Path" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{53E8052E-7B4B-4F3D-9BA4-D7BA2163DE4B}" name="Data Type" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{8F592C62-F2DB-4535-9B00-EDF35811059C}" name="Type Definition" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{58661D2B-88D1-4BE2-A9E4-13C061DFAC2B}" name="MTC Name" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{184056D4-4267-4E75-91D0-8DCBA4B01542}" name="MTC Path" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{C56C86D0-6F7E-4B31-B8E2-AA9149373853}" name="subType" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{C2C7C293-602E-4428-9E4E-1CA3E32313B1}" name="MTC Data Type" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{1E65F599-6A0E-48E9-81ED-D38A76C13240}" name="Comment DMG" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE8FAD02-9A69-4F06-801A-E0FFF72BEC0F}" name="Tabelle636" displayName="Tabelle636" ref="A1:L200" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:L200" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE8FAD02-9A69-4F06-801A-E0FFF72BEC0F}" name="Tabelle636" displayName="Tabelle636" ref="A1:L200" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:L200" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L199">
     <sortCondition ref="D1:D200"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{7E640474-2ABE-4881-A17D-54BF64EE5BAB}" name="Modelling Rule" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{EA9493F5-F154-44DF-B918-B32D4569F91A}" name="Node Class" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{7E64CCAF-6B2D-4CC9-B613-CA660931864C}" name="BrowseName" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{5DD9C21E-B8BD-4D3B-AA33-B49E16E572E6}" name="OPC Path" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{86117A2F-3A07-44E6-ADAB-A399E70F7164}" name="Data Type" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{F187E47C-A335-47F8-A432-3D332F15463D}" name="Type Definition" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{1E92A1F5-F07E-444F-BA36-0734F37732FC}" name="MTC Name" dataDxfId="34" dataCellStyle="Standard"/>
-    <tableColumn id="13" xr3:uid="{30D70E92-B0ED-4D21-B6DB-3B2876BBC06B}" name="MTC Path" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{1686EE16-55DB-4161-865C-F27750DD4F2B}" name="subType" dataDxfId="32"/>
-    <tableColumn id="15" xr3:uid="{1464A335-8F4B-4C98-AD45-FF87F8A0F343}" name="MTC Data Type" dataDxfId="31"/>
-    <tableColumn id="16" xr3:uid="{07844DA1-2BB1-405D-9EEE-4455312062D1}" name="Comment Mazak" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{549FF784-0F2F-42C2-9791-584DB56708F3}" name="Static" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{7E640474-2ABE-4881-A17D-54BF64EE5BAB}" name="Modelling Rule" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{EA9493F5-F154-44DF-B918-B32D4569F91A}" name="Node Class" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{7E64CCAF-6B2D-4CC9-B613-CA660931864C}" name="BrowseName" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{5DD9C21E-B8BD-4D3B-AA33-B49E16E572E6}" name="OPC Path" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{86117A2F-3A07-44E6-ADAB-A399E70F7164}" name="Data Type" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{F187E47C-A335-47F8-A432-3D332F15463D}" name="Type Definition" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{1E92A1F5-F07E-444F-BA36-0734F37732FC}" name="MTC Name" dataDxfId="33" dataCellStyle="Standard"/>
+    <tableColumn id="13" xr3:uid="{30D70E92-B0ED-4D21-B6DB-3B2876BBC06B}" name="MTC Path" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{1686EE16-55DB-4161-865C-F27750DD4F2B}" name="subType" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{1464A335-8F4B-4C98-AD45-FF87F8A0F343}" name="MTC Data Type" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{07844DA1-2BB1-405D-9EEE-4455312062D1}" name="Comment Mazak" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{549FF784-0F2F-42C2-9791-584DB56708F3}" name="Static" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{73708A3A-B34F-427D-B69F-51F0B6CC525E}" name="Tabelle63" displayName="Tabelle63" ref="A1:L200" totalsRowShown="0" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{73708A3A-B34F-427D-B69F-51F0B6CC525E}" name="Tabelle63" displayName="Tabelle63" ref="A1:L200" totalsRowShown="0" dataDxfId="27">
   <autoFilter ref="A1:L200" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K200">
     <sortCondition ref="D1:D200"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0C97535C-5280-4C4E-AFAF-2349D9CC17B9}" name="Modelling Rule" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{781EBAA7-0C88-4A8F-897C-97E19FF842F8}" name="Node Class" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{E333B96E-17E2-4FDF-A7AE-E033CA1DC990}" name="BrowseName" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{F2D4D9B6-5B7E-4B94-B85F-4E281B65C704}" name="OPC Path" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{BBA5D84B-2037-47A4-9568-C29814A4A24B}" name="Data Type" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{F719321B-84DD-45B1-984F-BB5BAD9F306D}" name="Type Definition" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{28AC1E6B-2DAA-444D-9B16-3FCA20F2F406}" name="MTC Name" dataDxfId="47" dataCellStyle="Standard"/>
-    <tableColumn id="13" xr3:uid="{9344ED68-6290-41E1-8039-2C314677F121}" name="MTC Path" dataDxfId="46"/>
-    <tableColumn id="14" xr3:uid="{64524808-E13D-4827-9F63-BE312E4155C6}" name="subType" dataDxfId="45"/>
-    <tableColumn id="15" xr3:uid="{0445DE02-C13D-4AF7-A9B4-9969B82674E4}" name="MTC Data Type" dataDxfId="44"/>
-    <tableColumn id="16" xr3:uid="{5728268B-EB27-4573-A5DB-BE604ED9F166}" name="Comment Mazak" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{E337020E-A105-49B3-83BC-DDABAB5FF93F}" name="Static" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{0C97535C-5280-4C4E-AFAF-2349D9CC17B9}" name="Modelling Rule" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{781EBAA7-0C88-4A8F-897C-97E19FF842F8}" name="Node Class" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{E333B96E-17E2-4FDF-A7AE-E033CA1DC990}" name="BrowseName" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{F2D4D9B6-5B7E-4B94-B85F-4E281B65C704}" name="OPC Path" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{BBA5D84B-2037-47A4-9568-C29814A4A24B}" name="Data Type" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{F719321B-84DD-45B1-984F-BB5BAD9F306D}" name="Type Definition" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{28AC1E6B-2DAA-444D-9B16-3FCA20F2F406}" name="MTC Name" dataDxfId="20" dataCellStyle="Standard"/>
+    <tableColumn id="13" xr3:uid="{9344ED68-6290-41E1-8039-2C314677F121}" name="MTC Path" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{64524808-E13D-4827-9F63-BE312E4155C6}" name="subType" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{0445DE02-C13D-4AF7-A9B4-9969B82674E4}" name="MTC Data Type" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{5728268B-EB27-4573-A5DB-BE604ED9F166}" name="Comment Mazak" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{E337020E-A105-49B3-83BC-DDABAB5FF93F}" name="Static" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{722E326B-9070-41AA-B454-4F2C82EF4AC1}" name="Tabelle6367" displayName="Tabelle6367" ref="A1:M200" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{722E326B-9070-41AA-B454-4F2C82EF4AC1}" name="Tabelle6367" displayName="Tabelle6367" ref="A1:M200" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:M200" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}">
     <filterColumn colId="7">
       <customFilters>
@@ -2571,19 +2586,19 @@
     <sortCondition ref="D1:D200"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{38042B5D-C282-4659-BA8F-CC80C965EA2E}" name="Modelling Rule" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{0E23E404-BEC0-4964-AC5B-D01B3BE774B0}" name="Node Class" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{05A4ADC5-DAB3-47B7-9599-9CF84CF8048F}" name="BrowseName" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{CA181843-023D-4FA0-A625-D03EC4E871EF}" name="OPC Path" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{F107A7D9-3240-44C9-8554-DE87D02D46FB}" name="Data Type" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{7E2A081F-FFF7-4AE9-B95B-06DC41DA3B3E}" name="Type Definition" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{BD72334A-F712-4EBE-BF80-1A7DD39F403F}" name="MTC Name" dataDxfId="20" dataCellStyle="Standard"/>
-    <tableColumn id="13" xr3:uid="{8CC9E047-1CD9-4844-8EA5-900DEE844107}" name="MTC Path" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{35CF5B4E-8EF4-4DFE-AEE3-3527B71DA9BE}" name="subType" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{76F53AFA-E432-4AA3-9AA3-DB4834CFE926}" name="SpecName" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{62CF4798-7BE8-4B6F-A42C-29EB3D9C9EC6}" name="MTC Data Type" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{A7699C2D-1062-498C-8F73-5EB12DF3ADA2}" name="Comment Mazak" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{B2731811-275D-477C-A522-5890E645462A}" name="Static" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{38042B5D-C282-4659-BA8F-CC80C965EA2E}" name="Modelling Rule" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{0E23E404-BEC0-4964-AC5B-D01B3BE774B0}" name="Node Class" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{05A4ADC5-DAB3-47B7-9599-9CF84CF8048F}" name="BrowseName" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{CA181843-023D-4FA0-A625-D03EC4E871EF}" name="OPC Path" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{F107A7D9-3240-44C9-8554-DE87D02D46FB}" name="Data Type" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{7E2A081F-FFF7-4AE9-B95B-06DC41DA3B3E}" name="Type Definition" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{BD72334A-F712-4EBE-BF80-1A7DD39F403F}" name="MTC Name" dataDxfId="6" dataCellStyle="Standard"/>
+    <tableColumn id="13" xr3:uid="{8CC9E047-1CD9-4844-8EA5-900DEE844107}" name="MTC Path" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{35CF5B4E-8EF4-4DFE-AEE3-3527B71DA9BE}" name="subType" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{76F53AFA-E432-4AA3-9AA3-DB4834CFE926}" name="SpecName" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{62CF4798-7BE8-4B6F-A42C-29EB3D9C9EC6}" name="MTC Data Type" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{A7699C2D-1062-498C-8F73-5EB12DF3ADA2}" name="Comment Mazak" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{B2731811-275D-477C-A522-5890E645462A}" name="Static" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2888,7 +2903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86714E06-43CE-41D1-B0FA-37CA50D75756}">
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+    <sheetView topLeftCell="B61" workbookViewId="0">
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
@@ -7201,8 +7216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA108938-A41A-4607-947C-EAC9A8B9EE57}">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7223,7 +7238,7 @@
     <col min="15" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7261,7 +7276,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>92</v>
       </c>
@@ -7291,7 +7306,7 @@
       </c>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>92</v>
       </c>
@@ -7321,7 +7336,7 @@
       </c>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>306</v>
       </c>
@@ -7351,7 +7366,7 @@
       </c>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>92</v>
       </c>
@@ -7381,7 +7396,7 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>306</v>
       </c>
@@ -7411,7 +7426,7 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>92</v>
       </c>
@@ -7441,7 +7456,7 @@
       </c>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
@@ -7471,7 +7486,7 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>306</v>
       </c>
@@ -7501,7 +7516,7 @@
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
@@ -7531,7 +7546,7 @@
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>306</v>
       </c>
@@ -7561,7 +7576,7 @@
       </c>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>306</v>
       </c>
@@ -7591,7 +7606,7 @@
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>306</v>
       </c>
@@ -7621,7 +7636,7 @@
       </c>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>92</v>
       </c>
@@ -7651,7 +7666,7 @@
       </c>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>92</v>
       </c>
@@ -7681,7 +7696,7 @@
       </c>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>306</v>
       </c>
@@ -7711,7 +7726,7 @@
       </c>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>92</v>
       </c>
@@ -7741,7 +7756,7 @@
       </c>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>306</v>
       </c>
@@ -7771,7 +7786,7 @@
       </c>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>92</v>
       </c>
@@ -7801,7 +7816,7 @@
       </c>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
@@ -7831,7 +7846,7 @@
       </c>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>306</v>
       </c>
@@ -7861,7 +7876,7 @@
       </c>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>92</v>
       </c>
@@ -7891,7 +7906,7 @@
       </c>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>306</v>
       </c>
@@ -7921,7 +7936,7 @@
       </c>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>92</v>
       </c>
@@ -7951,7 +7966,7 @@
       </c>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>306</v>
       </c>
@@ -7981,7 +7996,7 @@
       </c>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>306</v>
       </c>
@@ -8011,7 +8026,7 @@
       </c>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>92</v>
       </c>
@@ -8041,7 +8056,7 @@
       </c>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>306</v>
       </c>
@@ -8071,7 +8086,7 @@
       </c>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
@@ -8089,7 +8104,7 @@
       </c>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
@@ -8107,7 +8122,7 @@
       </c>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -8128,7 +8143,7 @@
       </c>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -8146,7 +8161,7 @@
       </c>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>14</v>
       </c>
@@ -8179,7 +8194,7 @@
       </c>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
@@ -8200,7 +8215,7 @@
       </c>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>14</v>
       </c>
@@ -8223,7 +8238,7 @@
         <v>40</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>558</v>
+        <v>615</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>21</v>
@@ -8232,7 +8247,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>14</v>
       </c>
@@ -8253,7 +8268,7 @@
       </c>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>14</v>
       </c>
@@ -8274,7 +8289,7 @@
       </c>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>14</v>
       </c>
@@ -8306,7 +8321,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
@@ -8329,7 +8344,7 @@
         <v>29</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>527</v>
+        <v>614</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>21</v>
@@ -8338,7 +8353,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>14</v>
       </c>
@@ -8359,7 +8374,7 @@
       </c>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
@@ -8392,7 +8407,7 @@
       </c>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>14</v>
       </c>
@@ -8413,7 +8428,7 @@
       </c>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
@@ -8436,7 +8451,7 @@
         <v>58</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>21</v>
@@ -8445,7 +8460,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
@@ -8468,7 +8483,7 @@
         <v>32</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>21</v>
@@ -8477,7 +8492,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>10</v>
       </c>
@@ -8500,7 +8515,7 @@
         <v>51</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>21</v>
@@ -8509,7 +8524,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>14</v>
       </c>
@@ -8527,7 +8542,7 @@
       </c>
       <c r="L46" s="13"/>
     </row>
-    <row r="47" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
@@ -8560,7 +8575,7 @@
       </c>
       <c r="L47" s="13"/>
     </row>
-    <row r="48" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>306</v>
       </c>
@@ -8596,7 +8611,7 @@
       </c>
       <c r="L48" s="13"/>
     </row>
-    <row r="49" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>92</v>
       </c>
@@ -8629,7 +8644,7 @@
       </c>
       <c r="L49" s="13"/>
     </row>
-    <row r="50" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>179</v>
       </c>
@@ -8650,7 +8665,7 @@
       </c>
       <c r="L50" s="13"/>
     </row>
-    <row r="51" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>92</v>
       </c>
@@ -8683,7 +8698,7 @@
       </c>
       <c r="L51" s="13"/>
     </row>
-    <row r="52" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>306</v>
       </c>
@@ -8719,7 +8734,7 @@
       </c>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>92</v>
       </c>
@@ -8752,7 +8767,7 @@
       </c>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>14</v>
       </c>
@@ -8770,7 +8785,7 @@
       </c>
       <c r="L54" s="13"/>
     </row>
-    <row r="55" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>14</v>
       </c>
@@ -8791,7 +8806,7 @@
       </c>
       <c r="L55" s="13"/>
     </row>
-    <row r="56" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>14</v>
       </c>
@@ -8812,7 +8827,7 @@
       </c>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>14</v>
       </c>
@@ -8835,7 +8850,7 @@
         <v>68</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>21</v>
@@ -8844,7 +8859,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>14</v>
       </c>
@@ -8865,7 +8880,7 @@
       </c>
       <c r="L58" s="13"/>
     </row>
-    <row r="59" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>14</v>
       </c>
@@ -8897,7 +8912,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>10</v>
       </c>
@@ -8915,7 +8930,7 @@
       </c>
       <c r="L60" s="13"/>
     </row>
-    <row r="61" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>179</v>
       </c>
@@ -8945,7 +8960,7 @@
       </c>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>179</v>
       </c>
@@ -8979,7 +8994,7 @@
       </c>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>10</v>
       </c>
@@ -9011,7 +9026,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>179</v>
       </c>
@@ -9044,7 +9059,7 @@
       </c>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>10</v>
       </c>
@@ -9076,7 +9091,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>10</v>
       </c>
@@ -9108,7 +9123,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>10</v>
       </c>
@@ -9140,7 +9155,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>179</v>
       </c>
@@ -9173,7 +9188,7 @@
       </c>
       <c r="L68" s="13"/>
     </row>
-    <row r="69" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>10</v>
       </c>
@@ -9205,7 +9220,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>10</v>
       </c>
@@ -9237,7 +9252,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>10</v>
       </c>
@@ -9255,7 +9270,7 @@
       </c>
       <c r="L71" s="13"/>
     </row>
-    <row r="72" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>14</v>
       </c>
@@ -9276,7 +9291,7 @@
       </c>
       <c r="L72" s="13"/>
     </row>
-    <row r="73" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>14</v>
       </c>
@@ -9309,7 +9324,7 @@
       </c>
       <c r="L73" s="13"/>
     </row>
-    <row r="74" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>14</v>
       </c>
@@ -9339,7 +9354,7 @@
       </c>
       <c r="L74" s="13"/>
     </row>
-    <row r="75" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>92</v>
       </c>
@@ -9369,7 +9384,7 @@
       </c>
       <c r="L75" s="13"/>
     </row>
-    <row r="76" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>14</v>
       </c>
@@ -9390,7 +9405,7 @@
       </c>
       <c r="L76" s="13"/>
     </row>
-    <row r="77" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>14</v>
       </c>
@@ -9411,7 +9426,7 @@
       </c>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>14</v>
       </c>
@@ -9432,7 +9447,7 @@
       </c>
       <c r="L78" s="13"/>
     </row>
-    <row r="79" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>14</v>
       </c>
@@ -9450,7 +9465,7 @@
       </c>
       <c r="L79" s="13"/>
     </row>
-    <row r="80" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>14</v>
       </c>
@@ -9471,7 +9486,7 @@
       </c>
       <c r="L80" s="13"/>
     </row>
-    <row r="81" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>14</v>
       </c>
@@ -9492,7 +9507,7 @@
       </c>
       <c r="L81" s="13"/>
     </row>
-    <row r="82" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>14</v>
       </c>
@@ -9513,7 +9528,7 @@
       </c>
       <c r="L82" s="13"/>
     </row>
-    <row r="83" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>14</v>
       </c>
@@ -9534,7 +9549,7 @@
       </c>
       <c r="L83" s="13"/>
     </row>
-    <row r="84" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>14</v>
       </c>
@@ -9555,7 +9570,7 @@
       </c>
       <c r="L84" s="13"/>
     </row>
-    <row r="85" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>14</v>
       </c>
@@ -9576,7 +9591,7 @@
       </c>
       <c r="L85" s="13"/>
     </row>
-    <row r="86" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>14</v>
       </c>
@@ -9597,7 +9612,7 @@
       </c>
       <c r="L86" s="13"/>
     </row>
-    <row r="87" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>14</v>
       </c>
@@ -9618,7 +9633,7 @@
       </c>
       <c r="L87" s="13"/>
     </row>
-    <row r="88" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>14</v>
       </c>
@@ -9639,7 +9654,7 @@
       </c>
       <c r="L88" s="13"/>
     </row>
-    <row r="89" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>92</v>
       </c>
@@ -9660,7 +9675,7 @@
       </c>
       <c r="L89" s="13"/>
     </row>
-    <row r="90" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
@@ -9681,7 +9696,7 @@
       </c>
       <c r="L90" s="13"/>
     </row>
-    <row r="91" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>14</v>
       </c>
@@ -9702,7 +9717,7 @@
       </c>
       <c r="L91" s="13"/>
     </row>
-    <row r="92" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>14</v>
       </c>
@@ -9723,7 +9738,7 @@
       </c>
       <c r="L92" s="13"/>
     </row>
-    <row r="93" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>14</v>
       </c>
@@ -9741,7 +9756,7 @@
       </c>
       <c r="L93" s="13"/>
     </row>
-    <row r="94" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>14</v>
       </c>
@@ -9762,7 +9777,7 @@
       </c>
       <c r="L94" s="13"/>
     </row>
-    <row r="95" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>14</v>
       </c>
@@ -9783,7 +9798,7 @@
       </c>
       <c r="L95" s="13"/>
     </row>
-    <row r="96" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>14</v>
       </c>
@@ -9804,7 +9819,7 @@
       </c>
       <c r="L96" s="13"/>
     </row>
-    <row r="97" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>14</v>
       </c>
@@ -9825,7 +9840,7 @@
       </c>
       <c r="L97" s="13"/>
     </row>
-    <row r="98" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>14</v>
       </c>
@@ -9846,7 +9861,7 @@
       </c>
       <c r="L98" s="13"/>
     </row>
-    <row r="99" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>14</v>
       </c>
@@ -9867,7 +9882,7 @@
       </c>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>14</v>
       </c>
@@ -9888,7 +9903,7 @@
       </c>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>14</v>
       </c>
@@ -9909,7 +9924,7 @@
       </c>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>14</v>
       </c>
@@ -9930,7 +9945,7 @@
       </c>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>92</v>
       </c>
@@ -9951,7 +9966,7 @@
       </c>
       <c r="L103" s="13"/>
     </row>
-    <row r="104" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>14</v>
       </c>
@@ -9972,7 +9987,7 @@
       </c>
       <c r="L104" s="13"/>
     </row>
-    <row r="105" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>14</v>
       </c>
@@ -9993,7 +10008,7 @@
       </c>
       <c r="L105" s="13"/>
     </row>
-    <row r="106" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>14</v>
       </c>
@@ -10014,7 +10029,7 @@
       </c>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>14</v>
       </c>
@@ -10035,7 +10050,7 @@
       </c>
       <c r="L107" s="13"/>
     </row>
-    <row r="108" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>14</v>
       </c>
@@ -10056,7 +10071,7 @@
       </c>
       <c r="L108" s="13"/>
     </row>
-    <row r="109" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>14</v>
       </c>
@@ -10077,7 +10092,7 @@
       </c>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>14</v>
       </c>
@@ -10098,7 +10113,7 @@
       </c>
       <c r="L110" s="13"/>
     </row>
-    <row r="111" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>14</v>
       </c>
@@ -10119,7 +10134,7 @@
       </c>
       <c r="L111" s="13"/>
     </row>
-    <row r="112" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>14</v>
       </c>
@@ -10140,7 +10155,7 @@
       </c>
       <c r="L112" s="13"/>
     </row>
-    <row r="113" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>14</v>
       </c>
@@ -10161,7 +10176,7 @@
       </c>
       <c r="L113" s="13"/>
     </row>
-    <row r="114" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>14</v>
       </c>
@@ -10182,7 +10197,7 @@
       </c>
       <c r="L114" s="13"/>
     </row>
-    <row r="115" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>14</v>
       </c>
@@ -10203,7 +10218,7 @@
       </c>
       <c r="L115" s="13"/>
     </row>
-    <row r="116" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>92</v>
       </c>
@@ -10224,7 +10239,7 @@
       </c>
       <c r="L116" s="13"/>
     </row>
-    <row r="117" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>14</v>
       </c>
@@ -10245,7 +10260,7 @@
       </c>
       <c r="L117" s="13"/>
     </row>
-    <row r="118" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>14</v>
       </c>
@@ -10266,7 +10281,7 @@
       </c>
       <c r="L118" s="13"/>
     </row>
-    <row r="119" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>14</v>
       </c>
@@ -10287,7 +10302,7 @@
       </c>
       <c r="L119" s="13"/>
     </row>
-    <row r="120" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>14</v>
       </c>
@@ -10305,7 +10320,7 @@
       </c>
       <c r="L120" s="13"/>
     </row>
-    <row r="121" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>14</v>
       </c>
@@ -10323,7 +10338,7 @@
       </c>
       <c r="L121" s="13"/>
     </row>
-    <row r="122" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>92</v>
       </c>
@@ -10344,7 +10359,7 @@
       </c>
       <c r="L122" s="13"/>
     </row>
-    <row r="123" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>92</v>
       </c>
@@ -10365,7 +10380,7 @@
       </c>
       <c r="L123" s="13"/>
     </row>
-    <row r="124" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>14</v>
       </c>
@@ -10383,7 +10398,7 @@
       </c>
       <c r="L124" s="13"/>
     </row>
-    <row r="125" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>14</v>
       </c>
@@ -10404,7 +10419,7 @@
       </c>
       <c r="L125" s="13"/>
     </row>
-    <row r="126" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>14</v>
       </c>
@@ -10425,7 +10440,7 @@
       </c>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>14</v>
       </c>
@@ -10446,7 +10461,7 @@
       </c>
       <c r="L127" s="13"/>
     </row>
-    <row r="128" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>92</v>
       </c>
@@ -10467,7 +10482,7 @@
       </c>
       <c r="L128" s="13"/>
     </row>
-    <row r="129" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>14</v>
       </c>
@@ -10488,7 +10503,7 @@
       </c>
       <c r="L129" s="13"/>
     </row>
-    <row r="130" spans="1:12" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>10</v>
       </c>
@@ -10521,7 +10536,7 @@
       </c>
       <c r="L130" s="13"/>
     </row>
-    <row r="131" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>14</v>
       </c>
@@ -10541,7 +10556,7 @@
         <v>103</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>186</v>
+        <v>620</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>561</v>
@@ -10557,7 +10572,7 @@
       </c>
       <c r="L131" s="13"/>
     </row>
-    <row r="132" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>306</v>
       </c>
@@ -10587,7 +10602,7 @@
       </c>
       <c r="L132" s="13"/>
     </row>
-    <row r="133" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>306</v>
       </c>
@@ -10621,7 +10636,7 @@
       <c r="K133" s="6"/>
       <c r="L133" s="13"/>
     </row>
-    <row r="134" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>306</v>
       </c>
@@ -10655,7 +10670,7 @@
       <c r="K134" s="6"/>
       <c r="L134" s="13"/>
     </row>
-    <row r="135" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>306</v>
       </c>
@@ -10688,7 +10703,7 @@
       </c>
       <c r="L135" s="13"/>
     </row>
-    <row r="136" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>306</v>
       </c>
@@ -10721,7 +10736,7 @@
       </c>
       <c r="L136" s="13"/>
     </row>
-    <row r="137" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>306</v>
       </c>
@@ -10755,7 +10770,7 @@
       <c r="K137" s="6"/>
       <c r="L137" s="13"/>
     </row>
-    <row r="138" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>14</v>
       </c>
@@ -10773,7 +10788,7 @@
       </c>
       <c r="L138" s="13"/>
     </row>
-    <row r="139" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>14</v>
       </c>
@@ -10794,7 +10809,7 @@
       </c>
       <c r="L139" s="13"/>
     </row>
-    <row r="140" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>201</v>
       </c>
@@ -10809,7 +10824,7 @@
       </c>
       <c r="L140" s="13"/>
     </row>
-    <row r="141" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>92</v>
       </c>
@@ -10830,7 +10845,7 @@
       </c>
       <c r="L141" s="13"/>
     </row>
-    <row r="142" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>92</v>
       </c>
@@ -10848,7 +10863,7 @@
       </c>
       <c r="L142" s="13"/>
     </row>
-    <row r="143" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>92</v>
       </c>
@@ -10869,7 +10884,7 @@
       </c>
       <c r="L143" s="13"/>
     </row>
-    <row r="144" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>92</v>
       </c>
@@ -10890,7 +10905,7 @@
       </c>
       <c r="L144" s="13"/>
     </row>
-    <row r="145" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>14</v>
       </c>
@@ -10908,7 +10923,7 @@
       </c>
       <c r="L145" s="13"/>
     </row>
-    <row r="146" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>92</v>
       </c>
@@ -10929,7 +10944,7 @@
       </c>
       <c r="L146" s="13"/>
     </row>
-    <row r="147" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>92</v>
       </c>
@@ -10950,7 +10965,7 @@
       </c>
       <c r="L147" s="13"/>
     </row>
-    <row r="148" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>14</v>
       </c>
@@ -10971,7 +10986,7 @@
       </c>
       <c r="L148" s="13"/>
     </row>
-    <row r="149" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>14</v>
       </c>
@@ -10992,7 +11007,7 @@
       </c>
       <c r="L149" s="13"/>
     </row>
-    <row r="150" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>92</v>
       </c>
@@ -11013,7 +11028,7 @@
       </c>
       <c r="L150" s="13"/>
     </row>
-    <row r="151" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>14</v>
       </c>
@@ -11034,7 +11049,7 @@
       </c>
       <c r="L151" s="13"/>
     </row>
-    <row r="152" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>14</v>
       </c>
@@ -11055,7 +11070,7 @@
       </c>
       <c r="L152" s="13"/>
     </row>
-    <row r="153" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>92</v>
       </c>
@@ -11076,7 +11091,7 @@
       </c>
       <c r="L153" s="13"/>
     </row>
-    <row r="154" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>14</v>
       </c>
@@ -11097,7 +11112,7 @@
       </c>
       <c r="L154" s="13"/>
     </row>
-    <row r="155" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>306</v>
       </c>
@@ -11130,7 +11145,7 @@
       </c>
       <c r="L155" s="13"/>
     </row>
-    <row r="156" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>306</v>
       </c>
@@ -11160,7 +11175,7 @@
       </c>
       <c r="L156" s="13"/>
     </row>
-    <row r="157" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>306</v>
       </c>
@@ -11191,7 +11206,7 @@
       <c r="K157" s="6"/>
       <c r="L157" s="13"/>
     </row>
-    <row r="158" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>306</v>
       </c>
@@ -11224,7 +11239,7 @@
       </c>
       <c r="L158" s="13"/>
     </row>
-    <row r="159" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>179</v>
       </c>
@@ -11257,7 +11272,7 @@
       </c>
       <c r="L159" s="13"/>
     </row>
-    <row r="160" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>10</v>
       </c>
@@ -11275,7 +11290,7 @@
       </c>
       <c r="L160" s="13"/>
     </row>
-    <row r="161" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>306</v>
       </c>
@@ -11305,7 +11320,7 @@
       </c>
       <c r="L161" s="13"/>
     </row>
-    <row r="162" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>14</v>
       </c>
@@ -11323,7 +11338,7 @@
       </c>
       <c r="L162" s="13"/>
     </row>
-    <row r="163" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>14</v>
       </c>
@@ -11341,7 +11356,7 @@
       </c>
       <c r="L163" s="13"/>
     </row>
-    <row r="164" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>14</v>
       </c>
@@ -11362,7 +11377,7 @@
       </c>
       <c r="L164" s="13"/>
     </row>
-    <row r="165" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>10</v>
       </c>
@@ -11380,7 +11395,7 @@
       </c>
       <c r="L165" s="13"/>
     </row>
-    <row r="166" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>10</v>
       </c>
@@ -11398,7 +11413,7 @@
       </c>
       <c r="L166" s="13"/>
     </row>
-    <row r="167" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>179</v>
       </c>
@@ -11419,7 +11434,7 @@
       </c>
       <c r="L167" s="13"/>
     </row>
-    <row r="168" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>179</v>
       </c>
@@ -11452,7 +11467,7 @@
       </c>
       <c r="L168" s="13"/>
     </row>
-    <row r="169" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>14</v>
       </c>
@@ -11490,7 +11505,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>14</v>
       </c>
@@ -11511,7 +11526,7 @@
       </c>
       <c r="L170" s="13"/>
     </row>
-    <row r="171" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>306</v>
       </c>
@@ -11541,7 +11556,7 @@
       </c>
       <c r="L171" s="13"/>
     </row>
-    <row r="172" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>10</v>
       </c>
@@ -11573,7 +11588,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="173" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>10</v>
       </c>
@@ -11605,7 +11620,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="174" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>179</v>
       </c>
@@ -11638,7 +11653,7 @@
       </c>
       <c r="L174" s="13"/>
     </row>
-    <row r="175" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>306</v>
       </c>
@@ -11668,7 +11683,7 @@
       </c>
       <c r="L175" s="13"/>
     </row>
-    <row r="176" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>179</v>
       </c>
@@ -11689,7 +11704,7 @@
       </c>
       <c r="L176" s="13"/>
     </row>
-    <row r="177" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>10</v>
       </c>
@@ -11704,7 +11719,7 @@
       </c>
       <c r="L177" s="13"/>
     </row>
-    <row r="178" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>14</v>
       </c>
@@ -11725,7 +11740,7 @@
       </c>
       <c r="L178" s="13"/>
     </row>
-    <row r="179" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>14</v>
       </c>
@@ -11746,7 +11761,7 @@
       </c>
       <c r="L179" s="13"/>
     </row>
-    <row r="180" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>10</v>
       </c>
@@ -11779,7 +11794,7 @@
       </c>
       <c r="L180" s="13"/>
     </row>
-    <row r="181" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>14</v>
       </c>
@@ -11800,7 +11815,7 @@
       </c>
       <c r="L181" s="13"/>
     </row>
-    <row r="182" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>10</v>
       </c>
@@ -11832,7 +11847,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="183" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>14</v>
       </c>
@@ -11856,7 +11871,7 @@
       </c>
       <c r="L183" s="13"/>
     </row>
-    <row r="184" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>10</v>
       </c>
@@ -11886,7 +11901,7 @@
       </c>
       <c r="L184" s="13"/>
     </row>
-    <row r="185" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>14</v>
       </c>
@@ -11907,7 +11922,7 @@
       </c>
       <c r="L185" s="13"/>
     </row>
-    <row r="186" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>14</v>
       </c>
@@ -11928,7 +11943,7 @@
       </c>
       <c r="L186" s="13"/>
     </row>
-    <row r="187" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>14</v>
       </c>
@@ -11949,7 +11964,7 @@
       </c>
       <c r="L187" s="13"/>
     </row>
-    <row r="188" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>14</v>
       </c>
@@ -11970,7 +11985,7 @@
       </c>
       <c r="L188" s="13"/>
     </row>
-    <row r="189" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>14</v>
       </c>
@@ -11991,7 +12006,7 @@
       </c>
       <c r="L189" s="13"/>
     </row>
-    <row r="190" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>14</v>
       </c>
@@ -12012,7 +12027,7 @@
       </c>
       <c r="L190" s="13"/>
     </row>
-    <row r="191" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>306</v>
       </c>
@@ -12046,7 +12061,7 @@
       </c>
       <c r="L191" s="13"/>
     </row>
-    <row r="192" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>306</v>
       </c>
@@ -12080,7 +12095,7 @@
       </c>
       <c r="L192" s="13"/>
     </row>
-    <row r="193" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>306</v>
       </c>
@@ -12113,7 +12128,7 @@
       </c>
       <c r="L193" s="13"/>
     </row>
-    <row r="194" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>306</v>
       </c>
@@ -12143,7 +12158,7 @@
       </c>
       <c r="L194" s="13"/>
     </row>
-    <row r="195" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>14</v>
       </c>
@@ -12164,7 +12179,7 @@
       </c>
       <c r="L195" s="13"/>
     </row>
-    <row r="196" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>14</v>
       </c>
@@ -12182,7 +12197,7 @@
       </c>
       <c r="L196" s="13"/>
     </row>
-    <row r="197" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>14</v>
       </c>
@@ -12203,7 +12218,7 @@
       </c>
       <c r="L197" s="13"/>
     </row>
-    <row r="198" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>14</v>
       </c>
@@ -12218,7 +12233,7 @@
       </c>
       <c r="L198" s="13"/>
     </row>
-    <row r="199" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>306</v>
       </c>
@@ -12248,7 +12263,7 @@
       </c>
       <c r="L199" s="13"/>
     </row>
-    <row r="200" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>405</v>
       </c>
@@ -17778,7 +17793,7 @@
     <col min="16" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -17819,7 +17834,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>92</v>
       </c>
@@ -17849,7 +17864,7 @@
       </c>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>92</v>
       </c>
@@ -17879,7 +17894,7 @@
       </c>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>306</v>
       </c>
@@ -17909,7 +17924,7 @@
       </c>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>92</v>
       </c>
@@ -17939,7 +17954,7 @@
       </c>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>306</v>
       </c>
@@ -17969,7 +17984,7 @@
       </c>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>92</v>
       </c>
@@ -17999,7 +18014,7 @@
       </c>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
@@ -18029,7 +18044,7 @@
       </c>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>306</v>
       </c>
@@ -18059,7 +18074,7 @@
       </c>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
@@ -18089,7 +18104,7 @@
       </c>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>306</v>
       </c>
@@ -18122,7 +18137,7 @@
       </c>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>306</v>
       </c>
@@ -18155,7 +18170,7 @@
       </c>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>306</v>
       </c>
@@ -18188,7 +18203,7 @@
       </c>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>92</v>
       </c>
@@ -18221,7 +18236,7 @@
       </c>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>92</v>
       </c>
@@ -18251,7 +18266,7 @@
       </c>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>306</v>
       </c>
@@ -18284,7 +18299,7 @@
       </c>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>92</v>
       </c>
@@ -18314,7 +18329,7 @@
       </c>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>306</v>
       </c>
@@ -18344,7 +18359,7 @@
       </c>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>92</v>
       </c>
@@ -18380,7 +18395,7 @@
       </c>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
@@ -18410,7 +18425,7 @@
       </c>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>306</v>
       </c>
@@ -18443,7 +18458,7 @@
       </c>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>92</v>
       </c>
@@ -18473,7 +18488,7 @@
       </c>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>306</v>
       </c>
@@ -18503,7 +18518,7 @@
       </c>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>92</v>
       </c>
@@ -18539,7 +18554,7 @@
       </c>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>306</v>
       </c>
@@ -18569,7 +18584,7 @@
       </c>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>306</v>
       </c>
@@ -18602,7 +18617,7 @@
       </c>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>92</v>
       </c>
@@ -18632,7 +18647,7 @@
       </c>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>306</v>
       </c>
@@ -18662,7 +18677,7 @@
       </c>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
@@ -18680,7 +18695,7 @@
       </c>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
@@ -18698,7 +18713,7 @@
       </c>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -18719,7 +18734,7 @@
       </c>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -18737,7 +18752,7 @@
       </c>
       <c r="M32" s="13"/>
     </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>14</v>
       </c>
@@ -18770,7 +18785,7 @@
       </c>
       <c r="M33" s="13"/>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
@@ -18791,7 +18806,7 @@
       </c>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>14</v>
       </c>
@@ -18823,7 +18838,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>14</v>
       </c>
@@ -18844,7 +18859,7 @@
       </c>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>14</v>
       </c>
@@ -18865,7 +18880,7 @@
       </c>
       <c r="M37" s="13"/>
     </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>14</v>
       </c>
@@ -18897,7 +18912,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
@@ -18929,7 +18944,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>14</v>
       </c>
@@ -18950,7 +18965,7 @@
       </c>
       <c r="M40" s="13"/>
     </row>
-    <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
@@ -18983,7 +18998,7 @@
       </c>
       <c r="M41" s="13"/>
     </row>
-    <row r="42" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>14</v>
       </c>
@@ -19004,7 +19019,7 @@
       </c>
       <c r="M42" s="13"/>
     </row>
-    <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
@@ -19036,7 +19051,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
@@ -19068,7 +19083,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>10</v>
       </c>
@@ -19100,7 +19115,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>14</v>
       </c>
@@ -19118,7 +19133,7 @@
       </c>
       <c r="M46" s="13"/>
     </row>
-    <row r="47" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
@@ -19151,7 +19166,7 @@
       </c>
       <c r="M47" s="13"/>
     </row>
-    <row r="48" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>306</v>
       </c>
@@ -19187,7 +19202,7 @@
       </c>
       <c r="M48" s="13"/>
     </row>
-    <row r="49" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>92</v>
       </c>
@@ -19220,7 +19235,7 @@
       </c>
       <c r="M49" s="13"/>
     </row>
-    <row r="50" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>179</v>
       </c>
@@ -19241,7 +19256,7 @@
       </c>
       <c r="M50" s="13"/>
     </row>
-    <row r="51" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>92</v>
       </c>
@@ -19274,7 +19289,7 @@
       </c>
       <c r="M51" s="13"/>
     </row>
-    <row r="52" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>306</v>
       </c>
@@ -19310,7 +19325,7 @@
       </c>
       <c r="M52" s="13"/>
     </row>
-    <row r="53" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>92</v>
       </c>
@@ -19343,7 +19358,7 @@
       </c>
       <c r="M53" s="13"/>
     </row>
-    <row r="54" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>14</v>
       </c>
@@ -19361,7 +19376,7 @@
       </c>
       <c r="M54" s="13"/>
     </row>
-    <row r="55" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>14</v>
       </c>
@@ -19382,7 +19397,7 @@
       </c>
       <c r="M55" s="13"/>
     </row>
-    <row r="56" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>14</v>
       </c>
@@ -19403,7 +19418,7 @@
       </c>
       <c r="M56" s="13"/>
     </row>
-    <row r="57" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>14</v>
       </c>
@@ -19435,7 +19450,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>14</v>
       </c>
@@ -19456,7 +19471,7 @@
       </c>
       <c r="M58" s="13"/>
     </row>
-    <row r="59" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>14</v>
       </c>
@@ -19488,7 +19503,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>10</v>
       </c>
@@ -19506,7 +19521,7 @@
       </c>
       <c r="M60" s="13"/>
     </row>
-    <row r="61" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>179</v>
       </c>
@@ -19539,7 +19554,7 @@
       </c>
       <c r="M61" s="13"/>
     </row>
-    <row r="62" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>179</v>
       </c>
@@ -19576,7 +19591,7 @@
       </c>
       <c r="M62" s="13"/>
     </row>
-    <row r="63" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>10</v>
       </c>
@@ -19608,7 +19623,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>179</v>
       </c>
@@ -19644,7 +19659,7 @@
       </c>
       <c r="M64" s="13"/>
     </row>
-    <row r="65" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>10</v>
       </c>
@@ -19676,7 +19691,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>10</v>
       </c>
@@ -19708,7 +19723,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>10</v>
       </c>
@@ -19740,7 +19755,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>179</v>
       </c>
@@ -19776,7 +19791,7 @@
       </c>
       <c r="M68" s="13"/>
     </row>
-    <row r="69" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>10</v>
       </c>
@@ -19808,7 +19823,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>10</v>
       </c>
@@ -19840,7 +19855,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>10</v>
       </c>
@@ -19858,7 +19873,7 @@
       </c>
       <c r="M71" s="13"/>
     </row>
-    <row r="72" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>14</v>
       </c>
@@ -19879,7 +19894,7 @@
       </c>
       <c r="M72" s="13"/>
     </row>
-    <row r="73" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>14</v>
       </c>
@@ -19912,7 +19927,7 @@
       </c>
       <c r="M73" s="13"/>
     </row>
-    <row r="74" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>14</v>
       </c>
@@ -19942,7 +19957,7 @@
       </c>
       <c r="M74" s="13"/>
     </row>
-    <row r="75" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>92</v>
       </c>
@@ -19972,7 +19987,7 @@
       </c>
       <c r="M75" s="13"/>
     </row>
-    <row r="76" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>14</v>
       </c>
@@ -19993,7 +20008,7 @@
       </c>
       <c r="M76" s="13"/>
     </row>
-    <row r="77" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>14</v>
       </c>
@@ -20014,7 +20029,7 @@
       </c>
       <c r="M77" s="13"/>
     </row>
-    <row r="78" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>14</v>
       </c>
@@ -20035,7 +20050,7 @@
       </c>
       <c r="M78" s="13"/>
     </row>
-    <row r="79" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>14</v>
       </c>
@@ -20053,7 +20068,7 @@
       </c>
       <c r="M79" s="13"/>
     </row>
-    <row r="80" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>14</v>
       </c>
@@ -20074,7 +20089,7 @@
       </c>
       <c r="M80" s="13"/>
     </row>
-    <row r="81" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>14</v>
       </c>
@@ -20095,7 +20110,7 @@
       </c>
       <c r="M81" s="13"/>
     </row>
-    <row r="82" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>14</v>
       </c>
@@ -20116,7 +20131,7 @@
       </c>
       <c r="M82" s="13"/>
     </row>
-    <row r="83" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>14</v>
       </c>
@@ -20137,7 +20152,7 @@
       </c>
       <c r="M83" s="13"/>
     </row>
-    <row r="84" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>14</v>
       </c>
@@ -20158,7 +20173,7 @@
       </c>
       <c r="M84" s="13"/>
     </row>
-    <row r="85" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>14</v>
       </c>
@@ -20179,7 +20194,7 @@
       </c>
       <c r="M85" s="13"/>
     </row>
-    <row r="86" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>14</v>
       </c>
@@ -20200,7 +20215,7 @@
       </c>
       <c r="M86" s="13"/>
     </row>
-    <row r="87" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>14</v>
       </c>
@@ -20221,7 +20236,7 @@
       </c>
       <c r="M87" s="13"/>
     </row>
-    <row r="88" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>14</v>
       </c>
@@ -20242,7 +20257,7 @@
       </c>
       <c r="M88" s="13"/>
     </row>
-    <row r="89" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>92</v>
       </c>
@@ -20263,7 +20278,7 @@
       </c>
       <c r="M89" s="13"/>
     </row>
-    <row r="90" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
@@ -20284,7 +20299,7 @@
       </c>
       <c r="M90" s="13"/>
     </row>
-    <row r="91" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>14</v>
       </c>
@@ -20305,7 +20320,7 @@
       </c>
       <c r="M91" s="13"/>
     </row>
-    <row r="92" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>14</v>
       </c>
@@ -20326,7 +20341,7 @@
       </c>
       <c r="M92" s="13"/>
     </row>
-    <row r="93" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>14</v>
       </c>
@@ -20344,7 +20359,7 @@
       </c>
       <c r="M93" s="13"/>
     </row>
-    <row r="94" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>14</v>
       </c>
@@ -20365,7 +20380,7 @@
       </c>
       <c r="M94" s="13"/>
     </row>
-    <row r="95" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>14</v>
       </c>
@@ -20386,7 +20401,7 @@
       </c>
       <c r="M95" s="13"/>
     </row>
-    <row r="96" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>14</v>
       </c>
@@ -20407,7 +20422,7 @@
       </c>
       <c r="M96" s="13"/>
     </row>
-    <row r="97" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>14</v>
       </c>
@@ -20428,7 +20443,7 @@
       </c>
       <c r="M97" s="13"/>
     </row>
-    <row r="98" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>14</v>
       </c>
@@ -20449,7 +20464,7 @@
       </c>
       <c r="M98" s="13"/>
     </row>
-    <row r="99" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>14</v>
       </c>
@@ -20470,7 +20485,7 @@
       </c>
       <c r="M99" s="13"/>
     </row>
-    <row r="100" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>14</v>
       </c>
@@ -20491,7 +20506,7 @@
       </c>
       <c r="M100" s="13"/>
     </row>
-    <row r="101" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>14</v>
       </c>
@@ -20512,7 +20527,7 @@
       </c>
       <c r="M101" s="13"/>
     </row>
-    <row r="102" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>14</v>
       </c>
@@ -20533,7 +20548,7 @@
       </c>
       <c r="M102" s="13"/>
     </row>
-    <row r="103" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>92</v>
       </c>
@@ -20554,7 +20569,7 @@
       </c>
       <c r="M103" s="13"/>
     </row>
-    <row r="104" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>14</v>
       </c>
@@ -20575,7 +20590,7 @@
       </c>
       <c r="M104" s="13"/>
     </row>
-    <row r="105" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>14</v>
       </c>
@@ -20596,7 +20611,7 @@
       </c>
       <c r="M105" s="13"/>
     </row>
-    <row r="106" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>14</v>
       </c>
@@ -20617,7 +20632,7 @@
       </c>
       <c r="M106" s="13"/>
     </row>
-    <row r="107" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>14</v>
       </c>
@@ -20638,7 +20653,7 @@
       </c>
       <c r="M107" s="13"/>
     </row>
-    <row r="108" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>14</v>
       </c>
@@ -20659,7 +20674,7 @@
       </c>
       <c r="M108" s="13"/>
     </row>
-    <row r="109" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>14</v>
       </c>
@@ -20680,7 +20695,7 @@
       </c>
       <c r="M109" s="13"/>
     </row>
-    <row r="110" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>14</v>
       </c>
@@ -20701,7 +20716,7 @@
       </c>
       <c r="M110" s="13"/>
     </row>
-    <row r="111" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>14</v>
       </c>
@@ -20722,7 +20737,7 @@
       </c>
       <c r="M111" s="13"/>
     </row>
-    <row r="112" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>14</v>
       </c>
@@ -20743,7 +20758,7 @@
       </c>
       <c r="M112" s="13"/>
     </row>
-    <row r="113" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>14</v>
       </c>
@@ -20764,7 +20779,7 @@
       </c>
       <c r="M113" s="13"/>
     </row>
-    <row r="114" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>14</v>
       </c>
@@ -20785,7 +20800,7 @@
       </c>
       <c r="M114" s="13"/>
     </row>
-    <row r="115" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>14</v>
       </c>
@@ -20806,7 +20821,7 @@
       </c>
       <c r="M115" s="13"/>
     </row>
-    <row r="116" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>92</v>
       </c>
@@ -20827,7 +20842,7 @@
       </c>
       <c r="M116" s="13"/>
     </row>
-    <row r="117" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>14</v>
       </c>
@@ -20848,7 +20863,7 @@
       </c>
       <c r="M117" s="13"/>
     </row>
-    <row r="118" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>14</v>
       </c>
@@ -20869,7 +20884,7 @@
       </c>
       <c r="M118" s="13"/>
     </row>
-    <row r="119" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>14</v>
       </c>
@@ -20890,7 +20905,7 @@
       </c>
       <c r="M119" s="13"/>
     </row>
-    <row r="120" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>14</v>
       </c>
@@ -20908,7 +20923,7 @@
       </c>
       <c r="M120" s="13"/>
     </row>
-    <row r="121" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>14</v>
       </c>
@@ -20926,7 +20941,7 @@
       </c>
       <c r="M121" s="13"/>
     </row>
-    <row r="122" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>92</v>
       </c>
@@ -20947,7 +20962,7 @@
       </c>
       <c r="M122" s="13"/>
     </row>
-    <row r="123" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>92</v>
       </c>
@@ -20968,7 +20983,7 @@
       </c>
       <c r="M123" s="13"/>
     </row>
-    <row r="124" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>14</v>
       </c>
@@ -20986,7 +21001,7 @@
       </c>
       <c r="M124" s="13"/>
     </row>
-    <row r="125" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>14</v>
       </c>
@@ -21007,7 +21022,7 @@
       </c>
       <c r="M125" s="13"/>
     </row>
-    <row r="126" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>14</v>
       </c>
@@ -21028,7 +21043,7 @@
       </c>
       <c r="M126" s="13"/>
     </row>
-    <row r="127" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>14</v>
       </c>
@@ -21049,7 +21064,7 @@
       </c>
       <c r="M127" s="13"/>
     </row>
-    <row r="128" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>92</v>
       </c>
@@ -21070,7 +21085,7 @@
       </c>
       <c r="M128" s="13"/>
     </row>
-    <row r="129" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>14</v>
       </c>
@@ -21091,7 +21106,7 @@
       </c>
       <c r="M129" s="13"/>
     </row>
-    <row r="130" spans="1:13" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>10</v>
       </c>
@@ -21127,7 +21142,7 @@
       </c>
       <c r="M130" s="13"/>
     </row>
-    <row r="131" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>14</v>
       </c>
@@ -21166,7 +21181,7 @@
       </c>
       <c r="M131" s="13"/>
     </row>
-    <row r="132" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>306</v>
       </c>
@@ -21196,7 +21211,7 @@
       </c>
       <c r="M132" s="13"/>
     </row>
-    <row r="133" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>306</v>
       </c>
@@ -21233,7 +21248,7 @@
       <c r="L133" s="6"/>
       <c r="M133" s="13"/>
     </row>
-    <row r="134" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>306</v>
       </c>
@@ -21268,7 +21283,7 @@
       <c r="L134" s="6"/>
       <c r="M134" s="13"/>
     </row>
-    <row r="135" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>306</v>
       </c>
@@ -21301,7 +21316,7 @@
       </c>
       <c r="M135" s="13"/>
     </row>
-    <row r="136" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>306</v>
       </c>
@@ -21334,7 +21349,7 @@
       </c>
       <c r="M136" s="13"/>
     </row>
-    <row r="137" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>306</v>
       </c>
@@ -21369,7 +21384,7 @@
       <c r="L137" s="6"/>
       <c r="M137" s="13"/>
     </row>
-    <row r="138" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>14</v>
       </c>
@@ -21387,7 +21402,7 @@
       </c>
       <c r="M138" s="13"/>
     </row>
-    <row r="139" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>14</v>
       </c>
@@ -21408,7 +21423,7 @@
       </c>
       <c r="M139" s="13"/>
     </row>
-    <row r="140" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>201</v>
       </c>
@@ -21423,7 +21438,7 @@
       </c>
       <c r="M140" s="13"/>
     </row>
-    <row r="141" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>92</v>
       </c>
@@ -21444,7 +21459,7 @@
       </c>
       <c r="M141" s="13"/>
     </row>
-    <row r="142" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>92</v>
       </c>
@@ -21462,7 +21477,7 @@
       </c>
       <c r="M142" s="13"/>
     </row>
-    <row r="143" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>92</v>
       </c>
@@ -21483,7 +21498,7 @@
       </c>
       <c r="M143" s="13"/>
     </row>
-    <row r="144" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>92</v>
       </c>
@@ -21504,7 +21519,7 @@
       </c>
       <c r="M144" s="13"/>
     </row>
-    <row r="145" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>14</v>
       </c>
@@ -21522,7 +21537,7 @@
       </c>
       <c r="M145" s="13"/>
     </row>
-    <row r="146" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>92</v>
       </c>
@@ -21543,7 +21558,7 @@
       </c>
       <c r="M146" s="13"/>
     </row>
-    <row r="147" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>92</v>
       </c>
@@ -21564,7 +21579,7 @@
       </c>
       <c r="M147" s="13"/>
     </row>
-    <row r="148" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>14</v>
       </c>
@@ -21585,7 +21600,7 @@
       </c>
       <c r="M148" s="13"/>
     </row>
-    <row r="149" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>14</v>
       </c>
@@ -21606,7 +21621,7 @@
       </c>
       <c r="M149" s="13"/>
     </row>
-    <row r="150" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>92</v>
       </c>
@@ -21627,7 +21642,7 @@
       </c>
       <c r="M150" s="13"/>
     </row>
-    <row r="151" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>14</v>
       </c>
@@ -21648,7 +21663,7 @@
       </c>
       <c r="M151" s="13"/>
     </row>
-    <row r="152" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>14</v>
       </c>
@@ -21669,7 +21684,7 @@
       </c>
       <c r="M152" s="13"/>
     </row>
-    <row r="153" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>92</v>
       </c>
@@ -21690,7 +21705,7 @@
       </c>
       <c r="M153" s="13"/>
     </row>
-    <row r="154" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>14</v>
       </c>
@@ -21711,7 +21726,7 @@
       </c>
       <c r="M154" s="13"/>
     </row>
-    <row r="155" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>306</v>
       </c>
@@ -21747,7 +21762,7 @@
       </c>
       <c r="M155" s="13"/>
     </row>
-    <row r="156" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>306</v>
       </c>
@@ -21780,7 +21795,7 @@
       </c>
       <c r="M156" s="13"/>
     </row>
-    <row r="157" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>306</v>
       </c>
@@ -21814,7 +21829,7 @@
       <c r="L157" s="6"/>
       <c r="M157" s="13"/>
     </row>
-    <row r="158" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>306</v>
       </c>
@@ -21850,7 +21865,7 @@
       </c>
       <c r="M158" s="13"/>
     </row>
-    <row r="159" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>179</v>
       </c>
@@ -21886,7 +21901,7 @@
       </c>
       <c r="M159" s="13"/>
     </row>
-    <row r="160" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>10</v>
       </c>
@@ -21904,7 +21919,7 @@
       </c>
       <c r="M160" s="13"/>
     </row>
-    <row r="161" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>306</v>
       </c>
@@ -21935,7 +21950,7 @@
       </c>
       <c r="M161" s="13"/>
     </row>
-    <row r="162" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>14</v>
       </c>
@@ -21953,7 +21968,7 @@
       </c>
       <c r="M162" s="13"/>
     </row>
-    <row r="163" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>14</v>
       </c>
@@ -21971,7 +21986,7 @@
       </c>
       <c r="M163" s="13"/>
     </row>
-    <row r="164" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>14</v>
       </c>
@@ -21992,7 +22007,7 @@
       </c>
       <c r="M164" s="13"/>
     </row>
-    <row r="165" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>10</v>
       </c>
@@ -22010,7 +22025,7 @@
       </c>
       <c r="M165" s="13"/>
     </row>
-    <row r="166" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>10</v>
       </c>
@@ -22028,7 +22043,7 @@
       </c>
       <c r="M166" s="13"/>
     </row>
-    <row r="167" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>179</v>
       </c>
@@ -22049,7 +22064,7 @@
       </c>
       <c r="M167" s="13"/>
     </row>
-    <row r="168" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>179</v>
       </c>
@@ -22085,7 +22100,7 @@
       </c>
       <c r="M168" s="13"/>
     </row>
-    <row r="169" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>14</v>
       </c>
@@ -22121,7 +22136,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="170" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>14</v>
       </c>
@@ -22142,7 +22157,7 @@
       </c>
       <c r="M170" s="13"/>
     </row>
-    <row r="171" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>306</v>
       </c>
@@ -22172,7 +22187,7 @@
       </c>
       <c r="M171" s="13"/>
     </row>
-    <row r="172" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>10</v>
       </c>
@@ -22207,7 +22222,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="173" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>10</v>
       </c>
@@ -22239,7 +22254,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="174" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>179</v>
       </c>
@@ -22275,7 +22290,7 @@
       </c>
       <c r="M174" s="13"/>
     </row>
-    <row r="175" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>306</v>
       </c>
@@ -22308,7 +22323,7 @@
       </c>
       <c r="M175" s="13"/>
     </row>
-    <row r="176" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>179</v>
       </c>
@@ -22329,7 +22344,7 @@
       </c>
       <c r="M176" s="13"/>
     </row>
-    <row r="177" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>10</v>
       </c>
@@ -22344,7 +22359,7 @@
       </c>
       <c r="M177" s="13"/>
     </row>
-    <row r="178" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>14</v>
       </c>
@@ -22365,7 +22380,7 @@
       </c>
       <c r="M178" s="13"/>
     </row>
-    <row r="179" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>14</v>
       </c>
@@ -22386,7 +22401,7 @@
       </c>
       <c r="M179" s="13"/>
     </row>
-    <row r="180" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>10</v>
       </c>
@@ -22422,7 +22437,7 @@
       </c>
       <c r="M180" s="13"/>
     </row>
-    <row r="181" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>14</v>
       </c>
@@ -22443,7 +22458,7 @@
       </c>
       <c r="M181" s="13"/>
     </row>
-    <row r="182" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>10</v>
       </c>
@@ -22475,7 +22490,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="183" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>14</v>
       </c>
@@ -22499,7 +22514,7 @@
       </c>
       <c r="M183" s="13"/>
     </row>
-    <row r="184" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>10</v>
       </c>
@@ -22531,7 +22546,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="185" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>14</v>
       </c>
@@ -22552,7 +22567,7 @@
       </c>
       <c r="M185" s="13"/>
     </row>
-    <row r="186" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>14</v>
       </c>
@@ -22573,7 +22588,7 @@
       </c>
       <c r="M186" s="13"/>
     </row>
-    <row r="187" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>14</v>
       </c>
@@ -22594,7 +22609,7 @@
       </c>
       <c r="M187" s="13"/>
     </row>
-    <row r="188" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>14</v>
       </c>
@@ -22615,7 +22630,7 @@
       </c>
       <c r="M188" s="13"/>
     </row>
-    <row r="189" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>14</v>
       </c>
@@ -22636,7 +22651,7 @@
       </c>
       <c r="M189" s="13"/>
     </row>
-    <row r="190" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>14</v>
       </c>
@@ -22657,7 +22672,7 @@
       </c>
       <c r="M190" s="13"/>
     </row>
-    <row r="191" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>306</v>
       </c>
@@ -22692,7 +22707,7 @@
       </c>
       <c r="M191" s="13"/>
     </row>
-    <row r="192" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>306</v>
       </c>
@@ -22727,7 +22742,7 @@
       </c>
       <c r="M192" s="13"/>
     </row>
-    <row r="193" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>306</v>
       </c>
@@ -22760,7 +22775,7 @@
       </c>
       <c r="M193" s="13"/>
     </row>
-    <row r="194" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>306</v>
       </c>
@@ -22793,7 +22808,7 @@
       </c>
       <c r="M194" s="13"/>
     </row>
-    <row r="195" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>14</v>
       </c>
@@ -22814,7 +22829,7 @@
       </c>
       <c r="M195" s="13"/>
     </row>
-    <row r="196" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>14</v>
       </c>
@@ -22832,7 +22847,7 @@
       </c>
       <c r="M196" s="13"/>
     </row>
-    <row r="197" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>14</v>
       </c>
@@ -22853,7 +22868,7 @@
       </c>
       <c r="M197" s="13"/>
     </row>
-    <row r="198" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>14</v>
       </c>
@@ -22868,7 +22883,7 @@
       </c>
       <c r="M198" s="13"/>
     </row>
-    <row r="199" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>306</v>
       </c>
@@ -22898,7 +22913,7 @@
       </c>
       <c r="M199" s="13"/>
     </row>
-    <row r="200" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>405</v>
       </c>

--- a/mtc2umati/mtc2umati/Mapping.xlsx
+++ b/mtc2umati/mtc2umati/Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\arzer\Seafile\Meine Bibliothek\MeineProjekte\umati\connect\mtc2umati\mtc2umati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8D04F4-B020-4F51-BB7F-DF889338D6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0194E4A7-D440-45C2-8BED-5F21D2CD707E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40695492-071F-42C0-91D8-1CF4EDDA561A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{40695492-071F-42C0-91D8-1CF4EDDA561A}"/>
   </bookViews>
   <sheets>
     <sheet name="DMG" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5562" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5562" uniqueCount="620">
   <si>
     <t>Modelling Rule</t>
   </si>
@@ -1871,6 +1871,24 @@
   </si>
   <si>
     <t>Mandatory depending - applies if the superior node is optional but child is mandatory</t>
+  </si>
+  <si>
+    <t>#Mazak</t>
+  </si>
+  <si>
+    <t>#5-axis machining centre</t>
+  </si>
+  <si>
+    <t>#360444</t>
+  </si>
+  <si>
+    <t>#CV5-500</t>
+  </si>
+  <si>
+    <t>#Smooth</t>
+  </si>
+  <si>
+    <t>#https://www.mazak.com/eu-en/products/cv5/</t>
   </si>
 </sst>
 </file>
@@ -2033,22 +2051,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2153,7 +2156,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2387,6 +2389,22 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2482,84 +2500,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{09AB0687-0850-4689-9112-8648F9A75ED2}" name="Tabelle635" displayName="Tabelle635" ref="A1:K160" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{09AB0687-0850-4689-9112-8648F9A75ED2}" name="Tabelle635" displayName="Tabelle635" ref="A1:K160" totalsRowShown="0" dataDxfId="53">
   <autoFilter ref="A1:K160" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K160">
     <sortCondition ref="D1:D160"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D697A07D-8E3E-4E31-BAF7-7B83F7F8171B}" name="Modelling Rule" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{9A134CF3-65A5-4792-AA94-CEFF4C4E0E8D}" name="Node Class" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2FA25562-90A9-4876-A942-109CEF2ACE34}" name="BrowseName" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{087B179D-0213-4E21-B2D8-35AF744866F9}" name="OPC Path" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{53E8052E-7B4B-4F3D-9BA4-D7BA2163DE4B}" name="Data Type" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{8F592C62-F2DB-4535-9B00-EDF35811059C}" name="Type Definition" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{58661D2B-88D1-4BE2-A9E4-13C061DFAC2B}" name="MTC Name" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{184056D4-4267-4E75-91D0-8DCBA4B01542}" name="MTC Path" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{C56C86D0-6F7E-4B31-B8E2-AA9149373853}" name="subType" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{C2C7C293-602E-4428-9E4E-1CA3E32313B1}" name="MTC Data Type" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{1E65F599-6A0E-48E9-81ED-D38A76C13240}" name="Comment DMG" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D697A07D-8E3E-4E31-BAF7-7B83F7F8171B}" name="Modelling Rule" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{9A134CF3-65A5-4792-AA94-CEFF4C4E0E8D}" name="Node Class" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{2FA25562-90A9-4876-A942-109CEF2ACE34}" name="BrowseName" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{087B179D-0213-4E21-B2D8-35AF744866F9}" name="OPC Path" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{53E8052E-7B4B-4F3D-9BA4-D7BA2163DE4B}" name="Data Type" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{8F592C62-F2DB-4535-9B00-EDF35811059C}" name="Type Definition" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{58661D2B-88D1-4BE2-A9E4-13C061DFAC2B}" name="MTC Name" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{184056D4-4267-4E75-91D0-8DCBA4B01542}" name="MTC Path" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{C56C86D0-6F7E-4B31-B8E2-AA9149373853}" name="subType" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{C2C7C293-602E-4428-9E4E-1CA3E32313B1}" name="MTC Data Type" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{1E65F599-6A0E-48E9-81ED-D38A76C13240}" name="Comment DMG" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE8FAD02-9A69-4F06-801A-E0FFF72BEC0F}" name="Tabelle636" displayName="Tabelle636" ref="A1:L200" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:L200" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE8FAD02-9A69-4F06-801A-E0FFF72BEC0F}" name="Tabelle636" displayName="Tabelle636" ref="A1:L200" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:L200" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L199">
     <sortCondition ref="D1:D200"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{7E640474-2ABE-4881-A17D-54BF64EE5BAB}" name="Modelling Rule" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{EA9493F5-F154-44DF-B918-B32D4569F91A}" name="Node Class" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{7E64CCAF-6B2D-4CC9-B613-CA660931864C}" name="BrowseName" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{5DD9C21E-B8BD-4D3B-AA33-B49E16E572E6}" name="OPC Path" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{86117A2F-3A07-44E6-ADAB-A399E70F7164}" name="Data Type" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{F187E47C-A335-47F8-A432-3D332F15463D}" name="Type Definition" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{1E92A1F5-F07E-444F-BA36-0734F37732FC}" name="MTC Name" dataDxfId="34" dataCellStyle="Standard"/>
-    <tableColumn id="13" xr3:uid="{30D70E92-B0ED-4D21-B6DB-3B2876BBC06B}" name="MTC Path" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{1686EE16-55DB-4161-865C-F27750DD4F2B}" name="subType" dataDxfId="32"/>
-    <tableColumn id="15" xr3:uid="{1464A335-8F4B-4C98-AD45-FF87F8A0F343}" name="MTC Data Type" dataDxfId="31"/>
-    <tableColumn id="16" xr3:uid="{07844DA1-2BB1-405D-9EEE-4455312062D1}" name="Comment Mazak" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{549FF784-0F2F-42C2-9791-584DB56708F3}" name="Static" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{7E640474-2ABE-4881-A17D-54BF64EE5BAB}" name="Modelling Rule" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{EA9493F5-F154-44DF-B918-B32D4569F91A}" name="Node Class" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{7E64CCAF-6B2D-4CC9-B613-CA660931864C}" name="BrowseName" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{5DD9C21E-B8BD-4D3B-AA33-B49E16E572E6}" name="OPC Path" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{86117A2F-3A07-44E6-ADAB-A399E70F7164}" name="Data Type" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{F187E47C-A335-47F8-A432-3D332F15463D}" name="Type Definition" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{1E92A1F5-F07E-444F-BA36-0734F37732FC}" name="MTC Name" dataDxfId="33" dataCellStyle="Standard"/>
+    <tableColumn id="13" xr3:uid="{30D70E92-B0ED-4D21-B6DB-3B2876BBC06B}" name="MTC Path" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{1686EE16-55DB-4161-865C-F27750DD4F2B}" name="subType" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{1464A335-8F4B-4C98-AD45-FF87F8A0F343}" name="MTC Data Type" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{07844DA1-2BB1-405D-9EEE-4455312062D1}" name="Comment Mazak" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{549FF784-0F2F-42C2-9791-584DB56708F3}" name="Static" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{73708A3A-B34F-427D-B69F-51F0B6CC525E}" name="Tabelle63" displayName="Tabelle63" ref="A1:L200" totalsRowShown="0" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{73708A3A-B34F-427D-B69F-51F0B6CC525E}" name="Tabelle63" displayName="Tabelle63" ref="A1:L200" totalsRowShown="0" dataDxfId="27">
   <autoFilter ref="A1:L200" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K200">
     <sortCondition ref="D1:D200"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0C97535C-5280-4C4E-AFAF-2349D9CC17B9}" name="Modelling Rule" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{781EBAA7-0C88-4A8F-897C-97E19FF842F8}" name="Node Class" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{E333B96E-17E2-4FDF-A7AE-E033CA1DC990}" name="BrowseName" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{F2D4D9B6-5B7E-4B94-B85F-4E281B65C704}" name="OPC Path" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{BBA5D84B-2037-47A4-9568-C29814A4A24B}" name="Data Type" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{F719321B-84DD-45B1-984F-BB5BAD9F306D}" name="Type Definition" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{28AC1E6B-2DAA-444D-9B16-3FCA20F2F406}" name="MTC Name" dataDxfId="47" dataCellStyle="Standard"/>
-    <tableColumn id="13" xr3:uid="{9344ED68-6290-41E1-8039-2C314677F121}" name="MTC Path" dataDxfId="46"/>
-    <tableColumn id="14" xr3:uid="{64524808-E13D-4827-9F63-BE312E4155C6}" name="subType" dataDxfId="45"/>
-    <tableColumn id="15" xr3:uid="{0445DE02-C13D-4AF7-A9B4-9969B82674E4}" name="MTC Data Type" dataDxfId="44"/>
-    <tableColumn id="16" xr3:uid="{5728268B-EB27-4573-A5DB-BE604ED9F166}" name="Comment Mazak" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{E337020E-A105-49B3-83BC-DDABAB5FF93F}" name="Static" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{0C97535C-5280-4C4E-AFAF-2349D9CC17B9}" name="Modelling Rule" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{781EBAA7-0C88-4A8F-897C-97E19FF842F8}" name="Node Class" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{E333B96E-17E2-4FDF-A7AE-E033CA1DC990}" name="BrowseName" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{F2D4D9B6-5B7E-4B94-B85F-4E281B65C704}" name="OPC Path" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{BBA5D84B-2037-47A4-9568-C29814A4A24B}" name="Data Type" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{F719321B-84DD-45B1-984F-BB5BAD9F306D}" name="Type Definition" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{28AC1E6B-2DAA-444D-9B16-3FCA20F2F406}" name="MTC Name" dataDxfId="20" dataCellStyle="Standard"/>
+    <tableColumn id="13" xr3:uid="{9344ED68-6290-41E1-8039-2C314677F121}" name="MTC Path" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{64524808-E13D-4827-9F63-BE312E4155C6}" name="subType" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{0445DE02-C13D-4AF7-A9B4-9969B82674E4}" name="MTC Data Type" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{5728268B-EB27-4573-A5DB-BE604ED9F166}" name="Comment Mazak" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{E337020E-A105-49B3-83BC-DDABAB5FF93F}" name="Static" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{722E326B-9070-41AA-B454-4F2C82EF4AC1}" name="Tabelle6367" displayName="Tabelle6367" ref="A1:M200" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{722E326B-9070-41AA-B454-4F2C82EF4AC1}" name="Tabelle6367" displayName="Tabelle6367" ref="A1:M200" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:M200" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}">
     <filterColumn colId="7">
       <customFilters>
@@ -2571,19 +2583,19 @@
     <sortCondition ref="D1:D200"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{38042B5D-C282-4659-BA8F-CC80C965EA2E}" name="Modelling Rule" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{0E23E404-BEC0-4964-AC5B-D01B3BE774B0}" name="Node Class" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{05A4ADC5-DAB3-47B7-9599-9CF84CF8048F}" name="BrowseName" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{CA181843-023D-4FA0-A625-D03EC4E871EF}" name="OPC Path" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{F107A7D9-3240-44C9-8554-DE87D02D46FB}" name="Data Type" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{7E2A081F-FFF7-4AE9-B95B-06DC41DA3B3E}" name="Type Definition" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{BD72334A-F712-4EBE-BF80-1A7DD39F403F}" name="MTC Name" dataDxfId="20" dataCellStyle="Standard"/>
-    <tableColumn id="13" xr3:uid="{8CC9E047-1CD9-4844-8EA5-900DEE844107}" name="MTC Path" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{35CF5B4E-8EF4-4DFE-AEE3-3527B71DA9BE}" name="subType" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{76F53AFA-E432-4AA3-9AA3-DB4834CFE926}" name="SpecName" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{62CF4798-7BE8-4B6F-A42C-29EB3D9C9EC6}" name="MTC Data Type" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{A7699C2D-1062-498C-8F73-5EB12DF3ADA2}" name="Comment Mazak" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{B2731811-275D-477C-A522-5890E645462A}" name="Static" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{38042B5D-C282-4659-BA8F-CC80C965EA2E}" name="Modelling Rule" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{0E23E404-BEC0-4964-AC5B-D01B3BE774B0}" name="Node Class" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{05A4ADC5-DAB3-47B7-9599-9CF84CF8048F}" name="BrowseName" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{CA181843-023D-4FA0-A625-D03EC4E871EF}" name="OPC Path" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{F107A7D9-3240-44C9-8554-DE87D02D46FB}" name="Data Type" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{7E2A081F-FFF7-4AE9-B95B-06DC41DA3B3E}" name="Type Definition" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{BD72334A-F712-4EBE-BF80-1A7DD39F403F}" name="MTC Name" dataDxfId="6" dataCellStyle="Standard"/>
+    <tableColumn id="13" xr3:uid="{8CC9E047-1CD9-4844-8EA5-900DEE844107}" name="MTC Path" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{35CF5B4E-8EF4-4DFE-AEE3-3527B71DA9BE}" name="subType" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{76F53AFA-E432-4AA3-9AA3-DB4834CFE926}" name="SpecName" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{62CF4798-7BE8-4B6F-A42C-29EB3D9C9EC6}" name="MTC Data Type" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{A7699C2D-1062-498C-8F73-5EB12DF3ADA2}" name="Comment Mazak" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{B2731811-275D-477C-A522-5890E645462A}" name="Static" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2888,7 +2900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86714E06-43CE-41D1-B0FA-37CA50D75756}">
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+    <sheetView topLeftCell="B61" workbookViewId="0">
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
@@ -7201,8 +7213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA108938-A41A-4607-947C-EAC9A8B9EE57}">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="E70" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7223,7 +7235,7 @@
     <col min="15" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7261,7 +7273,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>92</v>
       </c>
@@ -7291,7 +7303,7 @@
       </c>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>92</v>
       </c>
@@ -7321,7 +7333,7 @@
       </c>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>306</v>
       </c>
@@ -7351,7 +7363,7 @@
       </c>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>92</v>
       </c>
@@ -7381,7 +7393,7 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>306</v>
       </c>
@@ -7411,7 +7423,7 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>92</v>
       </c>
@@ -7441,7 +7453,7 @@
       </c>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
@@ -7471,7 +7483,7 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>306</v>
       </c>
@@ -7501,7 +7513,7 @@
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
@@ -7531,7 +7543,7 @@
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>306</v>
       </c>
@@ -7561,7 +7573,7 @@
       </c>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>306</v>
       </c>
@@ -7591,7 +7603,7 @@
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>306</v>
       </c>
@@ -7621,7 +7633,7 @@
       </c>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>92</v>
       </c>
@@ -7651,7 +7663,7 @@
       </c>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>92</v>
       </c>
@@ -7681,7 +7693,7 @@
       </c>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>306</v>
       </c>
@@ -7711,7 +7723,7 @@
       </c>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>92</v>
       </c>
@@ -7741,7 +7753,7 @@
       </c>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>306</v>
       </c>
@@ -7771,7 +7783,7 @@
       </c>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>92</v>
       </c>
@@ -7801,7 +7813,7 @@
       </c>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
@@ -7831,7 +7843,7 @@
       </c>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>306</v>
       </c>
@@ -7861,7 +7873,7 @@
       </c>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>92</v>
       </c>
@@ -7891,7 +7903,7 @@
       </c>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>306</v>
       </c>
@@ -7921,7 +7933,7 @@
       </c>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>92</v>
       </c>
@@ -7951,7 +7963,7 @@
       </c>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>306</v>
       </c>
@@ -7981,7 +7993,7 @@
       </c>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>306</v>
       </c>
@@ -8011,7 +8023,7 @@
       </c>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>92</v>
       </c>
@@ -8041,7 +8053,7 @@
       </c>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>306</v>
       </c>
@@ -8071,7 +8083,7 @@
       </c>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
@@ -8089,7 +8101,7 @@
       </c>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
@@ -8107,7 +8119,7 @@
       </c>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -8128,7 +8140,7 @@
       </c>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -8146,7 +8158,7 @@
       </c>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>14</v>
       </c>
@@ -8179,7 +8191,7 @@
       </c>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
@@ -8200,7 +8212,7 @@
       </c>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>14</v>
       </c>
@@ -8223,7 +8235,7 @@
         <v>40</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>558</v>
+        <v>615</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>21</v>
@@ -8232,7 +8244,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>14</v>
       </c>
@@ -8253,7 +8265,7 @@
       </c>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>14</v>
       </c>
@@ -8274,7 +8286,7 @@
       </c>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>14</v>
       </c>
@@ -8306,7 +8318,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
@@ -8329,7 +8341,7 @@
         <v>29</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>527</v>
+        <v>614</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>21</v>
@@ -8338,7 +8350,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>14</v>
       </c>
@@ -8359,7 +8371,7 @@
       </c>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
@@ -8392,7 +8404,7 @@
       </c>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>14</v>
       </c>
@@ -8413,7 +8425,7 @@
       </c>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
@@ -8436,7 +8448,7 @@
         <v>58</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>21</v>
@@ -8445,7 +8457,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
@@ -8468,7 +8480,7 @@
         <v>32</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>21</v>
@@ -8477,7 +8489,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>10</v>
       </c>
@@ -8500,7 +8512,7 @@
         <v>51</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>21</v>
@@ -8509,7 +8521,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>14</v>
       </c>
@@ -8527,7 +8539,7 @@
       </c>
       <c r="L46" s="13"/>
     </row>
-    <row r="47" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
@@ -8560,7 +8572,7 @@
       </c>
       <c r="L47" s="13"/>
     </row>
-    <row r="48" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>306</v>
       </c>
@@ -8596,7 +8608,7 @@
       </c>
       <c r="L48" s="13"/>
     </row>
-    <row r="49" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>92</v>
       </c>
@@ -8629,7 +8641,7 @@
       </c>
       <c r="L49" s="13"/>
     </row>
-    <row r="50" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>179</v>
       </c>
@@ -8650,7 +8662,7 @@
       </c>
       <c r="L50" s="13"/>
     </row>
-    <row r="51" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>92</v>
       </c>
@@ -8683,7 +8695,7 @@
       </c>
       <c r="L51" s="13"/>
     </row>
-    <row r="52" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>306</v>
       </c>
@@ -8719,7 +8731,7 @@
       </c>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>92</v>
       </c>
@@ -8752,7 +8764,7 @@
       </c>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>14</v>
       </c>
@@ -8770,7 +8782,7 @@
       </c>
       <c r="L54" s="13"/>
     </row>
-    <row r="55" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>14</v>
       </c>
@@ -8791,7 +8803,7 @@
       </c>
       <c r="L55" s="13"/>
     </row>
-    <row r="56" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>14</v>
       </c>
@@ -8812,7 +8824,7 @@
       </c>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>14</v>
       </c>
@@ -8835,7 +8847,7 @@
         <v>68</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>21</v>
@@ -8844,7 +8856,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>14</v>
       </c>
@@ -8865,7 +8877,7 @@
       </c>
       <c r="L58" s="13"/>
     </row>
-    <row r="59" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>14</v>
       </c>
@@ -8897,7 +8909,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>10</v>
       </c>
@@ -8915,7 +8927,7 @@
       </c>
       <c r="L60" s="13"/>
     </row>
-    <row r="61" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>179</v>
       </c>
@@ -8945,7 +8957,7 @@
       </c>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>179</v>
       </c>
@@ -8979,7 +8991,7 @@
       </c>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>10</v>
       </c>
@@ -9011,7 +9023,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>179</v>
       </c>
@@ -9044,7 +9056,7 @@
       </c>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>10</v>
       </c>
@@ -9076,7 +9088,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>10</v>
       </c>
@@ -9108,7 +9120,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>10</v>
       </c>
@@ -9140,7 +9152,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>179</v>
       </c>
@@ -9173,7 +9185,7 @@
       </c>
       <c r="L68" s="13"/>
     </row>
-    <row r="69" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>10</v>
       </c>
@@ -9205,7 +9217,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>10</v>
       </c>
@@ -9237,7 +9249,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>10</v>
       </c>
@@ -9255,7 +9267,7 @@
       </c>
       <c r="L71" s="13"/>
     </row>
-    <row r="72" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>14</v>
       </c>
@@ -9276,7 +9288,7 @@
       </c>
       <c r="L72" s="13"/>
     </row>
-    <row r="73" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>14</v>
       </c>
@@ -9309,7 +9321,7 @@
       </c>
       <c r="L73" s="13"/>
     </row>
-    <row r="74" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>14</v>
       </c>
@@ -9339,7 +9351,7 @@
       </c>
       <c r="L74" s="13"/>
     </row>
-    <row r="75" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>92</v>
       </c>
@@ -9369,7 +9381,7 @@
       </c>
       <c r="L75" s="13"/>
     </row>
-    <row r="76" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>14</v>
       </c>
@@ -9390,7 +9402,7 @@
       </c>
       <c r="L76" s="13"/>
     </row>
-    <row r="77" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>14</v>
       </c>
@@ -9411,7 +9423,7 @@
       </c>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>14</v>
       </c>
@@ -9432,7 +9444,7 @@
       </c>
       <c r="L78" s="13"/>
     </row>
-    <row r="79" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>14</v>
       </c>
@@ -9450,7 +9462,7 @@
       </c>
       <c r="L79" s="13"/>
     </row>
-    <row r="80" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>14</v>
       </c>
@@ -9471,7 +9483,7 @@
       </c>
       <c r="L80" s="13"/>
     </row>
-    <row r="81" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>14</v>
       </c>
@@ -9492,7 +9504,7 @@
       </c>
       <c r="L81" s="13"/>
     </row>
-    <row r="82" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>14</v>
       </c>
@@ -9513,7 +9525,7 @@
       </c>
       <c r="L82" s="13"/>
     </row>
-    <row r="83" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>14</v>
       </c>
@@ -9534,7 +9546,7 @@
       </c>
       <c r="L83" s="13"/>
     </row>
-    <row r="84" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>14</v>
       </c>
@@ -9555,7 +9567,7 @@
       </c>
       <c r="L84" s="13"/>
     </row>
-    <row r="85" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>14</v>
       </c>
@@ -9576,7 +9588,7 @@
       </c>
       <c r="L85" s="13"/>
     </row>
-    <row r="86" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>14</v>
       </c>
@@ -9597,7 +9609,7 @@
       </c>
       <c r="L86" s="13"/>
     </row>
-    <row r="87" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>14</v>
       </c>
@@ -9618,7 +9630,7 @@
       </c>
       <c r="L87" s="13"/>
     </row>
-    <row r="88" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>14</v>
       </c>
@@ -9639,7 +9651,7 @@
       </c>
       <c r="L88" s="13"/>
     </row>
-    <row r="89" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>92</v>
       </c>
@@ -9660,7 +9672,7 @@
       </c>
       <c r="L89" s="13"/>
     </row>
-    <row r="90" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
@@ -9681,7 +9693,7 @@
       </c>
       <c r="L90" s="13"/>
     </row>
-    <row r="91" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>14</v>
       </c>
@@ -9702,7 +9714,7 @@
       </c>
       <c r="L91" s="13"/>
     </row>
-    <row r="92" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>14</v>
       </c>
@@ -9723,7 +9735,7 @@
       </c>
       <c r="L92" s="13"/>
     </row>
-    <row r="93" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>14</v>
       </c>
@@ -9741,7 +9753,7 @@
       </c>
       <c r="L93" s="13"/>
     </row>
-    <row r="94" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>14</v>
       </c>
@@ -9762,7 +9774,7 @@
       </c>
       <c r="L94" s="13"/>
     </row>
-    <row r="95" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>14</v>
       </c>
@@ -9783,7 +9795,7 @@
       </c>
       <c r="L95" s="13"/>
     </row>
-    <row r="96" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>14</v>
       </c>
@@ -9804,7 +9816,7 @@
       </c>
       <c r="L96" s="13"/>
     </row>
-    <row r="97" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>14</v>
       </c>
@@ -9825,7 +9837,7 @@
       </c>
       <c r="L97" s="13"/>
     </row>
-    <row r="98" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>14</v>
       </c>
@@ -9846,7 +9858,7 @@
       </c>
       <c r="L98" s="13"/>
     </row>
-    <row r="99" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>14</v>
       </c>
@@ -9867,7 +9879,7 @@
       </c>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>14</v>
       </c>
@@ -9888,7 +9900,7 @@
       </c>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>14</v>
       </c>
@@ -9909,7 +9921,7 @@
       </c>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>14</v>
       </c>
@@ -9930,7 +9942,7 @@
       </c>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>92</v>
       </c>
@@ -9951,7 +9963,7 @@
       </c>
       <c r="L103" s="13"/>
     </row>
-    <row r="104" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>14</v>
       </c>
@@ -9972,7 +9984,7 @@
       </c>
       <c r="L104" s="13"/>
     </row>
-    <row r="105" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>14</v>
       </c>
@@ -9993,7 +10005,7 @@
       </c>
       <c r="L105" s="13"/>
     </row>
-    <row r="106" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>14</v>
       </c>
@@ -10014,7 +10026,7 @@
       </c>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>14</v>
       </c>
@@ -10035,7 +10047,7 @@
       </c>
       <c r="L107" s="13"/>
     </row>
-    <row r="108" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>14</v>
       </c>
@@ -10056,7 +10068,7 @@
       </c>
       <c r="L108" s="13"/>
     </row>
-    <row r="109" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>14</v>
       </c>
@@ -10077,7 +10089,7 @@
       </c>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>14</v>
       </c>
@@ -10098,7 +10110,7 @@
       </c>
       <c r="L110" s="13"/>
     </row>
-    <row r="111" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>14</v>
       </c>
@@ -10119,7 +10131,7 @@
       </c>
       <c r="L111" s="13"/>
     </row>
-    <row r="112" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>14</v>
       </c>
@@ -10140,7 +10152,7 @@
       </c>
       <c r="L112" s="13"/>
     </row>
-    <row r="113" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>14</v>
       </c>
@@ -10161,7 +10173,7 @@
       </c>
       <c r="L113" s="13"/>
     </row>
-    <row r="114" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>14</v>
       </c>
@@ -10182,7 +10194,7 @@
       </c>
       <c r="L114" s="13"/>
     </row>
-    <row r="115" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>14</v>
       </c>
@@ -10203,7 +10215,7 @@
       </c>
       <c r="L115" s="13"/>
     </row>
-    <row r="116" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>92</v>
       </c>
@@ -10224,7 +10236,7 @@
       </c>
       <c r="L116" s="13"/>
     </row>
-    <row r="117" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>14</v>
       </c>
@@ -10245,7 +10257,7 @@
       </c>
       <c r="L117" s="13"/>
     </row>
-    <row r="118" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>14</v>
       </c>
@@ -10266,7 +10278,7 @@
       </c>
       <c r="L118" s="13"/>
     </row>
-    <row r="119" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>14</v>
       </c>
@@ -10287,7 +10299,7 @@
       </c>
       <c r="L119" s="13"/>
     </row>
-    <row r="120" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>14</v>
       </c>
@@ -10305,7 +10317,7 @@
       </c>
       <c r="L120" s="13"/>
     </row>
-    <row r="121" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>14</v>
       </c>
@@ -10323,7 +10335,7 @@
       </c>
       <c r="L121" s="13"/>
     </row>
-    <row r="122" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>92</v>
       </c>
@@ -10344,7 +10356,7 @@
       </c>
       <c r="L122" s="13"/>
     </row>
-    <row r="123" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>92</v>
       </c>
@@ -10365,7 +10377,7 @@
       </c>
       <c r="L123" s="13"/>
     </row>
-    <row r="124" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>14</v>
       </c>
@@ -10383,7 +10395,7 @@
       </c>
       <c r="L124" s="13"/>
     </row>
-    <row r="125" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>14</v>
       </c>
@@ -10404,7 +10416,7 @@
       </c>
       <c r="L125" s="13"/>
     </row>
-    <row r="126" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>14</v>
       </c>
@@ -10425,7 +10437,7 @@
       </c>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>14</v>
       </c>
@@ -10446,7 +10458,7 @@
       </c>
       <c r="L127" s="13"/>
     </row>
-    <row r="128" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>92</v>
       </c>
@@ -10467,7 +10479,7 @@
       </c>
       <c r="L128" s="13"/>
     </row>
-    <row r="129" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>14</v>
       </c>
@@ -10488,7 +10500,7 @@
       </c>
       <c r="L129" s="13"/>
     </row>
-    <row r="130" spans="1:12" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>10</v>
       </c>
@@ -10521,7 +10533,7 @@
       </c>
       <c r="L130" s="13"/>
     </row>
-    <row r="131" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>14</v>
       </c>
@@ -10557,7 +10569,7 @@
       </c>
       <c r="L131" s="13"/>
     </row>
-    <row r="132" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>306</v>
       </c>
@@ -10587,7 +10599,7 @@
       </c>
       <c r="L132" s="13"/>
     </row>
-    <row r="133" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>306</v>
       </c>
@@ -10621,7 +10633,7 @@
       <c r="K133" s="6"/>
       <c r="L133" s="13"/>
     </row>
-    <row r="134" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>306</v>
       </c>
@@ -10655,7 +10667,7 @@
       <c r="K134" s="6"/>
       <c r="L134" s="13"/>
     </row>
-    <row r="135" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>306</v>
       </c>
@@ -10688,7 +10700,7 @@
       </c>
       <c r="L135" s="13"/>
     </row>
-    <row r="136" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>306</v>
       </c>
@@ -10721,7 +10733,7 @@
       </c>
       <c r="L136" s="13"/>
     </row>
-    <row r="137" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>306</v>
       </c>
@@ -10755,7 +10767,7 @@
       <c r="K137" s="6"/>
       <c r="L137" s="13"/>
     </row>
-    <row r="138" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>14</v>
       </c>
@@ -10773,7 +10785,7 @@
       </c>
       <c r="L138" s="13"/>
     </row>
-    <row r="139" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>14</v>
       </c>
@@ -10794,7 +10806,7 @@
       </c>
       <c r="L139" s="13"/>
     </row>
-    <row r="140" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>201</v>
       </c>
@@ -10809,7 +10821,7 @@
       </c>
       <c r="L140" s="13"/>
     </row>
-    <row r="141" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>92</v>
       </c>
@@ -10830,7 +10842,7 @@
       </c>
       <c r="L141" s="13"/>
     </row>
-    <row r="142" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>92</v>
       </c>
@@ -10848,7 +10860,7 @@
       </c>
       <c r="L142" s="13"/>
     </row>
-    <row r="143" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>92</v>
       </c>
@@ -10869,7 +10881,7 @@
       </c>
       <c r="L143" s="13"/>
     </row>
-    <row r="144" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>92</v>
       </c>
@@ -10890,7 +10902,7 @@
       </c>
       <c r="L144" s="13"/>
     </row>
-    <row r="145" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>14</v>
       </c>
@@ -10908,7 +10920,7 @@
       </c>
       <c r="L145" s="13"/>
     </row>
-    <row r="146" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>92</v>
       </c>
@@ -10929,7 +10941,7 @@
       </c>
       <c r="L146" s="13"/>
     </row>
-    <row r="147" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>92</v>
       </c>
@@ -10950,7 +10962,7 @@
       </c>
       <c r="L147" s="13"/>
     </row>
-    <row r="148" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>14</v>
       </c>
@@ -10971,7 +10983,7 @@
       </c>
       <c r="L148" s="13"/>
     </row>
-    <row r="149" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>14</v>
       </c>
@@ -10992,7 +11004,7 @@
       </c>
       <c r="L149" s="13"/>
     </row>
-    <row r="150" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>92</v>
       </c>
@@ -11013,7 +11025,7 @@
       </c>
       <c r="L150" s="13"/>
     </row>
-    <row r="151" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>14</v>
       </c>
@@ -11034,7 +11046,7 @@
       </c>
       <c r="L151" s="13"/>
     </row>
-    <row r="152" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>14</v>
       </c>
@@ -11055,7 +11067,7 @@
       </c>
       <c r="L152" s="13"/>
     </row>
-    <row r="153" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>92</v>
       </c>
@@ -11076,7 +11088,7 @@
       </c>
       <c r="L153" s="13"/>
     </row>
-    <row r="154" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>14</v>
       </c>
@@ -11097,7 +11109,7 @@
       </c>
       <c r="L154" s="13"/>
     </row>
-    <row r="155" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>306</v>
       </c>
@@ -11130,7 +11142,7 @@
       </c>
       <c r="L155" s="13"/>
     </row>
-    <row r="156" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>306</v>
       </c>
@@ -11160,7 +11172,7 @@
       </c>
       <c r="L156" s="13"/>
     </row>
-    <row r="157" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>306</v>
       </c>
@@ -11191,7 +11203,7 @@
       <c r="K157" s="6"/>
       <c r="L157" s="13"/>
     </row>
-    <row r="158" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>306</v>
       </c>
@@ -11224,7 +11236,7 @@
       </c>
       <c r="L158" s="13"/>
     </row>
-    <row r="159" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>179</v>
       </c>
@@ -11257,7 +11269,7 @@
       </c>
       <c r="L159" s="13"/>
     </row>
-    <row r="160" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>10</v>
       </c>
@@ -11275,7 +11287,7 @@
       </c>
       <c r="L160" s="13"/>
     </row>
-    <row r="161" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>306</v>
       </c>
@@ -11305,7 +11317,7 @@
       </c>
       <c r="L161" s="13"/>
     </row>
-    <row r="162" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>14</v>
       </c>
@@ -11323,7 +11335,7 @@
       </c>
       <c r="L162" s="13"/>
     </row>
-    <row r="163" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>14</v>
       </c>
@@ -11341,7 +11353,7 @@
       </c>
       <c r="L163" s="13"/>
     </row>
-    <row r="164" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>14</v>
       </c>
@@ -11362,7 +11374,7 @@
       </c>
       <c r="L164" s="13"/>
     </row>
-    <row r="165" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>10</v>
       </c>
@@ -11380,7 +11392,7 @@
       </c>
       <c r="L165" s="13"/>
     </row>
-    <row r="166" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>10</v>
       </c>
@@ -11398,7 +11410,7 @@
       </c>
       <c r="L166" s="13"/>
     </row>
-    <row r="167" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>179</v>
       </c>
@@ -11419,7 +11431,7 @@
       </c>
       <c r="L167" s="13"/>
     </row>
-    <row r="168" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>179</v>
       </c>
@@ -11452,7 +11464,7 @@
       </c>
       <c r="L168" s="13"/>
     </row>
-    <row r="169" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>14</v>
       </c>
@@ -11490,7 +11502,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>14</v>
       </c>
@@ -11511,7 +11523,7 @@
       </c>
       <c r="L170" s="13"/>
     </row>
-    <row r="171" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>306</v>
       </c>
@@ -11541,7 +11553,7 @@
       </c>
       <c r="L171" s="13"/>
     </row>
-    <row r="172" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>10</v>
       </c>
@@ -11573,7 +11585,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="173" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>10</v>
       </c>
@@ -11605,7 +11617,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="174" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>179</v>
       </c>
@@ -11638,7 +11650,7 @@
       </c>
       <c r="L174" s="13"/>
     </row>
-    <row r="175" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>306</v>
       </c>
@@ -11668,7 +11680,7 @@
       </c>
       <c r="L175" s="13"/>
     </row>
-    <row r="176" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>179</v>
       </c>
@@ -11689,7 +11701,7 @@
       </c>
       <c r="L176" s="13"/>
     </row>
-    <row r="177" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>10</v>
       </c>
@@ -11704,7 +11716,7 @@
       </c>
       <c r="L177" s="13"/>
     </row>
-    <row r="178" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>14</v>
       </c>
@@ -11725,7 +11737,7 @@
       </c>
       <c r="L178" s="13"/>
     </row>
-    <row r="179" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>14</v>
       </c>
@@ -11746,7 +11758,7 @@
       </c>
       <c r="L179" s="13"/>
     </row>
-    <row r="180" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>10</v>
       </c>
@@ -11779,7 +11791,7 @@
       </c>
       <c r="L180" s="13"/>
     </row>
-    <row r="181" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>14</v>
       </c>
@@ -11800,7 +11812,7 @@
       </c>
       <c r="L181" s="13"/>
     </row>
-    <row r="182" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>10</v>
       </c>
@@ -11832,7 +11844,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="183" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>14</v>
       </c>
@@ -11856,7 +11868,7 @@
       </c>
       <c r="L183" s="13"/>
     </row>
-    <row r="184" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>10</v>
       </c>
@@ -11886,7 +11898,7 @@
       </c>
       <c r="L184" s="13"/>
     </row>
-    <row r="185" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>14</v>
       </c>
@@ -11907,7 +11919,7 @@
       </c>
       <c r="L185" s="13"/>
     </row>
-    <row r="186" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>14</v>
       </c>
@@ -11928,7 +11940,7 @@
       </c>
       <c r="L186" s="13"/>
     </row>
-    <row r="187" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>14</v>
       </c>
@@ -11949,7 +11961,7 @@
       </c>
       <c r="L187" s="13"/>
     </row>
-    <row r="188" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>14</v>
       </c>
@@ -11970,7 +11982,7 @@
       </c>
       <c r="L188" s="13"/>
     </row>
-    <row r="189" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>14</v>
       </c>
@@ -11991,7 +12003,7 @@
       </c>
       <c r="L189" s="13"/>
     </row>
-    <row r="190" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>14</v>
       </c>
@@ -12012,7 +12024,7 @@
       </c>
       <c r="L190" s="13"/>
     </row>
-    <row r="191" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>306</v>
       </c>
@@ -12046,7 +12058,7 @@
       </c>
       <c r="L191" s="13"/>
     </row>
-    <row r="192" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>306</v>
       </c>
@@ -12080,7 +12092,7 @@
       </c>
       <c r="L192" s="13"/>
     </row>
-    <row r="193" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>306</v>
       </c>
@@ -12113,7 +12125,7 @@
       </c>
       <c r="L193" s="13"/>
     </row>
-    <row r="194" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>306</v>
       </c>
@@ -12143,7 +12155,7 @@
       </c>
       <c r="L194" s="13"/>
     </row>
-    <row r="195" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>14</v>
       </c>
@@ -12164,7 +12176,7 @@
       </c>
       <c r="L195" s="13"/>
     </row>
-    <row r="196" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>14</v>
       </c>
@@ -12182,7 +12194,7 @@
       </c>
       <c r="L196" s="13"/>
     </row>
-    <row r="197" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>14</v>
       </c>
@@ -12203,7 +12215,7 @@
       </c>
       <c r="L197" s="13"/>
     </row>
-    <row r="198" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>14</v>
       </c>
@@ -12218,7 +12230,7 @@
       </c>
       <c r="L198" s="13"/>
     </row>
-    <row r="199" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>306</v>
       </c>
@@ -12248,7 +12260,7 @@
       </c>
       <c r="L199" s="13"/>
     </row>
-    <row r="200" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>405</v>
       </c>
@@ -17778,7 +17790,7 @@
     <col min="16" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -17819,7 +17831,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>92</v>
       </c>
@@ -17849,7 +17861,7 @@
       </c>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>92</v>
       </c>
@@ -17879,7 +17891,7 @@
       </c>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>306</v>
       </c>
@@ -17909,7 +17921,7 @@
       </c>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>92</v>
       </c>
@@ -17939,7 +17951,7 @@
       </c>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>306</v>
       </c>
@@ -17969,7 +17981,7 @@
       </c>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>92</v>
       </c>
@@ -17999,7 +18011,7 @@
       </c>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
@@ -18029,7 +18041,7 @@
       </c>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>306</v>
       </c>
@@ -18059,7 +18071,7 @@
       </c>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
@@ -18089,7 +18101,7 @@
       </c>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>306</v>
       </c>
@@ -18122,7 +18134,7 @@
       </c>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>306</v>
       </c>
@@ -18155,7 +18167,7 @@
       </c>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>306</v>
       </c>
@@ -18188,7 +18200,7 @@
       </c>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>92</v>
       </c>
@@ -18221,7 +18233,7 @@
       </c>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>92</v>
       </c>
@@ -18251,7 +18263,7 @@
       </c>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>306</v>
       </c>
@@ -18284,7 +18296,7 @@
       </c>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>92</v>
       </c>
@@ -18314,7 +18326,7 @@
       </c>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>306</v>
       </c>
@@ -18344,7 +18356,7 @@
       </c>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>92</v>
       </c>
@@ -18380,7 +18392,7 @@
       </c>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
@@ -18410,7 +18422,7 @@
       </c>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>306</v>
       </c>
@@ -18443,7 +18455,7 @@
       </c>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>92</v>
       </c>
@@ -18473,7 +18485,7 @@
       </c>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>306</v>
       </c>
@@ -18503,7 +18515,7 @@
       </c>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>92</v>
       </c>
@@ -18539,7 +18551,7 @@
       </c>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>306</v>
       </c>
@@ -18569,7 +18581,7 @@
       </c>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>306</v>
       </c>
@@ -18602,7 +18614,7 @@
       </c>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>92</v>
       </c>
@@ -18632,7 +18644,7 @@
       </c>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>306</v>
       </c>
@@ -18662,7 +18674,7 @@
       </c>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
@@ -18680,7 +18692,7 @@
       </c>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
@@ -18698,7 +18710,7 @@
       </c>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -18719,7 +18731,7 @@
       </c>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -18737,7 +18749,7 @@
       </c>
       <c r="M32" s="13"/>
     </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>14</v>
       </c>
@@ -18770,7 +18782,7 @@
       </c>
       <c r="M33" s="13"/>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
@@ -18791,7 +18803,7 @@
       </c>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>14</v>
       </c>
@@ -18823,7 +18835,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>14</v>
       </c>
@@ -18844,7 +18856,7 @@
       </c>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>14</v>
       </c>
@@ -18865,7 +18877,7 @@
       </c>
       <c r="M37" s="13"/>
     </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>14</v>
       </c>
@@ -18897,7 +18909,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
@@ -18929,7 +18941,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>14</v>
       </c>
@@ -18950,7 +18962,7 @@
       </c>
       <c r="M40" s="13"/>
     </row>
-    <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
@@ -18983,7 +18995,7 @@
       </c>
       <c r="M41" s="13"/>
     </row>
-    <row r="42" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>14</v>
       </c>
@@ -19004,7 +19016,7 @@
       </c>
       <c r="M42" s="13"/>
     </row>
-    <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
@@ -19036,7 +19048,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
@@ -19068,7 +19080,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>10</v>
       </c>
@@ -19100,7 +19112,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>14</v>
       </c>
@@ -19118,7 +19130,7 @@
       </c>
       <c r="M46" s="13"/>
     </row>
-    <row r="47" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
@@ -19151,7 +19163,7 @@
       </c>
       <c r="M47" s="13"/>
     </row>
-    <row r="48" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>306</v>
       </c>
@@ -19187,7 +19199,7 @@
       </c>
       <c r="M48" s="13"/>
     </row>
-    <row r="49" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>92</v>
       </c>
@@ -19220,7 +19232,7 @@
       </c>
       <c r="M49" s="13"/>
     </row>
-    <row r="50" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>179</v>
       </c>
@@ -19241,7 +19253,7 @@
       </c>
       <c r="M50" s="13"/>
     </row>
-    <row r="51" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>92</v>
       </c>
@@ -19274,7 +19286,7 @@
       </c>
       <c r="M51" s="13"/>
     </row>
-    <row r="52" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>306</v>
       </c>
@@ -19310,7 +19322,7 @@
       </c>
       <c r="M52" s="13"/>
     </row>
-    <row r="53" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>92</v>
       </c>
@@ -19343,7 +19355,7 @@
       </c>
       <c r="M53" s="13"/>
     </row>
-    <row r="54" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>14</v>
       </c>
@@ -19361,7 +19373,7 @@
       </c>
       <c r="M54" s="13"/>
     </row>
-    <row r="55" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>14</v>
       </c>
@@ -19382,7 +19394,7 @@
       </c>
       <c r="M55" s="13"/>
     </row>
-    <row r="56" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>14</v>
       </c>
@@ -19403,7 +19415,7 @@
       </c>
       <c r="M56" s="13"/>
     </row>
-    <row r="57" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>14</v>
       </c>
@@ -19435,7 +19447,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>14</v>
       </c>
@@ -19456,7 +19468,7 @@
       </c>
       <c r="M58" s="13"/>
     </row>
-    <row r="59" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>14</v>
       </c>
@@ -19488,7 +19500,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>10</v>
       </c>
@@ -19506,7 +19518,7 @@
       </c>
       <c r="M60" s="13"/>
     </row>
-    <row r="61" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>179</v>
       </c>
@@ -19539,7 +19551,7 @@
       </c>
       <c r="M61" s="13"/>
     </row>
-    <row r="62" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>179</v>
       </c>
@@ -19576,7 +19588,7 @@
       </c>
       <c r="M62" s="13"/>
     </row>
-    <row r="63" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>10</v>
       </c>
@@ -19608,7 +19620,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>179</v>
       </c>
@@ -19644,7 +19656,7 @@
       </c>
       <c r="M64" s="13"/>
     </row>
-    <row r="65" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>10</v>
       </c>
@@ -19676,7 +19688,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>10</v>
       </c>
@@ -19708,7 +19720,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>10</v>
       </c>
@@ -19740,7 +19752,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>179</v>
       </c>
@@ -19776,7 +19788,7 @@
       </c>
       <c r="M68" s="13"/>
     </row>
-    <row r="69" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>10</v>
       </c>
@@ -19808,7 +19820,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>10</v>
       </c>
@@ -19840,7 +19852,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>10</v>
       </c>
@@ -19858,7 +19870,7 @@
       </c>
       <c r="M71" s="13"/>
     </row>
-    <row r="72" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>14</v>
       </c>
@@ -19879,7 +19891,7 @@
       </c>
       <c r="M72" s="13"/>
     </row>
-    <row r="73" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>14</v>
       </c>
@@ -19912,7 +19924,7 @@
       </c>
       <c r="M73" s="13"/>
     </row>
-    <row r="74" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>14</v>
       </c>
@@ -19942,7 +19954,7 @@
       </c>
       <c r="M74" s="13"/>
     </row>
-    <row r="75" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>92</v>
       </c>
@@ -19972,7 +19984,7 @@
       </c>
       <c r="M75" s="13"/>
     </row>
-    <row r="76" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>14</v>
       </c>
@@ -19993,7 +20005,7 @@
       </c>
       <c r="M76" s="13"/>
     </row>
-    <row r="77" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>14</v>
       </c>
@@ -20014,7 +20026,7 @@
       </c>
       <c r="M77" s="13"/>
     </row>
-    <row r="78" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>14</v>
       </c>
@@ -20035,7 +20047,7 @@
       </c>
       <c r="M78" s="13"/>
     </row>
-    <row r="79" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>14</v>
       </c>
@@ -20053,7 +20065,7 @@
       </c>
       <c r="M79" s="13"/>
     </row>
-    <row r="80" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>14</v>
       </c>
@@ -20074,7 +20086,7 @@
       </c>
       <c r="M80" s="13"/>
     </row>
-    <row r="81" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>14</v>
       </c>
@@ -20095,7 +20107,7 @@
       </c>
       <c r="M81" s="13"/>
     </row>
-    <row r="82" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>14</v>
       </c>
@@ -20116,7 +20128,7 @@
       </c>
       <c r="M82" s="13"/>
     </row>
-    <row r="83" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>14</v>
       </c>
@@ -20137,7 +20149,7 @@
       </c>
       <c r="M83" s="13"/>
     </row>
-    <row r="84" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>14</v>
       </c>
@@ -20158,7 +20170,7 @@
       </c>
       <c r="M84" s="13"/>
     </row>
-    <row r="85" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>14</v>
       </c>
@@ -20179,7 +20191,7 @@
       </c>
       <c r="M85" s="13"/>
     </row>
-    <row r="86" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>14</v>
       </c>
@@ -20200,7 +20212,7 @@
       </c>
       <c r="M86" s="13"/>
     </row>
-    <row r="87" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>14</v>
       </c>
@@ -20221,7 +20233,7 @@
       </c>
       <c r="M87" s="13"/>
     </row>
-    <row r="88" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>14</v>
       </c>
@@ -20242,7 +20254,7 @@
       </c>
       <c r="M88" s="13"/>
     </row>
-    <row r="89" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>92</v>
       </c>
@@ -20263,7 +20275,7 @@
       </c>
       <c r="M89" s="13"/>
     </row>
-    <row r="90" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
@@ -20284,7 +20296,7 @@
       </c>
       <c r="M90" s="13"/>
     </row>
-    <row r="91" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>14</v>
       </c>
@@ -20305,7 +20317,7 @@
       </c>
       <c r="M91" s="13"/>
     </row>
-    <row r="92" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>14</v>
       </c>
@@ -20326,7 +20338,7 @@
       </c>
       <c r="M92" s="13"/>
     </row>
-    <row r="93" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>14</v>
       </c>
@@ -20344,7 +20356,7 @@
       </c>
       <c r="M93" s="13"/>
     </row>
-    <row r="94" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>14</v>
       </c>
@@ -20365,7 +20377,7 @@
       </c>
       <c r="M94" s="13"/>
     </row>
-    <row r="95" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>14</v>
       </c>
@@ -20386,7 +20398,7 @@
       </c>
       <c r="M95" s="13"/>
     </row>
-    <row r="96" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>14</v>
       </c>
@@ -20407,7 +20419,7 @@
       </c>
       <c r="M96" s="13"/>
     </row>
-    <row r="97" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>14</v>
       </c>
@@ -20428,7 +20440,7 @@
       </c>
       <c r="M97" s="13"/>
     </row>
-    <row r="98" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>14</v>
       </c>
@@ -20449,7 +20461,7 @@
       </c>
       <c r="M98" s="13"/>
     </row>
-    <row r="99" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>14</v>
       </c>
@@ -20470,7 +20482,7 @@
       </c>
       <c r="M99" s="13"/>
     </row>
-    <row r="100" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>14</v>
       </c>
@@ -20491,7 +20503,7 @@
       </c>
       <c r="M100" s="13"/>
     </row>
-    <row r="101" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>14</v>
       </c>
@@ -20512,7 +20524,7 @@
       </c>
       <c r="M101" s="13"/>
     </row>
-    <row r="102" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>14</v>
       </c>
@@ -20533,7 +20545,7 @@
       </c>
       <c r="M102" s="13"/>
     </row>
-    <row r="103" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>92</v>
       </c>
@@ -20554,7 +20566,7 @@
       </c>
       <c r="M103" s="13"/>
     </row>
-    <row r="104" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>14</v>
       </c>
@@ -20575,7 +20587,7 @@
       </c>
       <c r="M104" s="13"/>
     </row>
-    <row r="105" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>14</v>
       </c>
@@ -20596,7 +20608,7 @@
       </c>
       <c r="M105" s="13"/>
     </row>
-    <row r="106" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>14</v>
       </c>
@@ -20617,7 +20629,7 @@
       </c>
       <c r="M106" s="13"/>
     </row>
-    <row r="107" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>14</v>
       </c>
@@ -20638,7 +20650,7 @@
       </c>
       <c r="M107" s="13"/>
     </row>
-    <row r="108" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>14</v>
       </c>
@@ -20659,7 +20671,7 @@
       </c>
       <c r="M108" s="13"/>
     </row>
-    <row r="109" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>14</v>
       </c>
@@ -20680,7 +20692,7 @@
       </c>
       <c r="M109" s="13"/>
     </row>
-    <row r="110" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>14</v>
       </c>
@@ -20701,7 +20713,7 @@
       </c>
       <c r="M110" s="13"/>
     </row>
-    <row r="111" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>14</v>
       </c>
@@ -20722,7 +20734,7 @@
       </c>
       <c r="M111" s="13"/>
     </row>
-    <row r="112" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>14</v>
       </c>
@@ -20743,7 +20755,7 @@
       </c>
       <c r="M112" s="13"/>
     </row>
-    <row r="113" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>14</v>
       </c>
@@ -20764,7 +20776,7 @@
       </c>
       <c r="M113" s="13"/>
     </row>
-    <row r="114" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>14</v>
       </c>
@@ -20785,7 +20797,7 @@
       </c>
       <c r="M114" s="13"/>
     </row>
-    <row r="115" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>14</v>
       </c>
@@ -20806,7 +20818,7 @@
       </c>
       <c r="M115" s="13"/>
     </row>
-    <row r="116" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>92</v>
       </c>
@@ -20827,7 +20839,7 @@
       </c>
       <c r="M116" s="13"/>
     </row>
-    <row r="117" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>14</v>
       </c>
@@ -20848,7 +20860,7 @@
       </c>
       <c r="M117" s="13"/>
     </row>
-    <row r="118" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>14</v>
       </c>
@@ -20869,7 +20881,7 @@
       </c>
       <c r="M118" s="13"/>
     </row>
-    <row r="119" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>14</v>
       </c>
@@ -20890,7 +20902,7 @@
       </c>
       <c r="M119" s="13"/>
     </row>
-    <row r="120" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>14</v>
       </c>
@@ -20908,7 +20920,7 @@
       </c>
       <c r="M120" s="13"/>
     </row>
-    <row r="121" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>14</v>
       </c>
@@ -20926,7 +20938,7 @@
       </c>
       <c r="M121" s="13"/>
     </row>
-    <row r="122" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>92</v>
       </c>
@@ -20947,7 +20959,7 @@
       </c>
       <c r="M122" s="13"/>
     </row>
-    <row r="123" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>92</v>
       </c>
@@ -20968,7 +20980,7 @@
       </c>
       <c r="M123" s="13"/>
     </row>
-    <row r="124" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>14</v>
       </c>
@@ -20986,7 +20998,7 @@
       </c>
       <c r="M124" s="13"/>
     </row>
-    <row r="125" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>14</v>
       </c>
@@ -21007,7 +21019,7 @@
       </c>
       <c r="M125" s="13"/>
     </row>
-    <row r="126" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>14</v>
       </c>
@@ -21028,7 +21040,7 @@
       </c>
       <c r="M126" s="13"/>
     </row>
-    <row r="127" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>14</v>
       </c>
@@ -21049,7 +21061,7 @@
       </c>
       <c r="M127" s="13"/>
     </row>
-    <row r="128" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>92</v>
       </c>
@@ -21070,7 +21082,7 @@
       </c>
       <c r="M128" s="13"/>
     </row>
-    <row r="129" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>14</v>
       </c>
@@ -21091,7 +21103,7 @@
       </c>
       <c r="M129" s="13"/>
     </row>
-    <row r="130" spans="1:13" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>10</v>
       </c>
@@ -21127,7 +21139,7 @@
       </c>
       <c r="M130" s="13"/>
     </row>
-    <row r="131" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>14</v>
       </c>
@@ -21166,7 +21178,7 @@
       </c>
       <c r="M131" s="13"/>
     </row>
-    <row r="132" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>306</v>
       </c>
@@ -21196,7 +21208,7 @@
       </c>
       <c r="M132" s="13"/>
     </row>
-    <row r="133" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>306</v>
       </c>
@@ -21233,7 +21245,7 @@
       <c r="L133" s="6"/>
       <c r="M133" s="13"/>
     </row>
-    <row r="134" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>306</v>
       </c>
@@ -21268,7 +21280,7 @@
       <c r="L134" s="6"/>
       <c r="M134" s="13"/>
     </row>
-    <row r="135" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>306</v>
       </c>
@@ -21301,7 +21313,7 @@
       </c>
       <c r="M135" s="13"/>
     </row>
-    <row r="136" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>306</v>
       </c>
@@ -21334,7 +21346,7 @@
       </c>
       <c r="M136" s="13"/>
     </row>
-    <row r="137" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>306</v>
       </c>
@@ -21369,7 +21381,7 @@
       <c r="L137" s="6"/>
       <c r="M137" s="13"/>
     </row>
-    <row r="138" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>14</v>
       </c>
@@ -21387,7 +21399,7 @@
       </c>
       <c r="M138" s="13"/>
     </row>
-    <row r="139" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>14</v>
       </c>
@@ -21408,7 +21420,7 @@
       </c>
       <c r="M139" s="13"/>
     </row>
-    <row r="140" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>201</v>
       </c>
@@ -21423,7 +21435,7 @@
       </c>
       <c r="M140" s="13"/>
     </row>
-    <row r="141" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>92</v>
       </c>
@@ -21444,7 +21456,7 @@
       </c>
       <c r="M141" s="13"/>
     </row>
-    <row r="142" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>92</v>
       </c>
@@ -21462,7 +21474,7 @@
       </c>
       <c r="M142" s="13"/>
     </row>
-    <row r="143" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>92</v>
       </c>
@@ -21483,7 +21495,7 @@
       </c>
       <c r="M143" s="13"/>
     </row>
-    <row r="144" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>92</v>
       </c>
@@ -21504,7 +21516,7 @@
       </c>
       <c r="M144" s="13"/>
     </row>
-    <row r="145" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>14</v>
       </c>
@@ -21522,7 +21534,7 @@
       </c>
       <c r="M145" s="13"/>
     </row>
-    <row r="146" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>92</v>
       </c>
@@ -21543,7 +21555,7 @@
       </c>
       <c r="M146" s="13"/>
     </row>
-    <row r="147" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>92</v>
       </c>
@@ -21564,7 +21576,7 @@
       </c>
       <c r="M147" s="13"/>
     </row>
-    <row r="148" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>14</v>
       </c>
@@ -21585,7 +21597,7 @@
       </c>
       <c r="M148" s="13"/>
     </row>
-    <row r="149" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>14</v>
       </c>
@@ -21606,7 +21618,7 @@
       </c>
       <c r="M149" s="13"/>
     </row>
-    <row r="150" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>92</v>
       </c>
@@ -21627,7 +21639,7 @@
       </c>
       <c r="M150" s="13"/>
     </row>
-    <row r="151" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>14</v>
       </c>
@@ -21648,7 +21660,7 @@
       </c>
       <c r="M151" s="13"/>
     </row>
-    <row r="152" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>14</v>
       </c>
@@ -21669,7 +21681,7 @@
       </c>
       <c r="M152" s="13"/>
     </row>
-    <row r="153" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>92</v>
       </c>
@@ -21690,7 +21702,7 @@
       </c>
       <c r="M153" s="13"/>
     </row>
-    <row r="154" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>14</v>
       </c>
@@ -21711,7 +21723,7 @@
       </c>
       <c r="M154" s="13"/>
     </row>
-    <row r="155" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>306</v>
       </c>
@@ -21747,7 +21759,7 @@
       </c>
       <c r="M155" s="13"/>
     </row>
-    <row r="156" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>306</v>
       </c>
@@ -21780,7 +21792,7 @@
       </c>
       <c r="M156" s="13"/>
     </row>
-    <row r="157" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>306</v>
       </c>
@@ -21814,7 +21826,7 @@
       <c r="L157" s="6"/>
       <c r="M157" s="13"/>
     </row>
-    <row r="158" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>306</v>
       </c>
@@ -21850,7 +21862,7 @@
       </c>
       <c r="M158" s="13"/>
     </row>
-    <row r="159" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>179</v>
       </c>
@@ -21886,7 +21898,7 @@
       </c>
       <c r="M159" s="13"/>
     </row>
-    <row r="160" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>10</v>
       </c>
@@ -21904,7 +21916,7 @@
       </c>
       <c r="M160" s="13"/>
     </row>
-    <row r="161" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>306</v>
       </c>
@@ -21935,7 +21947,7 @@
       </c>
       <c r="M161" s="13"/>
     </row>
-    <row r="162" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>14</v>
       </c>
@@ -21953,7 +21965,7 @@
       </c>
       <c r="M162" s="13"/>
     </row>
-    <row r="163" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>14</v>
       </c>
@@ -21971,7 +21983,7 @@
       </c>
       <c r="M163" s="13"/>
     </row>
-    <row r="164" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>14</v>
       </c>
@@ -21992,7 +22004,7 @@
       </c>
       <c r="M164" s="13"/>
     </row>
-    <row r="165" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>10</v>
       </c>
@@ -22010,7 +22022,7 @@
       </c>
       <c r="M165" s="13"/>
     </row>
-    <row r="166" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>10</v>
       </c>
@@ -22028,7 +22040,7 @@
       </c>
       <c r="M166" s="13"/>
     </row>
-    <row r="167" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>179</v>
       </c>
@@ -22049,7 +22061,7 @@
       </c>
       <c r="M167" s="13"/>
     </row>
-    <row r="168" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>179</v>
       </c>
@@ -22085,7 +22097,7 @@
       </c>
       <c r="M168" s="13"/>
     </row>
-    <row r="169" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>14</v>
       </c>
@@ -22121,7 +22133,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="170" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>14</v>
       </c>
@@ -22142,7 +22154,7 @@
       </c>
       <c r="M170" s="13"/>
     </row>
-    <row r="171" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>306</v>
       </c>
@@ -22172,7 +22184,7 @@
       </c>
       <c r="M171" s="13"/>
     </row>
-    <row r="172" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>10</v>
       </c>
@@ -22207,7 +22219,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="173" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>10</v>
       </c>
@@ -22239,7 +22251,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="174" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>179</v>
       </c>
@@ -22275,7 +22287,7 @@
       </c>
       <c r="M174" s="13"/>
     </row>
-    <row r="175" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>306</v>
       </c>
@@ -22308,7 +22320,7 @@
       </c>
       <c r="M175" s="13"/>
     </row>
-    <row r="176" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>179</v>
       </c>
@@ -22329,7 +22341,7 @@
       </c>
       <c r="M176" s="13"/>
     </row>
-    <row r="177" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>10</v>
       </c>
@@ -22344,7 +22356,7 @@
       </c>
       <c r="M177" s="13"/>
     </row>
-    <row r="178" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>14</v>
       </c>
@@ -22365,7 +22377,7 @@
       </c>
       <c r="M178" s="13"/>
     </row>
-    <row r="179" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>14</v>
       </c>
@@ -22386,7 +22398,7 @@
       </c>
       <c r="M179" s="13"/>
     </row>
-    <row r="180" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>10</v>
       </c>
@@ -22422,7 +22434,7 @@
       </c>
       <c r="M180" s="13"/>
     </row>
-    <row r="181" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>14</v>
       </c>
@@ -22443,7 +22455,7 @@
       </c>
       <c r="M181" s="13"/>
     </row>
-    <row r="182" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>10</v>
       </c>
@@ -22475,7 +22487,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="183" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>14</v>
       </c>
@@ -22499,7 +22511,7 @@
       </c>
       <c r="M183" s="13"/>
     </row>
-    <row r="184" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>10</v>
       </c>
@@ -22531,7 +22543,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="185" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>14</v>
       </c>
@@ -22552,7 +22564,7 @@
       </c>
       <c r="M185" s="13"/>
     </row>
-    <row r="186" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>14</v>
       </c>
@@ -22573,7 +22585,7 @@
       </c>
       <c r="M186" s="13"/>
     </row>
-    <row r="187" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>14</v>
       </c>
@@ -22594,7 +22606,7 @@
       </c>
       <c r="M187" s="13"/>
     </row>
-    <row r="188" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>14</v>
       </c>
@@ -22615,7 +22627,7 @@
       </c>
       <c r="M188" s="13"/>
     </row>
-    <row r="189" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>14</v>
       </c>
@@ -22636,7 +22648,7 @@
       </c>
       <c r="M189" s="13"/>
     </row>
-    <row r="190" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>14</v>
       </c>
@@ -22657,7 +22669,7 @@
       </c>
       <c r="M190" s="13"/>
     </row>
-    <row r="191" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>306</v>
       </c>
@@ -22692,7 +22704,7 @@
       </c>
       <c r="M191" s="13"/>
     </row>
-    <row r="192" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>306</v>
       </c>
@@ -22727,7 +22739,7 @@
       </c>
       <c r="M192" s="13"/>
     </row>
-    <row r="193" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>306</v>
       </c>
@@ -22760,7 +22772,7 @@
       </c>
       <c r="M193" s="13"/>
     </row>
-    <row r="194" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>306</v>
       </c>
@@ -22793,7 +22805,7 @@
       </c>
       <c r="M194" s="13"/>
     </row>
-    <row r="195" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>14</v>
       </c>
@@ -22814,7 +22826,7 @@
       </c>
       <c r="M195" s="13"/>
     </row>
-    <row r="196" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>14</v>
       </c>
@@ -22832,7 +22844,7 @@
       </c>
       <c r="M196" s="13"/>
     </row>
-    <row r="197" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>14</v>
       </c>
@@ -22853,7 +22865,7 @@
       </c>
       <c r="M197" s="13"/>
     </row>
-    <row r="198" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>14</v>
       </c>
@@ -22868,7 +22880,7 @@
       </c>
       <c r="M198" s="13"/>
     </row>
-    <row r="199" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>306</v>
       </c>
@@ -22898,7 +22910,7 @@
       </c>
       <c r="M199" s="13"/>
     </row>
-    <row r="200" spans="1:13" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>405</v>
       </c>

--- a/mtc2umati/mtc2umati/Mapping.xlsx
+++ b/mtc2umati/mtc2umati/Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\arzer\Seafile\Meine Bibliothek\MeineProjekte\umati\connect\mtc2umati\mtc2umati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0194E4A7-D440-45C2-8BED-5F21D2CD707E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2888AF-A678-4218-B245-8A3199CE2EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{40695492-071F-42C0-91D8-1CF4EDDA561A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5562" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5562" uniqueCount="621">
   <si>
     <t>Modelling Rule</t>
   </si>
@@ -1889,6 +1889,9 @@
   </si>
   <si>
     <t>#https://www.mazak.com/eu-en/products/cv5/</t>
+  </si>
+  <si>
+    <t>AccumulatedTime</t>
   </si>
 </sst>
 </file>
@@ -7213,8 +7216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA108938-A41A-4607-947C-EAC9A8B9EE57}">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E70" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10553,7 +10556,7 @@
         <v>103</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>186</v>
+        <v>620</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>561</v>
